--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026AA8A-407C-4427-809D-2DA4D1731496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF83BC4-09B5-4075-BBAC-325A1EE28111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -761,35 +761,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,41 +811,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,21 +1066,21 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,13 +1096,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1113,13 +1113,13 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="63"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1128,13 +1128,13 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="63"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1143,13 +1143,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1158,13 +1158,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1173,13 +1173,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="63"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1188,28 +1188,30 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="63"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1218,28 +1220,30 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="58"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1248,13 +1252,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="58"/>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1263,13 +1267,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="63"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1278,28 +1282,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="63"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="63"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="58"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1308,28 +1314,30 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="63"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="58"/>
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="63"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1338,13 +1346,13 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="63"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1353,13 +1361,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="63"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="58"/>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1368,13 +1376,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="63"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
@@ -1383,13 +1391,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="59"/>
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1398,22 +1406,22 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1424,13 +1432,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1439,13 +1447,13 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="63"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="58"/>
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1454,13 +1462,13 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="58"/>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1469,13 +1477,13 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="63"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1484,13 +1492,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="63"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1499,28 +1507,30 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="63"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="58"/>
       <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1529,28 +1539,30 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="58"/>
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="63"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="58"/>
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
@@ -1559,13 +1571,13 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="63"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="58"/>
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
@@ -1574,13 +1586,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="63"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="58"/>
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
@@ -1589,28 +1601,30 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="58"/>
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="58"/>
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
@@ -1619,28 +1633,30 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="58"/>
       <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="58"/>
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1649,13 +1665,13 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="58"/>
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1664,13 +1680,13 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="63"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="58"/>
       <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
@@ -1679,13 +1695,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="58"/>
       <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
@@ -1694,13 +1710,13 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="59"/>
       <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
@@ -1709,21 +1725,21 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="26" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="53"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="61" t="s">
         <v>27</v>
       </c>
@@ -1731,119 +1747,119 @@
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="62"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="68"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="62"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="62"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="68"/>
     </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="62"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="62"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="68"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="62"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="62"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="68"/>
     </row>
-    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A48" s="62"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="69"/>
-    </row>
-    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A49" s="63"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="69"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
+    </row>
+    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="53"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="64" t="s">
+      <c r="F51" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="58"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="58"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="58"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="33" t="s">
         <v>26</v>
       </c>
@@ -1853,14 +1869,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="52"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="42"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="30" t="s">
         <v>24</v>
       </c>
@@ -1869,15 +1885,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="51">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
         <v>0</v>
       </c>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="42"/>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
@@ -1888,12 +1904,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="41"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1902,3819 +1918,3864 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
     </row>
-    <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
     </row>
-    <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
     </row>
-    <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
     </row>
-    <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
     </row>
-    <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
     </row>
-    <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
-    <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
-    <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
     </row>
-    <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
     </row>
-    <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
     </row>
-    <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
     </row>
-    <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
     </row>
-    <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
     </row>
-    <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
     </row>
-    <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
     </row>
-    <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
     </row>
-    <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
     </row>
-    <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
     </row>
-    <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F393" s="21"/>
       <c r="G393" s="21"/>
     </row>
-    <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F400" s="21"/>
       <c r="G400" s="21"/>
     </row>
-    <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F407" s="21"/>
       <c r="G407" s="21"/>
     </row>
-    <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F414" s="21"/>
       <c r="G414" s="21"/>
     </row>
-    <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F421" s="21"/>
       <c r="G421" s="21"/>
     </row>
-    <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F428" s="21"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F435" s="21"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F442" s="21"/>
       <c r="G442" s="21"/>
     </row>
-    <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F449" s="21"/>
       <c r="G449" s="21"/>
     </row>
-    <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F456" s="21"/>
       <c r="G456" s="21"/>
     </row>
-    <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F463" s="21"/>
       <c r="G463" s="21"/>
     </row>
-    <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F470" s="21"/>
       <c r="G470" s="21"/>
     </row>
-    <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F497" s="21"/>
       <c r="G497" s="21"/>
     </row>
-    <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F498" s="21"/>
       <c r="G498" s="21"/>
     </row>
-    <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F499" s="21"/>
       <c r="G499" s="21"/>
     </row>
-    <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F500" s="21"/>
       <c r="G500" s="21"/>
     </row>
-    <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F501" s="21"/>
       <c r="G501" s="21"/>
     </row>
-    <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F502" s="21"/>
       <c r="G502" s="21"/>
     </row>
-    <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F503" s="21"/>
       <c r="G503" s="21"/>
     </row>
-    <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F505" s="21"/>
       <c r="G505" s="21"/>
     </row>
-    <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F506" s="21"/>
       <c r="G506" s="21"/>
     </row>
-    <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F508" s="21"/>
       <c r="G508" s="21"/>
     </row>
-    <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F509" s="21"/>
       <c r="G509" s="21"/>
     </row>
-    <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F510" s="21"/>
       <c r="G510" s="21"/>
     </row>
-    <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F511" s="21"/>
       <c r="G511" s="21"/>
     </row>
-    <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F512" s="21"/>
       <c r="G512" s="21"/>
     </row>
-    <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F513" s="21"/>
       <c r="G513" s="21"/>
     </row>
-    <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F514" s="21"/>
       <c r="G514" s="21"/>
     </row>
-    <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F515" s="21"/>
       <c r="G515" s="21"/>
     </row>
-    <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F516" s="21"/>
       <c r="G516" s="21"/>
     </row>
-    <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F517" s="21"/>
       <c r="G517" s="21"/>
     </row>
-    <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F518" s="21"/>
       <c r="G518" s="21"/>
     </row>
-    <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
     </row>
-    <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F521" s="21"/>
       <c r="G521" s="21"/>
     </row>
-    <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F522" s="21"/>
       <c r="G522" s="21"/>
     </row>
-    <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F523" s="21"/>
       <c r="G523" s="21"/>
     </row>
-    <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F524" s="21"/>
       <c r="G524" s="21"/>
     </row>
-    <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F525" s="21"/>
       <c r="G525" s="21"/>
     </row>
-    <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F526" s="21"/>
       <c r="G526" s="21"/>
     </row>
-    <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
     </row>
-    <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F528" s="21"/>
       <c r="G528" s="21"/>
     </row>
-    <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F530" s="21"/>
       <c r="G530" s="21"/>
     </row>
-    <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F531" s="21"/>
       <c r="G531" s="21"/>
     </row>
-    <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F532" s="21"/>
       <c r="G532" s="21"/>
     </row>
-    <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F533" s="21"/>
       <c r="G533" s="21"/>
     </row>
-    <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F534" s="21"/>
       <c r="G534" s="21"/>
     </row>
-    <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F535" s="21"/>
       <c r="G535" s="21"/>
     </row>
-    <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F536" s="21"/>
       <c r="G536" s="21"/>
     </row>
-    <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F537" s="21"/>
       <c r="G537" s="21"/>
     </row>
-    <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F538" s="21"/>
       <c r="G538" s="21"/>
     </row>
-    <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F539" s="21"/>
       <c r="G539" s="21"/>
     </row>
-    <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F540" s="21"/>
       <c r="G540" s="21"/>
     </row>
-    <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F541" s="21"/>
       <c r="G541" s="21"/>
     </row>
-    <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F542" s="21"/>
       <c r="G542" s="21"/>
     </row>
-    <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F543" s="21"/>
       <c r="G543" s="21"/>
     </row>
-    <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
     </row>
-    <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
     </row>
-    <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F554" s="21"/>
       <c r="G554" s="21"/>
     </row>
-    <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F561" s="21"/>
       <c r="G561" s="21"/>
     </row>
-    <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F568" s="21"/>
       <c r="G568" s="21"/>
     </row>
-    <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F575" s="21"/>
       <c r="G575" s="21"/>
     </row>
-    <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F582" s="21"/>
       <c r="G582" s="21"/>
     </row>
-    <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F589" s="21"/>
       <c r="G589" s="21"/>
     </row>
-    <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F593" s="21"/>
       <c r="G593" s="21"/>
     </row>
-    <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F594" s="21"/>
       <c r="G594" s="21"/>
     </row>
-    <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F595" s="21"/>
       <c r="G595" s="21"/>
     </row>
-    <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F596" s="21"/>
       <c r="G596" s="21"/>
     </row>
-    <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F597" s="21"/>
       <c r="G597" s="21"/>
     </row>
-    <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F598" s="21"/>
       <c r="G598" s="21"/>
     </row>
-    <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F599" s="21"/>
       <c r="G599" s="21"/>
     </row>
-    <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F600" s="21"/>
       <c r="G600" s="21"/>
     </row>
-    <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F601" s="21"/>
       <c r="G601" s="21"/>
     </row>
-    <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F602" s="21"/>
       <c r="G602" s="21"/>
     </row>
-    <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F603" s="21"/>
       <c r="G603" s="21"/>
     </row>
-    <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F604" s="21"/>
       <c r="G604" s="21"/>
     </row>
-    <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F605" s="21"/>
       <c r="G605" s="21"/>
     </row>
-    <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F606" s="21"/>
       <c r="G606" s="21"/>
     </row>
-    <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F607" s="21"/>
       <c r="G607" s="21"/>
     </row>
-    <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F608" s="21"/>
       <c r="G608" s="21"/>
     </row>
-    <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F609" s="21"/>
       <c r="G609" s="21"/>
     </row>
-    <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F610" s="21"/>
       <c r="G610" s="21"/>
     </row>
-    <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F611" s="21"/>
       <c r="G611" s="21"/>
     </row>
-    <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F612" s="21"/>
       <c r="G612" s="21"/>
     </row>
-    <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F613" s="21"/>
       <c r="G613" s="21"/>
     </row>
-    <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F614" s="21"/>
       <c r="G614" s="21"/>
     </row>
-    <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F615" s="21"/>
       <c r="G615" s="21"/>
     </row>
-    <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F616" s="21"/>
       <c r="G616" s="21"/>
     </row>
-    <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F617" s="21"/>
       <c r="G617" s="21"/>
     </row>
-    <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F618" s="21"/>
       <c r="G618" s="21"/>
     </row>
-    <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F619" s="21"/>
       <c r="G619" s="21"/>
     </row>
-    <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F620" s="21"/>
       <c r="G620" s="21"/>
     </row>
-    <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F621" s="21"/>
       <c r="G621" s="21"/>
     </row>
-    <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F622" s="21"/>
       <c r="G622" s="21"/>
     </row>
-    <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F623" s="21"/>
       <c r="G623" s="21"/>
     </row>
-    <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F624" s="21"/>
       <c r="G624" s="21"/>
     </row>
-    <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F625" s="21"/>
       <c r="G625" s="21"/>
     </row>
-    <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F626" s="21"/>
       <c r="G626" s="21"/>
     </row>
-    <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F627" s="21"/>
       <c r="G627" s="21"/>
     </row>
-    <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F628" s="21"/>
       <c r="G628" s="21"/>
     </row>
-    <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F629" s="21"/>
       <c r="G629" s="21"/>
     </row>
-    <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F630" s="21"/>
       <c r="G630" s="21"/>
     </row>
-    <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F631" s="21"/>
       <c r="G631" s="21"/>
     </row>
-    <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F632" s="21"/>
       <c r="G632" s="21"/>
     </row>
-    <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F633" s="21"/>
       <c r="G633" s="21"/>
     </row>
-    <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F634" s="21"/>
       <c r="G634" s="21"/>
     </row>
-    <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F635" s="21"/>
       <c r="G635" s="21"/>
     </row>
-    <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F640" s="21"/>
       <c r="G640" s="21"/>
     </row>
-    <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F641" s="21"/>
       <c r="G641" s="21"/>
     </row>
-    <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F642" s="21"/>
       <c r="G642" s="21"/>
     </row>
-    <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F643" s="21"/>
       <c r="G643" s="21"/>
     </row>
-    <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F644" s="21"/>
       <c r="G644" s="21"/>
     </row>
-    <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F645" s="21"/>
       <c r="G645" s="21"/>
     </row>
-    <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F646" s="21"/>
       <c r="G646" s="21"/>
     </row>
-    <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F647" s="21"/>
       <c r="G647" s="21"/>
     </row>
-    <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F648" s="21"/>
       <c r="G648" s="21"/>
     </row>
-    <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F649" s="21"/>
       <c r="G649" s="21"/>
     </row>
-    <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F650" s="21"/>
       <c r="G650" s="21"/>
     </row>
-    <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F651" s="21"/>
       <c r="G651" s="21"/>
     </row>
-    <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F652" s="21"/>
       <c r="G652" s="21"/>
     </row>
-    <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F653" s="21"/>
       <c r="G653" s="21"/>
     </row>
-    <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F654" s="21"/>
       <c r="G654" s="21"/>
     </row>
-    <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F655" s="21"/>
       <c r="G655" s="21"/>
     </row>
-    <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F656" s="21"/>
       <c r="G656" s="21"/>
     </row>
-    <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F659" s="21"/>
       <c r="G659" s="21"/>
     </row>
-    <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F666" s="21"/>
       <c r="G666" s="21"/>
     </row>
-    <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F673" s="21"/>
       <c r="G673" s="21"/>
     </row>
-    <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F687" s="21"/>
       <c r="G687" s="21"/>
     </row>
-    <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F694" s="21"/>
       <c r="G694" s="21"/>
     </row>
-    <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F701" s="21"/>
       <c r="G701" s="21"/>
     </row>
-    <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F708" s="21"/>
       <c r="G708" s="21"/>
     </row>
-    <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F722" s="21"/>
       <c r="G722" s="21"/>
     </row>
-    <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F729" s="21"/>
       <c r="G729" s="21"/>
     </row>
-    <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F736" s="21"/>
       <c r="G736" s="21"/>
     </row>
-    <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F742" s="21"/>
       <c r="G742" s="21"/>
     </row>
-    <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F750" s="21"/>
       <c r="G750" s="21"/>
     </row>
-    <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F757" s="21"/>
       <c r="G757" s="21"/>
     </row>
-    <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F764" s="21"/>
       <c r="G764" s="21"/>
     </row>
-    <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F769" s="21"/>
       <c r="G769" s="21"/>
     </row>
-    <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F770" s="21"/>
       <c r="G770" s="21"/>
     </row>
-    <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F771" s="21"/>
       <c r="G771" s="21"/>
     </row>
-    <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F772" s="21"/>
       <c r="G772" s="21"/>
     </row>
-    <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F773" s="21"/>
       <c r="G773" s="21"/>
     </row>
-    <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F774" s="21"/>
       <c r="G774" s="21"/>
     </row>
-    <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F775" s="21"/>
       <c r="G775" s="21"/>
     </row>
-    <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F776" s="21"/>
       <c r="G776" s="21"/>
     </row>
-    <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F777" s="21"/>
       <c r="G777" s="21"/>
     </row>
-    <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F778" s="21"/>
       <c r="G778" s="21"/>
     </row>
-    <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F779" s="21"/>
       <c r="G779" s="21"/>
     </row>
-    <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F780" s="21"/>
       <c r="G780" s="21"/>
     </row>
-    <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F781" s="21"/>
       <c r="G781" s="21"/>
     </row>
-    <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F782" s="21"/>
       <c r="G782" s="21"/>
     </row>
-    <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F783" s="21"/>
       <c r="G783" s="21"/>
     </row>
-    <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F784" s="21"/>
       <c r="G784" s="21"/>
     </row>
-    <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F785" s="21"/>
       <c r="G785" s="21"/>
     </row>
-    <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F786" s="21"/>
       <c r="G786" s="21"/>
     </row>
-    <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F787" s="21"/>
       <c r="G787" s="21"/>
     </row>
-    <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F788" s="21"/>
       <c r="G788" s="21"/>
     </row>
-    <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F789" s="21"/>
       <c r="G789" s="21"/>
     </row>
-    <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F790" s="21"/>
       <c r="G790" s="21"/>
     </row>
-    <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F791" s="21"/>
       <c r="G791" s="21"/>
     </row>
-    <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F792" s="21"/>
       <c r="G792" s="21"/>
     </row>
-    <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F793" s="21"/>
       <c r="G793" s="21"/>
     </row>
-    <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F794" s="21"/>
       <c r="G794" s="21"/>
     </row>
-    <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F795" s="21"/>
       <c r="G795" s="21"/>
     </row>
-    <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F796" s="21"/>
       <c r="G796" s="21"/>
     </row>
-    <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F797" s="21"/>
       <c r="G797" s="21"/>
     </row>
-    <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F798" s="21"/>
       <c r="G798" s="21"/>
     </row>
-    <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F799" s="21"/>
       <c r="G799" s="21"/>
     </row>
-    <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F800" s="21"/>
       <c r="G800" s="21"/>
     </row>
-    <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F801" s="21"/>
       <c r="G801" s="21"/>
     </row>
-    <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F802" s="21"/>
       <c r="G802" s="21"/>
     </row>
-    <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F803" s="21"/>
       <c r="G803" s="21"/>
     </row>
-    <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F804" s="21"/>
       <c r="G804" s="21"/>
     </row>
-    <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F805" s="21"/>
       <c r="G805" s="21"/>
     </row>
-    <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F806" s="21"/>
       <c r="G806" s="21"/>
     </row>
-    <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F807" s="21"/>
       <c r="G807" s="21"/>
     </row>
-    <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F808" s="21"/>
       <c r="G808" s="21"/>
     </row>
-    <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F809" s="21"/>
       <c r="G809" s="21"/>
     </row>
-    <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F810" s="21"/>
       <c r="G810" s="21"/>
     </row>
-    <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F811" s="21"/>
       <c r="G811" s="21"/>
     </row>
-    <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F812" s="21"/>
       <c r="G812" s="21"/>
     </row>
-    <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F813" s="21"/>
       <c r="G813" s="21"/>
     </row>
-    <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F814" s="21"/>
       <c r="G814" s="21"/>
     </row>
-    <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F815" s="21"/>
       <c r="G815" s="21"/>
     </row>
-    <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F816" s="21"/>
       <c r="G816" s="21"/>
     </row>
-    <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F817" s="21"/>
       <c r="G817" s="21"/>
     </row>
-    <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F818" s="21"/>
       <c r="G818" s="21"/>
     </row>
-    <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F819" s="21"/>
       <c r="G819" s="21"/>
     </row>
-    <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F820" s="21"/>
       <c r="G820" s="21"/>
     </row>
-    <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F821" s="21"/>
       <c r="G821" s="21"/>
     </row>
-    <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F822" s="21"/>
       <c r="G822" s="21"/>
     </row>
-    <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F823" s="21"/>
       <c r="G823" s="21"/>
     </row>
-    <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F824" s="21"/>
       <c r="G824" s="21"/>
     </row>
-    <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F825" s="21"/>
       <c r="G825" s="21"/>
     </row>
-    <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F826" s="21"/>
       <c r="G826" s="21"/>
     </row>
-    <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F827" s="21"/>
       <c r="G827" s="21"/>
     </row>
-    <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F828" s="21"/>
       <c r="G828" s="21"/>
     </row>
-    <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F829" s="21"/>
       <c r="G829" s="21"/>
     </row>
-    <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F830" s="21"/>
       <c r="G830" s="21"/>
     </row>
-    <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F831" s="21"/>
       <c r="G831" s="21"/>
     </row>
-    <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F832" s="21"/>
       <c r="G832" s="21"/>
     </row>
-    <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F833" s="21"/>
       <c r="G833" s="21"/>
     </row>
-    <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F834" s="21"/>
       <c r="G834" s="21"/>
     </row>
-    <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F835" s="21"/>
       <c r="G835" s="21"/>
     </row>
-    <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F836" s="21"/>
       <c r="G836" s="21"/>
     </row>
-    <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F837" s="21"/>
       <c r="G837" s="21"/>
     </row>
-    <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F838" s="21"/>
       <c r="G838" s="21"/>
     </row>
-    <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F839" s="21"/>
       <c r="G839" s="21"/>
     </row>
-    <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F840" s="21"/>
       <c r="G840" s="21"/>
     </row>
-    <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F841" s="21"/>
       <c r="G841" s="21"/>
     </row>
-    <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F842" s="21"/>
       <c r="G842" s="21"/>
     </row>
-    <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F843" s="21"/>
       <c r="G843" s="21"/>
     </row>
-    <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F844" s="21"/>
       <c r="G844" s="21"/>
     </row>
-    <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F845" s="21"/>
       <c r="G845" s="21"/>
     </row>
-    <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
     </row>
-    <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F848" s="21"/>
       <c r="G848" s="21"/>
     </row>
-    <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F849" s="21"/>
       <c r="G849" s="21"/>
     </row>
-    <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F850" s="21"/>
       <c r="G850" s="21"/>
     </row>
-    <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F851" s="21"/>
       <c r="G851" s="21"/>
     </row>
-    <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F852" s="21"/>
       <c r="G852" s="21"/>
     </row>
-    <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F853" s="21"/>
       <c r="G853" s="21"/>
     </row>
-    <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
     </row>
-    <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
     </row>
-    <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F856" s="21"/>
       <c r="G856" s="21"/>
     </row>
-    <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F857" s="21"/>
       <c r="G857" s="21"/>
     </row>
-    <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F858" s="21"/>
       <c r="G858" s="21"/>
     </row>
-    <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F859" s="21"/>
       <c r="G859" s="21"/>
     </row>
-    <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F860" s="21"/>
       <c r="G860" s="21"/>
     </row>
-    <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F861" s="21"/>
       <c r="G861" s="21"/>
     </row>
-    <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F862" s="21"/>
       <c r="G862" s="21"/>
     </row>
-    <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F863" s="21"/>
       <c r="G863" s="21"/>
     </row>
-    <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F864" s="21"/>
       <c r="G864" s="21"/>
     </row>
-    <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F865" s="21"/>
       <c r="G865" s="21"/>
     </row>
-    <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F866" s="21"/>
       <c r="G866" s="21"/>
     </row>
-    <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F867" s="21"/>
       <c r="G867" s="21"/>
     </row>
-    <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F868" s="21"/>
       <c r="G868" s="21"/>
     </row>
-    <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F869" s="21"/>
       <c r="G869" s="21"/>
     </row>
-    <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F870" s="21"/>
       <c r="G870" s="21"/>
     </row>
-    <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F871" s="21"/>
       <c r="G871" s="21"/>
     </row>
-    <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F872" s="21"/>
       <c r="G872" s="21"/>
     </row>
-    <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F873" s="21"/>
       <c r="G873" s="21"/>
     </row>
-    <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F874" s="21"/>
       <c r="G874" s="21"/>
     </row>
-    <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F875" s="21"/>
       <c r="G875" s="21"/>
     </row>
-    <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F876" s="21"/>
       <c r="G876" s="21"/>
     </row>
-    <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F877" s="21"/>
       <c r="G877" s="21"/>
     </row>
-    <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F878" s="21"/>
       <c r="G878" s="21"/>
     </row>
-    <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F879" s="21"/>
       <c r="G879" s="21"/>
     </row>
-    <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F880" s="21"/>
       <c r="G880" s="21"/>
     </row>
-    <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F881" s="21"/>
       <c r="G881" s="21"/>
     </row>
-    <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F882" s="21"/>
       <c r="G882" s="21"/>
     </row>
-    <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F883" s="21"/>
       <c r="G883" s="21"/>
     </row>
-    <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F884" s="21"/>
       <c r="G884" s="21"/>
     </row>
-    <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F885" s="21"/>
       <c r="G885" s="21"/>
     </row>
-    <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F886" s="21"/>
       <c r="G886" s="21"/>
     </row>
-    <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F887" s="21"/>
       <c r="G887" s="21"/>
     </row>
-    <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F888" s="21"/>
       <c r="G888" s="21"/>
     </row>
-    <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F889" s="21"/>
       <c r="G889" s="21"/>
     </row>
-    <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F890" s="21"/>
       <c r="G890" s="21"/>
     </row>
-    <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F891" s="21"/>
       <c r="G891" s="21"/>
     </row>
-    <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F892" s="21"/>
       <c r="G892" s="21"/>
     </row>
-    <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F893" s="21"/>
       <c r="G893" s="21"/>
     </row>
-    <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F894" s="21"/>
       <c r="G894" s="21"/>
     </row>
-    <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F895" s="21"/>
       <c r="G895" s="21"/>
     </row>
-    <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F896" s="21"/>
       <c r="G896" s="21"/>
     </row>
-    <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F897" s="21"/>
       <c r="G897" s="21"/>
     </row>
-    <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F898" s="21"/>
       <c r="G898" s="21"/>
     </row>
-    <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F899" s="21"/>
       <c r="G899" s="21"/>
     </row>
-    <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F900" s="21"/>
       <c r="G900" s="21"/>
     </row>
-    <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F901" s="21"/>
       <c r="G901" s="21"/>
     </row>
-    <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F902" s="21"/>
       <c r="G902" s="21"/>
     </row>
-    <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F903" s="21"/>
       <c r="G903" s="21"/>
     </row>
-    <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F904" s="21"/>
       <c r="G904" s="21"/>
     </row>
-    <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F905" s="21"/>
       <c r="G905" s="21"/>
     </row>
-    <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F906" s="21"/>
       <c r="G906" s="21"/>
     </row>
-    <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F907" s="21"/>
       <c r="G907" s="21"/>
     </row>
-    <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F908" s="21"/>
       <c r="G908" s="21"/>
     </row>
-    <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F909" s="21"/>
       <c r="G909" s="21"/>
     </row>
-    <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F910" s="21"/>
       <c r="G910" s="21"/>
     </row>
-    <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F911" s="21"/>
       <c r="G911" s="21"/>
     </row>
-    <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F912" s="21"/>
       <c r="G912" s="21"/>
     </row>
-    <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F913" s="21"/>
       <c r="G913" s="21"/>
     </row>
-    <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F914" s="21"/>
       <c r="G914" s="21"/>
     </row>
-    <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F915" s="21"/>
       <c r="G915" s="21"/>
     </row>
-    <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F916" s="21"/>
       <c r="G916" s="21"/>
     </row>
-    <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F917" s="21"/>
       <c r="G917" s="21"/>
     </row>
-    <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F918" s="21"/>
       <c r="G918" s="21"/>
     </row>
-    <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F919" s="21"/>
       <c r="G919" s="21"/>
     </row>
-    <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F920" s="21"/>
       <c r="G920" s="21"/>
     </row>
-    <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F921" s="21"/>
       <c r="G921" s="21"/>
     </row>
-    <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F922" s="21"/>
       <c r="G922" s="21"/>
     </row>
-    <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F923" s="21"/>
       <c r="G923" s="21"/>
     </row>
-    <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F924" s="21"/>
       <c r="G924" s="21"/>
     </row>
-    <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F925" s="21"/>
       <c r="G925" s="21"/>
     </row>
-    <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F926" s="21"/>
       <c r="G926" s="21"/>
     </row>
-    <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F927" s="21"/>
       <c r="G927" s="21"/>
     </row>
-    <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F928" s="21"/>
       <c r="G928" s="21"/>
     </row>
-    <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F929" s="21"/>
       <c r="G929" s="21"/>
     </row>
-    <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F930" s="21"/>
       <c r="G930" s="21"/>
     </row>
-    <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F931" s="21"/>
       <c r="G931" s="21"/>
     </row>
-    <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F932" s="21"/>
       <c r="G932" s="21"/>
     </row>
-    <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F933" s="21"/>
       <c r="G933" s="21"/>
     </row>
-    <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F934" s="21"/>
       <c r="G934" s="21"/>
     </row>
-    <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F935" s="21"/>
       <c r="G935" s="21"/>
     </row>
-    <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F936" s="21"/>
       <c r="G936" s="21"/>
     </row>
-    <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F937" s="21"/>
       <c r="G937" s="21"/>
     </row>
-    <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F938" s="21"/>
       <c r="G938" s="21"/>
     </row>
-    <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F939" s="21"/>
       <c r="G939" s="21"/>
     </row>
-    <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F940" s="21"/>
       <c r="G940" s="21"/>
     </row>
-    <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F941" s="21"/>
       <c r="G941" s="21"/>
     </row>
-    <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F942" s="21"/>
       <c r="G942" s="21"/>
     </row>
-    <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F943" s="21"/>
       <c r="G943" s="21"/>
     </row>
-    <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F944" s="21"/>
       <c r="G944" s="21"/>
     </row>
-    <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F945" s="21"/>
       <c r="G945" s="21"/>
     </row>
-    <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F946" s="21"/>
       <c r="G946" s="21"/>
     </row>
-    <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F947" s="21"/>
       <c r="G947" s="21"/>
     </row>
-    <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F948" s="21"/>
       <c r="G948" s="21"/>
     </row>
-    <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F949" s="21"/>
       <c r="G949" s="21"/>
     </row>
-    <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F950" s="21"/>
       <c r="G950" s="21"/>
     </row>
-    <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F951" s="21"/>
       <c r="G951" s="21"/>
     </row>
-    <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F952" s="21"/>
       <c r="G952" s="21"/>
     </row>
-    <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F953" s="21"/>
       <c r="G953" s="21"/>
     </row>
-    <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F954" s="21"/>
       <c r="G954" s="21"/>
     </row>
-    <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F955" s="21"/>
       <c r="G955" s="21"/>
     </row>
-    <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F956" s="21"/>
       <c r="G956" s="21"/>
     </row>
-    <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F957" s="21"/>
       <c r="G957" s="21"/>
     </row>
-    <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F958" s="21"/>
       <c r="G958" s="21"/>
     </row>
-    <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F959" s="21"/>
       <c r="G959" s="21"/>
     </row>
-    <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F960" s="21"/>
       <c r="G960" s="21"/>
     </row>
-    <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F961" s="21"/>
       <c r="G961" s="21"/>
     </row>
-    <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F962" s="21"/>
       <c r="G962" s="21"/>
     </row>
-    <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F963" s="21"/>
       <c r="G963" s="21"/>
     </row>
-    <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F964" s="21"/>
       <c r="G964" s="21"/>
     </row>
-    <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F965" s="21"/>
       <c r="G965" s="21"/>
     </row>
-    <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F966" s="21"/>
       <c r="G966" s="21"/>
     </row>
-    <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F967" s="21"/>
       <c r="G967" s="21"/>
     </row>
-    <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F968" s="21"/>
       <c r="G968" s="21"/>
     </row>
-    <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F969" s="21"/>
       <c r="G969" s="21"/>
     </row>
-    <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F970" s="21"/>
       <c r="G970" s="21"/>
     </row>
-    <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F971" s="21"/>
       <c r="G971" s="21"/>
     </row>
-    <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F972" s="21"/>
       <c r="G972" s="21"/>
     </row>
-    <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F973" s="21"/>
       <c r="G973" s="21"/>
     </row>
-    <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F974" s="21"/>
       <c r="G974" s="21"/>
     </row>
-    <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F975" s="21"/>
       <c r="G975" s="21"/>
     </row>
-    <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F976" s="21"/>
       <c r="G976" s="21"/>
     </row>
-    <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F977" s="21"/>
       <c r="G977" s="21"/>
     </row>
-    <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F978" s="21"/>
       <c r="G978" s="21"/>
     </row>
-    <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F979" s="21"/>
       <c r="G979" s="21"/>
     </row>
-    <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F980" s="21"/>
       <c r="G980" s="21"/>
     </row>
-    <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F981" s="21"/>
       <c r="G981" s="21"/>
     </row>
-    <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F982" s="21"/>
       <c r="G982" s="21"/>
     </row>
-    <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F983" s="21"/>
       <c r="G983" s="21"/>
     </row>
-    <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F984" s="21"/>
       <c r="G984" s="21"/>
     </row>
-    <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F985" s="21"/>
       <c r="G985" s="21"/>
     </row>
-    <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F986" s="21"/>
       <c r="G986" s="21"/>
     </row>
-    <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F987" s="21"/>
       <c r="G987" s="21"/>
     </row>
-    <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F988" s="21"/>
       <c r="G988" s="21"/>
     </row>
-    <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F989" s="21"/>
       <c r="G989" s="21"/>
     </row>
-    <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F990" s="21"/>
       <c r="G990" s="21"/>
     </row>
-    <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F991" s="21"/>
       <c r="G991" s="21"/>
     </row>
-    <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F992" s="21"/>
       <c r="G992" s="21"/>
     </row>
-    <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F993" s="21"/>
       <c r="G993" s="21"/>
     </row>
-    <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F994" s="21"/>
       <c r="G994" s="21"/>
     </row>
-    <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F995" s="21"/>
       <c r="G995" s="21"/>
     </row>
-    <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F996" s="21"/>
       <c r="G996" s="21"/>
     </row>
-    <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F997" s="21"/>
       <c r="G997" s="21"/>
     </row>
-    <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F998" s="21"/>
       <c r="G998" s="21"/>
     </row>
-    <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F999" s="21"/>
       <c r="G999" s="21"/>
     </row>
-    <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1000" s="21"/>
       <c r="G1000" s="21"/>
     </row>
-    <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1001" s="21"/>
       <c r="G1001" s="21"/>
     </row>
-    <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1002" s="21"/>
       <c r="G1002" s="21"/>
     </row>
-    <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1003" s="21"/>
       <c r="G1003" s="21"/>
     </row>
-    <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1004" s="21"/>
       <c r="G1004" s="21"/>
     </row>
-    <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1005" s="21"/>
       <c r="G1005" s="21"/>
     </row>
-    <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1006" s="21"/>
       <c r="G1006" s="21"/>
     </row>
-    <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1007" s="21"/>
       <c r="G1007" s="21"/>
     </row>
-    <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1008" s="21"/>
       <c r="G1008" s="21"/>
     </row>
-    <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1009" s="21"/>
       <c r="G1009" s="21"/>
     </row>
-    <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
     </row>
-    <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1011" s="21"/>
       <c r="G1011" s="21"/>
     </row>
-    <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F1012" s="21"/>
       <c r="G1012" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5731,51 +5792,6 @@
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F1:F21 F61:G1012 F44:F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5795,19 +5811,19 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
@@ -5821,7 +5837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -5835,21 +5851,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="25">
+        <v>14</v>
+      </c>
       <c r="C3" s="25">
         <f>WP!D8 + WP!D10 + WP!D14 + WP!D16 + WP!D29 + WP!D31 + WP!D35 + WP!D37</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D3" s="25">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
@@ -5863,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5877,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5891,17 +5909,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="26">
         <f>B2+B3+B4+B5+B6</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26">
         <f>C2+C3+C4+C5+C6</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF83BC4-09B5-4075-BBAC-325A1EE28111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF451099-55A8-4A08-8FF7-DA88023E5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -761,26 +761,47 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,7 +835,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,29 +842,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,21 +1066,21 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,13 +1096,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57" t="s">
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1111,30 +1111,34 @@
       <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="58"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="58"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1143,13 +1147,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="58"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1158,13 +1162,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="58"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="42"/>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1173,13 +1177,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1188,13 +1192,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="58"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1205,13 +1209,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="58"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1220,13 +1224,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1237,13 +1241,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="58"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1252,13 +1256,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="58"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1267,13 +1271,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1282,13 +1286,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1299,28 +1303,30 @@
         <v>1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42"/>
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1331,28 +1337,30 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="58"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="42"/>
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1361,13 +1369,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="58"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="42"/>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1376,13 +1384,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
@@ -1391,13 +1399,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="59"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="69"/>
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1406,22 +1414,22 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="60" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1430,30 +1438,34 @@
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="58"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1462,13 +1474,13 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="58"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1477,13 +1489,13 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1492,13 +1504,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1507,13 +1519,13 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1524,13 +1536,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="58"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
       <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1539,13 +1551,13 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="58"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
@@ -1556,13 +1568,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="58"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
@@ -1571,13 +1583,13 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
@@ -1586,13 +1598,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
@@ -1601,13 +1613,13 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="58"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1618,28 +1630,30 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="58"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="58"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
       <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1650,28 +1664,30 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="58"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="58"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1680,13 +1696,13 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="58"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
       <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
@@ -1695,13 +1711,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="58"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="42"/>
       <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
@@ -1710,13 +1726,13 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="59"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="69"/>
       <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
@@ -1725,141 +1741,141 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="61" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="71" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="68"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="62"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="41"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="68"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="62"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="41"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="68"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="62"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="41"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="68"/>
-    </row>
-    <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A48" s="62"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
-    </row>
-    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A49" s="63"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="72"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-    </row>
-    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="62" t="s">
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="48"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="58"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
+      <c r="G51" s="59"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="42"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="58"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="58"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="42"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="65"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A56" s="35" t="s">
+      <c r="F54" s="60"/>
+      <c r="G54" s="61"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="33" t="s">
         <v>26</v>
       </c>
@@ -1869,14 +1885,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="42"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
+      <c r="G56" s="57"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="54"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="30" t="s">
         <v>24</v>
       </c>
@@ -1885,15 +1901,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="62">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
         <v>0</v>
       </c>
-      <c r="G57" s="52"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
+      <c r="G57" s="63"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="54"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
@@ -1904,12 +1920,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1918,3819 +1934,3864 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
     </row>
-    <row r="170" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
     </row>
-    <row r="177" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
     </row>
-    <row r="254" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
     </row>
-    <row r="268" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
     </row>
-    <row r="275" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
     </row>
-    <row r="282" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
-    <row r="289" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
-    <row r="296" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
     </row>
-    <row r="303" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
     </row>
-    <row r="310" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
     </row>
-    <row r="317" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
     </row>
-    <row r="324" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
     </row>
-    <row r="331" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
     </row>
-    <row r="338" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
     </row>
-    <row r="345" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
     </row>
-    <row r="352" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
     </row>
-    <row r="359" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
     </row>
-    <row r="380" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
     </row>
-    <row r="387" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F393" s="21"/>
       <c r="G393" s="21"/>
     </row>
-    <row r="394" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F400" s="21"/>
       <c r="G400" s="21"/>
     </row>
-    <row r="401" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F407" s="21"/>
       <c r="G407" s="21"/>
     </row>
-    <row r="408" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F414" s="21"/>
       <c r="G414" s="21"/>
     </row>
-    <row r="415" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F421" s="21"/>
       <c r="G421" s="21"/>
     </row>
-    <row r="422" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F428" s="21"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F435" s="21"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F442" s="21"/>
       <c r="G442" s="21"/>
     </row>
-    <row r="443" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F449" s="21"/>
       <c r="G449" s="21"/>
     </row>
-    <row r="450" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F456" s="21"/>
       <c r="G456" s="21"/>
     </row>
-    <row r="457" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F463" s="21"/>
       <c r="G463" s="21"/>
     </row>
-    <row r="464" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F470" s="21"/>
       <c r="G470" s="21"/>
     </row>
-    <row r="471" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="492" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F497" s="21"/>
       <c r="G497" s="21"/>
     </row>
-    <row r="498" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F498" s="21"/>
       <c r="G498" s="21"/>
     </row>
-    <row r="499" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F499" s="21"/>
       <c r="G499" s="21"/>
     </row>
-    <row r="500" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F500" s="21"/>
       <c r="G500" s="21"/>
     </row>
-    <row r="501" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F501" s="21"/>
       <c r="G501" s="21"/>
     </row>
-    <row r="502" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F502" s="21"/>
       <c r="G502" s="21"/>
     </row>
-    <row r="503" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F503" s="21"/>
       <c r="G503" s="21"/>
     </row>
-    <row r="504" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F505" s="21"/>
       <c r="G505" s="21"/>
     </row>
-    <row r="506" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F506" s="21"/>
       <c r="G506" s="21"/>
     </row>
-    <row r="507" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F508" s="21"/>
       <c r="G508" s="21"/>
     </row>
-    <row r="509" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F509" s="21"/>
       <c r="G509" s="21"/>
     </row>
-    <row r="510" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F510" s="21"/>
       <c r="G510" s="21"/>
     </row>
-    <row r="511" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F511" s="21"/>
       <c r="G511" s="21"/>
     </row>
-    <row r="512" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F512" s="21"/>
       <c r="G512" s="21"/>
     </row>
-    <row r="513" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F513" s="21"/>
       <c r="G513" s="21"/>
     </row>
-    <row r="514" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F514" s="21"/>
       <c r="G514" s="21"/>
     </row>
-    <row r="515" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F515" s="21"/>
       <c r="G515" s="21"/>
     </row>
-    <row r="516" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F516" s="21"/>
       <c r="G516" s="21"/>
     </row>
-    <row r="517" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F517" s="21"/>
       <c r="G517" s="21"/>
     </row>
-    <row r="518" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F518" s="21"/>
       <c r="G518" s="21"/>
     </row>
-    <row r="519" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
     </row>
-    <row r="521" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F521" s="21"/>
       <c r="G521" s="21"/>
     </row>
-    <row r="522" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F522" s="21"/>
       <c r="G522" s="21"/>
     </row>
-    <row r="523" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F523" s="21"/>
       <c r="G523" s="21"/>
     </row>
-    <row r="524" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F524" s="21"/>
       <c r="G524" s="21"/>
     </row>
-    <row r="525" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F525" s="21"/>
       <c r="G525" s="21"/>
     </row>
-    <row r="526" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F526" s="21"/>
       <c r="G526" s="21"/>
     </row>
-    <row r="527" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
     </row>
-    <row r="528" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F528" s="21"/>
       <c r="G528" s="21"/>
     </row>
-    <row r="529" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F530" s="21"/>
       <c r="G530" s="21"/>
     </row>
-    <row r="531" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F531" s="21"/>
       <c r="G531" s="21"/>
     </row>
-    <row r="532" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F532" s="21"/>
       <c r="G532" s="21"/>
     </row>
-    <row r="533" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F533" s="21"/>
       <c r="G533" s="21"/>
     </row>
-    <row r="534" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F534" s="21"/>
       <c r="G534" s="21"/>
     </row>
-    <row r="535" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F535" s="21"/>
       <c r="G535" s="21"/>
     </row>
-    <row r="536" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F536" s="21"/>
       <c r="G536" s="21"/>
     </row>
-    <row r="537" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F537" s="21"/>
       <c r="G537" s="21"/>
     </row>
-    <row r="538" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F538" s="21"/>
       <c r="G538" s="21"/>
     </row>
-    <row r="539" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F539" s="21"/>
       <c r="G539" s="21"/>
     </row>
-    <row r="540" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F540" s="21"/>
       <c r="G540" s="21"/>
     </row>
-    <row r="541" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F541" s="21"/>
       <c r="G541" s="21"/>
     </row>
-    <row r="542" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F542" s="21"/>
       <c r="G542" s="21"/>
     </row>
-    <row r="543" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F543" s="21"/>
       <c r="G543" s="21"/>
     </row>
-    <row r="544" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
     </row>
-    <row r="545" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
     </row>
-    <row r="548" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F554" s="21"/>
       <c r="G554" s="21"/>
     </row>
-    <row r="555" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F561" s="21"/>
       <c r="G561" s="21"/>
     </row>
-    <row r="562" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F568" s="21"/>
       <c r="G568" s="21"/>
     </row>
-    <row r="569" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F575" s="21"/>
       <c r="G575" s="21"/>
     </row>
-    <row r="576" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F582" s="21"/>
       <c r="G582" s="21"/>
     </row>
-    <row r="583" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F589" s="21"/>
       <c r="G589" s="21"/>
     </row>
-    <row r="590" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F593" s="21"/>
       <c r="G593" s="21"/>
     </row>
-    <row r="594" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F594" s="21"/>
       <c r="G594" s="21"/>
     </row>
-    <row r="595" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F595" s="21"/>
       <c r="G595" s="21"/>
     </row>
-    <row r="596" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F596" s="21"/>
       <c r="G596" s="21"/>
     </row>
-    <row r="597" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F597" s="21"/>
       <c r="G597" s="21"/>
     </row>
-    <row r="598" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F598" s="21"/>
       <c r="G598" s="21"/>
     </row>
-    <row r="599" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F599" s="21"/>
       <c r="G599" s="21"/>
     </row>
-    <row r="600" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F600" s="21"/>
       <c r="G600" s="21"/>
     </row>
-    <row r="601" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F601" s="21"/>
       <c r="G601" s="21"/>
     </row>
-    <row r="602" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F602" s="21"/>
       <c r="G602" s="21"/>
     </row>
-    <row r="603" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F603" s="21"/>
       <c r="G603" s="21"/>
     </row>
-    <row r="604" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F604" s="21"/>
       <c r="G604" s="21"/>
     </row>
-    <row r="605" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F605" s="21"/>
       <c r="G605" s="21"/>
     </row>
-    <row r="606" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F606" s="21"/>
       <c r="G606" s="21"/>
     </row>
-    <row r="607" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F607" s="21"/>
       <c r="G607" s="21"/>
     </row>
-    <row r="608" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F608" s="21"/>
       <c r="G608" s="21"/>
     </row>
-    <row r="609" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F609" s="21"/>
       <c r="G609" s="21"/>
     </row>
-    <row r="610" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F610" s="21"/>
       <c r="G610" s="21"/>
     </row>
-    <row r="611" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F611" s="21"/>
       <c r="G611" s="21"/>
     </row>
-    <row r="612" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F612" s="21"/>
       <c r="G612" s="21"/>
     </row>
-    <row r="613" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F613" s="21"/>
       <c r="G613" s="21"/>
     </row>
-    <row r="614" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F614" s="21"/>
       <c r="G614" s="21"/>
     </row>
-    <row r="615" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F615" s="21"/>
       <c r="G615" s="21"/>
     </row>
-    <row r="616" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F616" s="21"/>
       <c r="G616" s="21"/>
     </row>
-    <row r="617" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F617" s="21"/>
       <c r="G617" s="21"/>
     </row>
-    <row r="618" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F618" s="21"/>
       <c r="G618" s="21"/>
     </row>
-    <row r="619" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F619" s="21"/>
       <c r="G619" s="21"/>
     </row>
-    <row r="620" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F620" s="21"/>
       <c r="G620" s="21"/>
     </row>
-    <row r="621" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F621" s="21"/>
       <c r="G621" s="21"/>
     </row>
-    <row r="622" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F622" s="21"/>
       <c r="G622" s="21"/>
     </row>
-    <row r="623" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F623" s="21"/>
       <c r="G623" s="21"/>
     </row>
-    <row r="624" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F624" s="21"/>
       <c r="G624" s="21"/>
     </row>
-    <row r="625" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F625" s="21"/>
       <c r="G625" s="21"/>
     </row>
-    <row r="626" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F626" s="21"/>
       <c r="G626" s="21"/>
     </row>
-    <row r="627" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F627" s="21"/>
       <c r="G627" s="21"/>
     </row>
-    <row r="628" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F628" s="21"/>
       <c r="G628" s="21"/>
     </row>
-    <row r="629" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F629" s="21"/>
       <c r="G629" s="21"/>
     </row>
-    <row r="630" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F630" s="21"/>
       <c r="G630" s="21"/>
     </row>
-    <row r="631" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F631" s="21"/>
       <c r="G631" s="21"/>
     </row>
-    <row r="632" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F632" s="21"/>
       <c r="G632" s="21"/>
     </row>
-    <row r="633" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F633" s="21"/>
       <c r="G633" s="21"/>
     </row>
-    <row r="634" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F634" s="21"/>
       <c r="G634" s="21"/>
     </row>
-    <row r="635" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F635" s="21"/>
       <c r="G635" s="21"/>
     </row>
-    <row r="636" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F640" s="21"/>
       <c r="G640" s="21"/>
     </row>
-    <row r="641" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F641" s="21"/>
       <c r="G641" s="21"/>
     </row>
-    <row r="642" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F642" s="21"/>
       <c r="G642" s="21"/>
     </row>
-    <row r="643" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F643" s="21"/>
       <c r="G643" s="21"/>
     </row>
-    <row r="644" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F644" s="21"/>
       <c r="G644" s="21"/>
     </row>
-    <row r="645" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F645" s="21"/>
       <c r="G645" s="21"/>
     </row>
-    <row r="646" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F646" s="21"/>
       <c r="G646" s="21"/>
     </row>
-    <row r="647" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F647" s="21"/>
       <c r="G647" s="21"/>
     </row>
-    <row r="648" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F648" s="21"/>
       <c r="G648" s="21"/>
     </row>
-    <row r="649" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F649" s="21"/>
       <c r="G649" s="21"/>
     </row>
-    <row r="650" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F650" s="21"/>
       <c r="G650" s="21"/>
     </row>
-    <row r="651" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F651" s="21"/>
       <c r="G651" s="21"/>
     </row>
-    <row r="652" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F652" s="21"/>
       <c r="G652" s="21"/>
     </row>
-    <row r="653" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F653" s="21"/>
       <c r="G653" s="21"/>
     </row>
-    <row r="654" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F654" s="21"/>
       <c r="G654" s="21"/>
     </row>
-    <row r="655" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F655" s="21"/>
       <c r="G655" s="21"/>
     </row>
-    <row r="656" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F656" s="21"/>
       <c r="G656" s="21"/>
     </row>
-    <row r="657" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F659" s="21"/>
       <c r="G659" s="21"/>
     </row>
-    <row r="660" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F666" s="21"/>
       <c r="G666" s="21"/>
     </row>
-    <row r="667" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F673" s="21"/>
       <c r="G673" s="21"/>
     </row>
-    <row r="674" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F687" s="21"/>
       <c r="G687" s="21"/>
     </row>
-    <row r="688" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F694" s="21"/>
       <c r="G694" s="21"/>
     </row>
-    <row r="695" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F701" s="21"/>
       <c r="G701" s="21"/>
     </row>
-    <row r="702" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F708" s="21"/>
       <c r="G708" s="21"/>
     </row>
-    <row r="709" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F722" s="21"/>
       <c r="G722" s="21"/>
     </row>
-    <row r="723" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F729" s="21"/>
       <c r="G729" s="21"/>
     </row>
-    <row r="730" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F736" s="21"/>
       <c r="G736" s="21"/>
     </row>
-    <row r="737" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F742" s="21"/>
       <c r="G742" s="21"/>
     </row>
-    <row r="743" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F750" s="21"/>
       <c r="G750" s="21"/>
     </row>
-    <row r="751" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F757" s="21"/>
       <c r="G757" s="21"/>
     </row>
-    <row r="758" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F764" s="21"/>
       <c r="G764" s="21"/>
     </row>
-    <row r="765" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F769" s="21"/>
       <c r="G769" s="21"/>
     </row>
-    <row r="770" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F770" s="21"/>
       <c r="G770" s="21"/>
     </row>
-    <row r="771" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F771" s="21"/>
       <c r="G771" s="21"/>
     </row>
-    <row r="772" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F772" s="21"/>
       <c r="G772" s="21"/>
     </row>
-    <row r="773" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F773" s="21"/>
       <c r="G773" s="21"/>
     </row>
-    <row r="774" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F774" s="21"/>
       <c r="G774" s="21"/>
     </row>
-    <row r="775" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F775" s="21"/>
       <c r="G775" s="21"/>
     </row>
-    <row r="776" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F776" s="21"/>
       <c r="G776" s="21"/>
     </row>
-    <row r="777" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F777" s="21"/>
       <c r="G777" s="21"/>
     </row>
-    <row r="778" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F778" s="21"/>
       <c r="G778" s="21"/>
     </row>
-    <row r="779" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F779" s="21"/>
       <c r="G779" s="21"/>
     </row>
-    <row r="780" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F780" s="21"/>
       <c r="G780" s="21"/>
     </row>
-    <row r="781" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F781" s="21"/>
       <c r="G781" s="21"/>
     </row>
-    <row r="782" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F782" s="21"/>
       <c r="G782" s="21"/>
     </row>
-    <row r="783" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F783" s="21"/>
       <c r="G783" s="21"/>
     </row>
-    <row r="784" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F784" s="21"/>
       <c r="G784" s="21"/>
     </row>
-    <row r="785" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F785" s="21"/>
       <c r="G785" s="21"/>
     </row>
-    <row r="786" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F786" s="21"/>
       <c r="G786" s="21"/>
     </row>
-    <row r="787" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F787" s="21"/>
       <c r="G787" s="21"/>
     </row>
-    <row r="788" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F788" s="21"/>
       <c r="G788" s="21"/>
     </row>
-    <row r="789" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F789" s="21"/>
       <c r="G789" s="21"/>
     </row>
-    <row r="790" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F790" s="21"/>
       <c r="G790" s="21"/>
     </row>
-    <row r="791" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F791" s="21"/>
       <c r="G791" s="21"/>
     </row>
-    <row r="792" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F792" s="21"/>
       <c r="G792" s="21"/>
     </row>
-    <row r="793" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F793" s="21"/>
       <c r="G793" s="21"/>
     </row>
-    <row r="794" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F794" s="21"/>
       <c r="G794" s="21"/>
     </row>
-    <row r="795" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F795" s="21"/>
       <c r="G795" s="21"/>
     </row>
-    <row r="796" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F796" s="21"/>
       <c r="G796" s="21"/>
     </row>
-    <row r="797" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F797" s="21"/>
       <c r="G797" s="21"/>
     </row>
-    <row r="798" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F798" s="21"/>
       <c r="G798" s="21"/>
     </row>
-    <row r="799" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F799" s="21"/>
       <c r="G799" s="21"/>
     </row>
-    <row r="800" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F800" s="21"/>
       <c r="G800" s="21"/>
     </row>
-    <row r="801" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F801" s="21"/>
       <c r="G801" s="21"/>
     </row>
-    <row r="802" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F802" s="21"/>
       <c r="G802" s="21"/>
     </row>
-    <row r="803" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F803" s="21"/>
       <c r="G803" s="21"/>
     </row>
-    <row r="804" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F804" s="21"/>
       <c r="G804" s="21"/>
     </row>
-    <row r="805" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F805" s="21"/>
       <c r="G805" s="21"/>
     </row>
-    <row r="806" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F806" s="21"/>
       <c r="G806" s="21"/>
     </row>
-    <row r="807" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F807" s="21"/>
       <c r="G807" s="21"/>
     </row>
-    <row r="808" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F808" s="21"/>
       <c r="G808" s="21"/>
     </row>
-    <row r="809" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F809" s="21"/>
       <c r="G809" s="21"/>
     </row>
-    <row r="810" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F810" s="21"/>
       <c r="G810" s="21"/>
     </row>
-    <row r="811" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F811" s="21"/>
       <c r="G811" s="21"/>
     </row>
-    <row r="812" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F812" s="21"/>
       <c r="G812" s="21"/>
     </row>
-    <row r="813" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F813" s="21"/>
       <c r="G813" s="21"/>
     </row>
-    <row r="814" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F814" s="21"/>
       <c r="G814" s="21"/>
     </row>
-    <row r="815" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F815" s="21"/>
       <c r="G815" s="21"/>
     </row>
-    <row r="816" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F816" s="21"/>
       <c r="G816" s="21"/>
     </row>
-    <row r="817" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F817" s="21"/>
       <c r="G817" s="21"/>
     </row>
-    <row r="818" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F818" s="21"/>
       <c r="G818" s="21"/>
     </row>
-    <row r="819" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F819" s="21"/>
       <c r="G819" s="21"/>
     </row>
-    <row r="820" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F820" s="21"/>
       <c r="G820" s="21"/>
     </row>
-    <row r="821" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F821" s="21"/>
       <c r="G821" s="21"/>
     </row>
-    <row r="822" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F822" s="21"/>
       <c r="G822" s="21"/>
     </row>
-    <row r="823" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F823" s="21"/>
       <c r="G823" s="21"/>
     </row>
-    <row r="824" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F824" s="21"/>
       <c r="G824" s="21"/>
     </row>
-    <row r="825" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F825" s="21"/>
       <c r="G825" s="21"/>
     </row>
-    <row r="826" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F826" s="21"/>
       <c r="G826" s="21"/>
     </row>
-    <row r="827" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F827" s="21"/>
       <c r="G827" s="21"/>
     </row>
-    <row r="828" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F828" s="21"/>
       <c r="G828" s="21"/>
     </row>
-    <row r="829" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F829" s="21"/>
       <c r="G829" s="21"/>
     </row>
-    <row r="830" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F830" s="21"/>
       <c r="G830" s="21"/>
     </row>
-    <row r="831" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F831" s="21"/>
       <c r="G831" s="21"/>
     </row>
-    <row r="832" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F832" s="21"/>
       <c r="G832" s="21"/>
     </row>
-    <row r="833" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F833" s="21"/>
       <c r="G833" s="21"/>
     </row>
-    <row r="834" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F834" s="21"/>
       <c r="G834" s="21"/>
     </row>
-    <row r="835" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F835" s="21"/>
       <c r="G835" s="21"/>
     </row>
-    <row r="836" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F836" s="21"/>
       <c r="G836" s="21"/>
     </row>
-    <row r="837" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F837" s="21"/>
       <c r="G837" s="21"/>
     </row>
-    <row r="838" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F838" s="21"/>
       <c r="G838" s="21"/>
     </row>
-    <row r="839" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F839" s="21"/>
       <c r="G839" s="21"/>
     </row>
-    <row r="840" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F840" s="21"/>
       <c r="G840" s="21"/>
     </row>
-    <row r="841" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F841" s="21"/>
       <c r="G841" s="21"/>
     </row>
-    <row r="842" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F842" s="21"/>
       <c r="G842" s="21"/>
     </row>
-    <row r="843" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F843" s="21"/>
       <c r="G843" s="21"/>
     </row>
-    <row r="844" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F844" s="21"/>
       <c r="G844" s="21"/>
     </row>
-    <row r="845" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F845" s="21"/>
       <c r="G845" s="21"/>
     </row>
-    <row r="846" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
     </row>
-    <row r="847" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F848" s="21"/>
       <c r="G848" s="21"/>
     </row>
-    <row r="849" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F849" s="21"/>
       <c r="G849" s="21"/>
     </row>
-    <row r="850" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F850" s="21"/>
       <c r="G850" s="21"/>
     </row>
-    <row r="851" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F851" s="21"/>
       <c r="G851" s="21"/>
     </row>
-    <row r="852" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F852" s="21"/>
       <c r="G852" s="21"/>
     </row>
-    <row r="853" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F853" s="21"/>
       <c r="G853" s="21"/>
     </row>
-    <row r="854" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
     </row>
-    <row r="855" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
     </row>
-    <row r="856" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F856" s="21"/>
       <c r="G856" s="21"/>
     </row>
-    <row r="857" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F857" s="21"/>
       <c r="G857" s="21"/>
     </row>
-    <row r="858" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F858" s="21"/>
       <c r="G858" s="21"/>
     </row>
-    <row r="859" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F859" s="21"/>
       <c r="G859" s="21"/>
     </row>
-    <row r="860" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F860" s="21"/>
       <c r="G860" s="21"/>
     </row>
-    <row r="861" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F861" s="21"/>
       <c r="G861" s="21"/>
     </row>
-    <row r="862" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F862" s="21"/>
       <c r="G862" s="21"/>
     </row>
-    <row r="863" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F863" s="21"/>
       <c r="G863" s="21"/>
     </row>
-    <row r="864" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F864" s="21"/>
       <c r="G864" s="21"/>
     </row>
-    <row r="865" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F865" s="21"/>
       <c r="G865" s="21"/>
     </row>
-    <row r="866" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F866" s="21"/>
       <c r="G866" s="21"/>
     </row>
-    <row r="867" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F867" s="21"/>
       <c r="G867" s="21"/>
     </row>
-    <row r="868" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F868" s="21"/>
       <c r="G868" s="21"/>
     </row>
-    <row r="869" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F869" s="21"/>
       <c r="G869" s="21"/>
     </row>
-    <row r="870" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F870" s="21"/>
       <c r="G870" s="21"/>
     </row>
-    <row r="871" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F871" s="21"/>
       <c r="G871" s="21"/>
     </row>
-    <row r="872" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F872" s="21"/>
       <c r="G872" s="21"/>
     </row>
-    <row r="873" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F873" s="21"/>
       <c r="G873" s="21"/>
     </row>
-    <row r="874" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F874" s="21"/>
       <c r="G874" s="21"/>
     </row>
-    <row r="875" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F875" s="21"/>
       <c r="G875" s="21"/>
     </row>
-    <row r="876" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F876" s="21"/>
       <c r="G876" s="21"/>
     </row>
-    <row r="877" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F877" s="21"/>
       <c r="G877" s="21"/>
     </row>
-    <row r="878" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F878" s="21"/>
       <c r="G878" s="21"/>
     </row>
-    <row r="879" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F879" s="21"/>
       <c r="G879" s="21"/>
     </row>
-    <row r="880" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F880" s="21"/>
       <c r="G880" s="21"/>
     </row>
-    <row r="881" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F881" s="21"/>
       <c r="G881" s="21"/>
     </row>
-    <row r="882" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F882" s="21"/>
       <c r="G882" s="21"/>
     </row>
-    <row r="883" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F883" s="21"/>
       <c r="G883" s="21"/>
     </row>
-    <row r="884" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F884" s="21"/>
       <c r="G884" s="21"/>
     </row>
-    <row r="885" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F885" s="21"/>
       <c r="G885" s="21"/>
     </row>
-    <row r="886" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F886" s="21"/>
       <c r="G886" s="21"/>
     </row>
-    <row r="887" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F887" s="21"/>
       <c r="G887" s="21"/>
     </row>
-    <row r="888" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F888" s="21"/>
       <c r="G888" s="21"/>
     </row>
-    <row r="889" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F889" s="21"/>
       <c r="G889" s="21"/>
     </row>
-    <row r="890" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F890" s="21"/>
       <c r="G890" s="21"/>
     </row>
-    <row r="891" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F891" s="21"/>
       <c r="G891" s="21"/>
     </row>
-    <row r="892" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F892" s="21"/>
       <c r="G892" s="21"/>
     </row>
-    <row r="893" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F893" s="21"/>
       <c r="G893" s="21"/>
     </row>
-    <row r="894" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F894" s="21"/>
       <c r="G894" s="21"/>
     </row>
-    <row r="895" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F895" s="21"/>
       <c r="G895" s="21"/>
     </row>
-    <row r="896" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F896" s="21"/>
       <c r="G896" s="21"/>
     </row>
-    <row r="897" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F897" s="21"/>
       <c r="G897" s="21"/>
     </row>
-    <row r="898" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F898" s="21"/>
       <c r="G898" s="21"/>
     </row>
-    <row r="899" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F899" s="21"/>
       <c r="G899" s="21"/>
     </row>
-    <row r="900" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F900" s="21"/>
       <c r="G900" s="21"/>
     </row>
-    <row r="901" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F901" s="21"/>
       <c r="G901" s="21"/>
     </row>
-    <row r="902" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F902" s="21"/>
       <c r="G902" s="21"/>
     </row>
-    <row r="903" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F903" s="21"/>
       <c r="G903" s="21"/>
     </row>
-    <row r="904" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F904" s="21"/>
       <c r="G904" s="21"/>
     </row>
-    <row r="905" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F905" s="21"/>
       <c r="G905" s="21"/>
     </row>
-    <row r="906" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F906" s="21"/>
       <c r="G906" s="21"/>
     </row>
-    <row r="907" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F907" s="21"/>
       <c r="G907" s="21"/>
     </row>
-    <row r="908" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F908" s="21"/>
       <c r="G908" s="21"/>
     </row>
-    <row r="909" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F909" s="21"/>
       <c r="G909" s="21"/>
     </row>
-    <row r="910" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F910" s="21"/>
       <c r="G910" s="21"/>
     </row>
-    <row r="911" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F911" s="21"/>
       <c r="G911" s="21"/>
     </row>
-    <row r="912" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F912" s="21"/>
       <c r="G912" s="21"/>
     </row>
-    <row r="913" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F913" s="21"/>
       <c r="G913" s="21"/>
     </row>
-    <row r="914" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F914" s="21"/>
       <c r="G914" s="21"/>
     </row>
-    <row r="915" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F915" s="21"/>
       <c r="G915" s="21"/>
     </row>
-    <row r="916" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F916" s="21"/>
       <c r="G916" s="21"/>
     </row>
-    <row r="917" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F917" s="21"/>
       <c r="G917" s="21"/>
     </row>
-    <row r="918" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F918" s="21"/>
       <c r="G918" s="21"/>
     </row>
-    <row r="919" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F919" s="21"/>
       <c r="G919" s="21"/>
     </row>
-    <row r="920" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F920" s="21"/>
       <c r="G920" s="21"/>
     </row>
-    <row r="921" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F921" s="21"/>
       <c r="G921" s="21"/>
     </row>
-    <row r="922" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F922" s="21"/>
       <c r="G922" s="21"/>
     </row>
-    <row r="923" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F923" s="21"/>
       <c r="G923" s="21"/>
     </row>
-    <row r="924" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F924" s="21"/>
       <c r="G924" s="21"/>
     </row>
-    <row r="925" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F925" s="21"/>
       <c r="G925" s="21"/>
     </row>
-    <row r="926" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F926" s="21"/>
       <c r="G926" s="21"/>
     </row>
-    <row r="927" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F927" s="21"/>
       <c r="G927" s="21"/>
     </row>
-    <row r="928" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F928" s="21"/>
       <c r="G928" s="21"/>
     </row>
-    <row r="929" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F929" s="21"/>
       <c r="G929" s="21"/>
     </row>
-    <row r="930" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F930" s="21"/>
       <c r="G930" s="21"/>
     </row>
-    <row r="931" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F931" s="21"/>
       <c r="G931" s="21"/>
     </row>
-    <row r="932" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F932" s="21"/>
       <c r="G932" s="21"/>
     </row>
-    <row r="933" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F933" s="21"/>
       <c r="G933" s="21"/>
     </row>
-    <row r="934" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F934" s="21"/>
       <c r="G934" s="21"/>
     </row>
-    <row r="935" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F935" s="21"/>
       <c r="G935" s="21"/>
     </row>
-    <row r="936" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F936" s="21"/>
       <c r="G936" s="21"/>
     </row>
-    <row r="937" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F937" s="21"/>
       <c r="G937" s="21"/>
     </row>
-    <row r="938" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F938" s="21"/>
       <c r="G938" s="21"/>
     </row>
-    <row r="939" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F939" s="21"/>
       <c r="G939" s="21"/>
     </row>
-    <row r="940" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F940" s="21"/>
       <c r="G940" s="21"/>
     </row>
-    <row r="941" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F941" s="21"/>
       <c r="G941" s="21"/>
     </row>
-    <row r="942" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F942" s="21"/>
       <c r="G942" s="21"/>
     </row>
-    <row r="943" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F943" s="21"/>
       <c r="G943" s="21"/>
     </row>
-    <row r="944" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F944" s="21"/>
       <c r="G944" s="21"/>
     </row>
-    <row r="945" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F945" s="21"/>
       <c r="G945" s="21"/>
     </row>
-    <row r="946" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F946" s="21"/>
       <c r="G946" s="21"/>
     </row>
-    <row r="947" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F947" s="21"/>
       <c r="G947" s="21"/>
     </row>
-    <row r="948" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F948" s="21"/>
       <c r="G948" s="21"/>
     </row>
-    <row r="949" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F949" s="21"/>
       <c r="G949" s="21"/>
     </row>
-    <row r="950" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F950" s="21"/>
       <c r="G950" s="21"/>
     </row>
-    <row r="951" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F951" s="21"/>
       <c r="G951" s="21"/>
     </row>
-    <row r="952" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F952" s="21"/>
       <c r="G952" s="21"/>
     </row>
-    <row r="953" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F953" s="21"/>
       <c r="G953" s="21"/>
     </row>
-    <row r="954" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F954" s="21"/>
       <c r="G954" s="21"/>
     </row>
-    <row r="955" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F955" s="21"/>
       <c r="G955" s="21"/>
     </row>
-    <row r="956" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F956" s="21"/>
       <c r="G956" s="21"/>
     </row>
-    <row r="957" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F957" s="21"/>
       <c r="G957" s="21"/>
     </row>
-    <row r="958" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F958" s="21"/>
       <c r="G958" s="21"/>
     </row>
-    <row r="959" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F959" s="21"/>
       <c r="G959" s="21"/>
     </row>
-    <row r="960" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F960" s="21"/>
       <c r="G960" s="21"/>
     </row>
-    <row r="961" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F961" s="21"/>
       <c r="G961" s="21"/>
     </row>
-    <row r="962" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F962" s="21"/>
       <c r="G962" s="21"/>
     </row>
-    <row r="963" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F963" s="21"/>
       <c r="G963" s="21"/>
     </row>
-    <row r="964" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F964" s="21"/>
       <c r="G964" s="21"/>
     </row>
-    <row r="965" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F965" s="21"/>
       <c r="G965" s="21"/>
     </row>
-    <row r="966" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F966" s="21"/>
       <c r="G966" s="21"/>
     </row>
-    <row r="967" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F967" s="21"/>
       <c r="G967" s="21"/>
     </row>
-    <row r="968" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F968" s="21"/>
       <c r="G968" s="21"/>
     </row>
-    <row r="969" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F969" s="21"/>
       <c r="G969" s="21"/>
     </row>
-    <row r="970" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F970" s="21"/>
       <c r="G970" s="21"/>
     </row>
-    <row r="971" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F971" s="21"/>
       <c r="G971" s="21"/>
     </row>
-    <row r="972" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F972" s="21"/>
       <c r="G972" s="21"/>
     </row>
-    <row r="973" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F973" s="21"/>
       <c r="G973" s="21"/>
     </row>
-    <row r="974" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F974" s="21"/>
       <c r="G974" s="21"/>
     </row>
-    <row r="975" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F975" s="21"/>
       <c r="G975" s="21"/>
     </row>
-    <row r="976" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F976" s="21"/>
       <c r="G976" s="21"/>
     </row>
-    <row r="977" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F977" s="21"/>
       <c r="G977" s="21"/>
     </row>
-    <row r="978" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F978" s="21"/>
       <c r="G978" s="21"/>
     </row>
-    <row r="979" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F979" s="21"/>
       <c r="G979" s="21"/>
     </row>
-    <row r="980" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F980" s="21"/>
       <c r="G980" s="21"/>
     </row>
-    <row r="981" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F981" s="21"/>
       <c r="G981" s="21"/>
     </row>
-    <row r="982" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F982" s="21"/>
       <c r="G982" s="21"/>
     </row>
-    <row r="983" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F983" s="21"/>
       <c r="G983" s="21"/>
     </row>
-    <row r="984" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F984" s="21"/>
       <c r="G984" s="21"/>
     </row>
-    <row r="985" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F985" s="21"/>
       <c r="G985" s="21"/>
     </row>
-    <row r="986" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F986" s="21"/>
       <c r="G986" s="21"/>
     </row>
-    <row r="987" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F987" s="21"/>
       <c r="G987" s="21"/>
     </row>
-    <row r="988" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F988" s="21"/>
       <c r="G988" s="21"/>
     </row>
-    <row r="989" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F989" s="21"/>
       <c r="G989" s="21"/>
     </row>
-    <row r="990" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F990" s="21"/>
       <c r="G990" s="21"/>
     </row>
-    <row r="991" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F991" s="21"/>
       <c r="G991" s="21"/>
     </row>
-    <row r="992" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F992" s="21"/>
       <c r="G992" s="21"/>
     </row>
-    <row r="993" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F993" s="21"/>
       <c r="G993" s="21"/>
     </row>
-    <row r="994" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F994" s="21"/>
       <c r="G994" s="21"/>
     </row>
-    <row r="995" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F995" s="21"/>
       <c r="G995" s="21"/>
     </row>
-    <row r="996" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F996" s="21"/>
       <c r="G996" s="21"/>
     </row>
-    <row r="997" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F997" s="21"/>
       <c r="G997" s="21"/>
     </row>
-    <row r="998" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F998" s="21"/>
       <c r="G998" s="21"/>
     </row>
-    <row r="999" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F999" s="21"/>
       <c r="G999" s="21"/>
     </row>
-    <row r="1000" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1000" s="21"/>
       <c r="G1000" s="21"/>
     </row>
-    <row r="1001" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1001" s="21"/>
       <c r="G1001" s="21"/>
     </row>
-    <row r="1002" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1002" s="21"/>
       <c r="G1002" s="21"/>
     </row>
-    <row r="1003" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1003" s="21"/>
       <c r="G1003" s="21"/>
     </row>
-    <row r="1004" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1004" s="21"/>
       <c r="G1004" s="21"/>
     </row>
-    <row r="1005" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1005" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1005" s="21"/>
       <c r="G1005" s="21"/>
     </row>
-    <row r="1006" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1006" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1006" s="21"/>
       <c r="G1006" s="21"/>
     </row>
-    <row r="1007" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1007" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1007" s="21"/>
       <c r="G1007" s="21"/>
     </row>
-    <row r="1008" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1008" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1008" s="21"/>
       <c r="G1008" s="21"/>
     </row>
-    <row r="1009" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1009" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1009" s="21"/>
       <c r="G1009" s="21"/>
     </row>
-    <row r="1010" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1010" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
     </row>
-    <row r="1011" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1011" s="21"/>
       <c r="G1011" s="21"/>
     </row>
-    <row r="1012" spans="6:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1012" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1012" s="21"/>
       <c r="G1012" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F51:G54"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F1:G1"/>
@@ -5747,51 +5808,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F51:G54"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F1:F21 F61:G1012 F44:F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5811,19 +5827,19 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
@@ -5837,7 +5853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -5851,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -5867,21 +5883,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="25">
+        <v>10</v>
+      </c>
       <c r="C4" s="25">
         <f>WP!D2 + WP!D3 + WP!D15 + WP!D17 + WP!D23 + WP!D24 + WP!D36 + WP!D38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="25">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5895,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5909,17 +5927,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="26">
         <f>B2+B3+B4+B5+B6</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7" s="26">
         <f>C2+C3+C4+C5+C6</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>
@@ -5928,5 +5946,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF451099-55A8-4A08-8FF7-DA88023E5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3E92B-A12D-4ADF-A5C4-33E83398E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +428,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,47 +773,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,6 +826,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,9 +834,51 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,21 +1100,21 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,13 +1130,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1115,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1132,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1147,13 +1181,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1162,13 +1196,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1177,13 +1211,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1192,13 +1226,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1209,28 +1243,32 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1241,28 +1279,32 @@
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1271,13 +1313,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1286,13 +1328,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1303,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1320,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1337,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1354,28 +1396,30 @@
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1384,28 +1428,30 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1414,22 +1460,22 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1442,13 +1488,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1459,13 +1505,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1474,13 +1520,13 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1489,13 +1535,13 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1504,13 +1550,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1519,13 +1565,13 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1536,28 +1582,30 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
       <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
@@ -1568,28 +1616,30 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
@@ -1598,13 +1648,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="42"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
@@ -1613,13 +1663,13 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1630,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
@@ -1647,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
       <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1664,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1681,28 +1731,30 @@
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="42"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
       <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
@@ -1711,28 +1763,30 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="42"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
       <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="69"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
       <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
@@ -1741,141 +1795,143 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="71" t="s">
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="68"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="68"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="49"/>
-    </row>
-    <row r="48" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="68"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-    </row>
-    <row r="50" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="58" t="s">
+      <c r="D51" s="76">
+        <v>3</v>
+      </c>
+      <c r="E51" s="73"/>
+      <c r="F51" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="59"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="46"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="52" t="s">
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="58"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="64"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="33" t="s">
         <v>26</v>
       </c>
@@ -1885,14 +1941,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="56" t="s">
+      <c r="F56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="57"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="45"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="30" t="s">
         <v>24</v>
       </c>
@@ -1901,15 +1957,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="51">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="63"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
@@ -1920,12 +1976,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="44"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1934,3819 +1990,3866 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
     </row>
-    <row r="170" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
     </row>
-    <row r="177" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
     </row>
-    <row r="254" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
     </row>
-    <row r="268" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
     </row>
-    <row r="275" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
     </row>
-    <row r="282" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
-    <row r="289" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
-    <row r="296" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
     </row>
-    <row r="303" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
     </row>
-    <row r="310" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
     </row>
-    <row r="317" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
     </row>
-    <row r="324" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
     </row>
-    <row r="331" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
     </row>
-    <row r="338" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
     </row>
-    <row r="345" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
     </row>
-    <row r="352" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
     </row>
-    <row r="359" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
     </row>
-    <row r="380" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
     </row>
-    <row r="387" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F393" s="21"/>
       <c r="G393" s="21"/>
     </row>
-    <row r="394" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F400" s="21"/>
       <c r="G400" s="21"/>
     </row>
-    <row r="401" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F407" s="21"/>
       <c r="G407" s="21"/>
     </row>
-    <row r="408" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F414" s="21"/>
       <c r="G414" s="21"/>
     </row>
-    <row r="415" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F421" s="21"/>
       <c r="G421" s="21"/>
     </row>
-    <row r="422" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F428" s="21"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F435" s="21"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F442" s="21"/>
       <c r="G442" s="21"/>
     </row>
-    <row r="443" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F449" s="21"/>
       <c r="G449" s="21"/>
     </row>
-    <row r="450" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F456" s="21"/>
       <c r="G456" s="21"/>
     </row>
-    <row r="457" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F463" s="21"/>
       <c r="G463" s="21"/>
     </row>
-    <row r="464" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F470" s="21"/>
       <c r="G470" s="21"/>
     </row>
-    <row r="471" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="492" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F497" s="21"/>
       <c r="G497" s="21"/>
     </row>
-    <row r="498" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F498" s="21"/>
       <c r="G498" s="21"/>
     </row>
-    <row r="499" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F499" s="21"/>
       <c r="G499" s="21"/>
     </row>
-    <row r="500" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F500" s="21"/>
       <c r="G500" s="21"/>
     </row>
-    <row r="501" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F501" s="21"/>
       <c r="G501" s="21"/>
     </row>
-    <row r="502" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F502" s="21"/>
       <c r="G502" s="21"/>
     </row>
-    <row r="503" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F503" s="21"/>
       <c r="G503" s="21"/>
     </row>
-    <row r="504" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F505" s="21"/>
       <c r="G505" s="21"/>
     </row>
-    <row r="506" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F506" s="21"/>
       <c r="G506" s="21"/>
     </row>
-    <row r="507" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F508" s="21"/>
       <c r="G508" s="21"/>
     </row>
-    <row r="509" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F509" s="21"/>
       <c r="G509" s="21"/>
     </row>
-    <row r="510" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F510" s="21"/>
       <c r="G510" s="21"/>
     </row>
-    <row r="511" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F511" s="21"/>
       <c r="G511" s="21"/>
     </row>
-    <row r="512" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F512" s="21"/>
       <c r="G512" s="21"/>
     </row>
-    <row r="513" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F513" s="21"/>
       <c r="G513" s="21"/>
     </row>
-    <row r="514" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F514" s="21"/>
       <c r="G514" s="21"/>
     </row>
-    <row r="515" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F515" s="21"/>
       <c r="G515" s="21"/>
     </row>
-    <row r="516" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F516" s="21"/>
       <c r="G516" s="21"/>
     </row>
-    <row r="517" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F517" s="21"/>
       <c r="G517" s="21"/>
     </row>
-    <row r="518" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F518" s="21"/>
       <c r="G518" s="21"/>
     </row>
-    <row r="519" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
     </row>
-    <row r="521" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F521" s="21"/>
       <c r="G521" s="21"/>
     </row>
-    <row r="522" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F522" s="21"/>
       <c r="G522" s="21"/>
     </row>
-    <row r="523" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F523" s="21"/>
       <c r="G523" s="21"/>
     </row>
-    <row r="524" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F524" s="21"/>
       <c r="G524" s="21"/>
     </row>
-    <row r="525" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F525" s="21"/>
       <c r="G525" s="21"/>
     </row>
-    <row r="526" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F526" s="21"/>
       <c r="G526" s="21"/>
     </row>
-    <row r="527" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
     </row>
-    <row r="528" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F528" s="21"/>
       <c r="G528" s="21"/>
     </row>
-    <row r="529" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F530" s="21"/>
       <c r="G530" s="21"/>
     </row>
-    <row r="531" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F531" s="21"/>
       <c r="G531" s="21"/>
     </row>
-    <row r="532" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F532" s="21"/>
       <c r="G532" s="21"/>
     </row>
-    <row r="533" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F533" s="21"/>
       <c r="G533" s="21"/>
     </row>
-    <row r="534" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F534" s="21"/>
       <c r="G534" s="21"/>
     </row>
-    <row r="535" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F535" s="21"/>
       <c r="G535" s="21"/>
     </row>
-    <row r="536" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F536" s="21"/>
       <c r="G536" s="21"/>
     </row>
-    <row r="537" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F537" s="21"/>
       <c r="G537" s="21"/>
     </row>
-    <row r="538" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F538" s="21"/>
       <c r="G538" s="21"/>
     </row>
-    <row r="539" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F539" s="21"/>
       <c r="G539" s="21"/>
     </row>
-    <row r="540" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F540" s="21"/>
       <c r="G540" s="21"/>
     </row>
-    <row r="541" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F541" s="21"/>
       <c r="G541" s="21"/>
     </row>
-    <row r="542" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F542" s="21"/>
       <c r="G542" s="21"/>
     </row>
-    <row r="543" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F543" s="21"/>
       <c r="G543" s="21"/>
     </row>
-    <row r="544" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
     </row>
-    <row r="545" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
     </row>
-    <row r="548" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F554" s="21"/>
       <c r="G554" s="21"/>
     </row>
-    <row r="555" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F561" s="21"/>
       <c r="G561" s="21"/>
     </row>
-    <row r="562" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F568" s="21"/>
       <c r="G568" s="21"/>
     </row>
-    <row r="569" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F575" s="21"/>
       <c r="G575" s="21"/>
     </row>
-    <row r="576" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F582" s="21"/>
       <c r="G582" s="21"/>
     </row>
-    <row r="583" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F589" s="21"/>
       <c r="G589" s="21"/>
     </row>
-    <row r="590" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F593" s="21"/>
       <c r="G593" s="21"/>
     </row>
-    <row r="594" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F594" s="21"/>
       <c r="G594" s="21"/>
     </row>
-    <row r="595" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F595" s="21"/>
       <c r="G595" s="21"/>
     </row>
-    <row r="596" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F596" s="21"/>
       <c r="G596" s="21"/>
     </row>
-    <row r="597" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F597" s="21"/>
       <c r="G597" s="21"/>
     </row>
-    <row r="598" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F598" s="21"/>
       <c r="G598" s="21"/>
     </row>
-    <row r="599" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F599" s="21"/>
       <c r="G599" s="21"/>
     </row>
-    <row r="600" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F600" s="21"/>
       <c r="G600" s="21"/>
     </row>
-    <row r="601" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F601" s="21"/>
       <c r="G601" s="21"/>
     </row>
-    <row r="602" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F602" s="21"/>
       <c r="G602" s="21"/>
     </row>
-    <row r="603" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F603" s="21"/>
       <c r="G603" s="21"/>
     </row>
-    <row r="604" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F604" s="21"/>
       <c r="G604" s="21"/>
     </row>
-    <row r="605" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F605" s="21"/>
       <c r="G605" s="21"/>
     </row>
-    <row r="606" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F606" s="21"/>
       <c r="G606" s="21"/>
     </row>
-    <row r="607" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F607" s="21"/>
       <c r="G607" s="21"/>
     </row>
-    <row r="608" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F608" s="21"/>
       <c r="G608" s="21"/>
     </row>
-    <row r="609" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F609" s="21"/>
       <c r="G609" s="21"/>
     </row>
-    <row r="610" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F610" s="21"/>
       <c r="G610" s="21"/>
     </row>
-    <row r="611" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F611" s="21"/>
       <c r="G611" s="21"/>
     </row>
-    <row r="612" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F612" s="21"/>
       <c r="G612" s="21"/>
     </row>
-    <row r="613" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F613" s="21"/>
       <c r="G613" s="21"/>
     </row>
-    <row r="614" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F614" s="21"/>
       <c r="G614" s="21"/>
     </row>
-    <row r="615" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F615" s="21"/>
       <c r="G615" s="21"/>
     </row>
-    <row r="616" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F616" s="21"/>
       <c r="G616" s="21"/>
     </row>
-    <row r="617" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F617" s="21"/>
       <c r="G617" s="21"/>
     </row>
-    <row r="618" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F618" s="21"/>
       <c r="G618" s="21"/>
     </row>
-    <row r="619" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F619" s="21"/>
       <c r="G619" s="21"/>
     </row>
-    <row r="620" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F620" s="21"/>
       <c r="G620" s="21"/>
     </row>
-    <row r="621" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F621" s="21"/>
       <c r="G621" s="21"/>
     </row>
-    <row r="622" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F622" s="21"/>
       <c r="G622" s="21"/>
     </row>
-    <row r="623" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F623" s="21"/>
       <c r="G623" s="21"/>
     </row>
-    <row r="624" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F624" s="21"/>
       <c r="G624" s="21"/>
     </row>
-    <row r="625" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F625" s="21"/>
       <c r="G625" s="21"/>
     </row>
-    <row r="626" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F626" s="21"/>
       <c r="G626" s="21"/>
     </row>
-    <row r="627" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F627" s="21"/>
       <c r="G627" s="21"/>
     </row>
-    <row r="628" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F628" s="21"/>
       <c r="G628" s="21"/>
     </row>
-    <row r="629" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F629" s="21"/>
       <c r="G629" s="21"/>
     </row>
-    <row r="630" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F630" s="21"/>
       <c r="G630" s="21"/>
     </row>
-    <row r="631" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F631" s="21"/>
       <c r="G631" s="21"/>
     </row>
-    <row r="632" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F632" s="21"/>
       <c r="G632" s="21"/>
     </row>
-    <row r="633" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F633" s="21"/>
       <c r="G633" s="21"/>
     </row>
-    <row r="634" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F634" s="21"/>
       <c r="G634" s="21"/>
     </row>
-    <row r="635" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F635" s="21"/>
       <c r="G635" s="21"/>
     </row>
-    <row r="636" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F640" s="21"/>
       <c r="G640" s="21"/>
     </row>
-    <row r="641" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F641" s="21"/>
       <c r="G641" s="21"/>
     </row>
-    <row r="642" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F642" s="21"/>
       <c r="G642" s="21"/>
     </row>
-    <row r="643" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F643" s="21"/>
       <c r="G643" s="21"/>
     </row>
-    <row r="644" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F644" s="21"/>
       <c r="G644" s="21"/>
     </row>
-    <row r="645" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F645" s="21"/>
       <c r="G645" s="21"/>
     </row>
-    <row r="646" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F646" s="21"/>
       <c r="G646" s="21"/>
     </row>
-    <row r="647" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F647" s="21"/>
       <c r="G647" s="21"/>
     </row>
-    <row r="648" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F648" s="21"/>
       <c r="G648" s="21"/>
     </row>
-    <row r="649" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F649" s="21"/>
       <c r="G649" s="21"/>
     </row>
-    <row r="650" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F650" s="21"/>
       <c r="G650" s="21"/>
     </row>
-    <row r="651" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F651" s="21"/>
       <c r="G651" s="21"/>
     </row>
-    <row r="652" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F652" s="21"/>
       <c r="G652" s="21"/>
     </row>
-    <row r="653" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F653" s="21"/>
       <c r="G653" s="21"/>
     </row>
-    <row r="654" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F654" s="21"/>
       <c r="G654" s="21"/>
     </row>
-    <row r="655" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F655" s="21"/>
       <c r="G655" s="21"/>
     </row>
-    <row r="656" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F656" s="21"/>
       <c r="G656" s="21"/>
     </row>
-    <row r="657" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F659" s="21"/>
       <c r="G659" s="21"/>
     </row>
-    <row r="660" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F666" s="21"/>
       <c r="G666" s="21"/>
     </row>
-    <row r="667" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F673" s="21"/>
       <c r="G673" s="21"/>
     </row>
-    <row r="674" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F687" s="21"/>
       <c r="G687" s="21"/>
     </row>
-    <row r="688" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F694" s="21"/>
       <c r="G694" s="21"/>
     </row>
-    <row r="695" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F701" s="21"/>
       <c r="G701" s="21"/>
     </row>
-    <row r="702" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F708" s="21"/>
       <c r="G708" s="21"/>
     </row>
-    <row r="709" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F722" s="21"/>
       <c r="G722" s="21"/>
     </row>
-    <row r="723" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F729" s="21"/>
       <c r="G729" s="21"/>
     </row>
-    <row r="730" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F736" s="21"/>
       <c r="G736" s="21"/>
     </row>
-    <row r="737" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F742" s="21"/>
       <c r="G742" s="21"/>
     </row>
-    <row r="743" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F750" s="21"/>
       <c r="G750" s="21"/>
     </row>
-    <row r="751" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F757" s="21"/>
       <c r="G757" s="21"/>
     </row>
-    <row r="758" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F764" s="21"/>
       <c r="G764" s="21"/>
     </row>
-    <row r="765" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F769" s="21"/>
       <c r="G769" s="21"/>
     </row>
-    <row r="770" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F770" s="21"/>
       <c r="G770" s="21"/>
     </row>
-    <row r="771" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F771" s="21"/>
       <c r="G771" s="21"/>
     </row>
-    <row r="772" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F772" s="21"/>
       <c r="G772" s="21"/>
     </row>
-    <row r="773" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F773" s="21"/>
       <c r="G773" s="21"/>
     </row>
-    <row r="774" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F774" s="21"/>
       <c r="G774" s="21"/>
     </row>
-    <row r="775" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F775" s="21"/>
       <c r="G775" s="21"/>
     </row>
-    <row r="776" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F776" s="21"/>
       <c r="G776" s="21"/>
     </row>
-    <row r="777" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F777" s="21"/>
       <c r="G777" s="21"/>
     </row>
-    <row r="778" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F778" s="21"/>
       <c r="G778" s="21"/>
     </row>
-    <row r="779" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F779" s="21"/>
       <c r="G779" s="21"/>
     </row>
-    <row r="780" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F780" s="21"/>
       <c r="G780" s="21"/>
     </row>
-    <row r="781" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F781" s="21"/>
       <c r="G781" s="21"/>
     </row>
-    <row r="782" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F782" s="21"/>
       <c r="G782" s="21"/>
     </row>
-    <row r="783" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F783" s="21"/>
       <c r="G783" s="21"/>
     </row>
-    <row r="784" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F784" s="21"/>
       <c r="G784" s="21"/>
     </row>
-    <row r="785" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F785" s="21"/>
       <c r="G785" s="21"/>
     </row>
-    <row r="786" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F786" s="21"/>
       <c r="G786" s="21"/>
     </row>
-    <row r="787" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F787" s="21"/>
       <c r="G787" s="21"/>
     </row>
-    <row r="788" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F788" s="21"/>
       <c r="G788" s="21"/>
     </row>
-    <row r="789" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F789" s="21"/>
       <c r="G789" s="21"/>
     </row>
-    <row r="790" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F790" s="21"/>
       <c r="G790" s="21"/>
     </row>
-    <row r="791" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F791" s="21"/>
       <c r="G791" s="21"/>
     </row>
-    <row r="792" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F792" s="21"/>
       <c r="G792" s="21"/>
     </row>
-    <row r="793" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F793" s="21"/>
       <c r="G793" s="21"/>
     </row>
-    <row r="794" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F794" s="21"/>
       <c r="G794" s="21"/>
     </row>
-    <row r="795" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F795" s="21"/>
       <c r="G795" s="21"/>
     </row>
-    <row r="796" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F796" s="21"/>
       <c r="G796" s="21"/>
     </row>
-    <row r="797" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F797" s="21"/>
       <c r="G797" s="21"/>
     </row>
-    <row r="798" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F798" s="21"/>
       <c r="G798" s="21"/>
     </row>
-    <row r="799" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F799" s="21"/>
       <c r="G799" s="21"/>
     </row>
-    <row r="800" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F800" s="21"/>
       <c r="G800" s="21"/>
     </row>
-    <row r="801" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F801" s="21"/>
       <c r="G801" s="21"/>
     </row>
-    <row r="802" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F802" s="21"/>
       <c r="G802" s="21"/>
     </row>
-    <row r="803" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F803" s="21"/>
       <c r="G803" s="21"/>
     </row>
-    <row r="804" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F804" s="21"/>
       <c r="G804" s="21"/>
     </row>
-    <row r="805" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F805" s="21"/>
       <c r="G805" s="21"/>
     </row>
-    <row r="806" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F806" s="21"/>
       <c r="G806" s="21"/>
     </row>
-    <row r="807" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F807" s="21"/>
       <c r="G807" s="21"/>
     </row>
-    <row r="808" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F808" s="21"/>
       <c r="G808" s="21"/>
     </row>
-    <row r="809" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F809" s="21"/>
       <c r="G809" s="21"/>
     </row>
-    <row r="810" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F810" s="21"/>
       <c r="G810" s="21"/>
     </row>
-    <row r="811" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F811" s="21"/>
       <c r="G811" s="21"/>
     </row>
-    <row r="812" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F812" s="21"/>
       <c r="G812" s="21"/>
     </row>
-    <row r="813" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F813" s="21"/>
       <c r="G813" s="21"/>
     </row>
-    <row r="814" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F814" s="21"/>
       <c r="G814" s="21"/>
     </row>
-    <row r="815" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F815" s="21"/>
       <c r="G815" s="21"/>
     </row>
-    <row r="816" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F816" s="21"/>
       <c r="G816" s="21"/>
     </row>
-    <row r="817" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F817" s="21"/>
       <c r="G817" s="21"/>
     </row>
-    <row r="818" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F818" s="21"/>
       <c r="G818" s="21"/>
     </row>
-    <row r="819" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F819" s="21"/>
       <c r="G819" s="21"/>
     </row>
-    <row r="820" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F820" s="21"/>
       <c r="G820" s="21"/>
     </row>
-    <row r="821" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F821" s="21"/>
       <c r="G821" s="21"/>
     </row>
-    <row r="822" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F822" s="21"/>
       <c r="G822" s="21"/>
     </row>
-    <row r="823" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F823" s="21"/>
       <c r="G823" s="21"/>
     </row>
-    <row r="824" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F824" s="21"/>
       <c r="G824" s="21"/>
     </row>
-    <row r="825" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F825" s="21"/>
       <c r="G825" s="21"/>
     </row>
-    <row r="826" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F826" s="21"/>
       <c r="G826" s="21"/>
     </row>
-    <row r="827" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F827" s="21"/>
       <c r="G827" s="21"/>
     </row>
-    <row r="828" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F828" s="21"/>
       <c r="G828" s="21"/>
     </row>
-    <row r="829" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F829" s="21"/>
       <c r="G829" s="21"/>
     </row>
-    <row r="830" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F830" s="21"/>
       <c r="G830" s="21"/>
     </row>
-    <row r="831" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F831" s="21"/>
       <c r="G831" s="21"/>
     </row>
-    <row r="832" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F832" s="21"/>
       <c r="G832" s="21"/>
     </row>
-    <row r="833" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F833" s="21"/>
       <c r="G833" s="21"/>
     </row>
-    <row r="834" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F834" s="21"/>
       <c r="G834" s="21"/>
     </row>
-    <row r="835" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F835" s="21"/>
       <c r="G835" s="21"/>
     </row>
-    <row r="836" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F836" s="21"/>
       <c r="G836" s="21"/>
     </row>
-    <row r="837" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F837" s="21"/>
       <c r="G837" s="21"/>
     </row>
-    <row r="838" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F838" s="21"/>
       <c r="G838" s="21"/>
     </row>
-    <row r="839" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F839" s="21"/>
       <c r="G839" s="21"/>
     </row>
-    <row r="840" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F840" s="21"/>
       <c r="G840" s="21"/>
     </row>
-    <row r="841" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F841" s="21"/>
       <c r="G841" s="21"/>
     </row>
-    <row r="842" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F842" s="21"/>
       <c r="G842" s="21"/>
     </row>
-    <row r="843" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F843" s="21"/>
       <c r="G843" s="21"/>
     </row>
-    <row r="844" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F844" s="21"/>
       <c r="G844" s="21"/>
     </row>
-    <row r="845" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F845" s="21"/>
       <c r="G845" s="21"/>
     </row>
-    <row r="846" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
     </row>
-    <row r="847" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F848" s="21"/>
       <c r="G848" s="21"/>
     </row>
-    <row r="849" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F849" s="21"/>
       <c r="G849" s="21"/>
     </row>
-    <row r="850" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F850" s="21"/>
       <c r="G850" s="21"/>
     </row>
-    <row r="851" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F851" s="21"/>
       <c r="G851" s="21"/>
     </row>
-    <row r="852" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F852" s="21"/>
       <c r="G852" s="21"/>
     </row>
-    <row r="853" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F853" s="21"/>
       <c r="G853" s="21"/>
     </row>
-    <row r="854" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
     </row>
-    <row r="855" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
     </row>
-    <row r="856" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F856" s="21"/>
       <c r="G856" s="21"/>
     </row>
-    <row r="857" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F857" s="21"/>
       <c r="G857" s="21"/>
     </row>
-    <row r="858" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F858" s="21"/>
       <c r="G858" s="21"/>
     </row>
-    <row r="859" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F859" s="21"/>
       <c r="G859" s="21"/>
     </row>
-    <row r="860" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F860" s="21"/>
       <c r="G860" s="21"/>
     </row>
-    <row r="861" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F861" s="21"/>
       <c r="G861" s="21"/>
     </row>
-    <row r="862" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F862" s="21"/>
       <c r="G862" s="21"/>
     </row>
-    <row r="863" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F863" s="21"/>
       <c r="G863" s="21"/>
     </row>
-    <row r="864" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F864" s="21"/>
       <c r="G864" s="21"/>
     </row>
-    <row r="865" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F865" s="21"/>
       <c r="G865" s="21"/>
     </row>
-    <row r="866" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F866" s="21"/>
       <c r="G866" s="21"/>
     </row>
-    <row r="867" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F867" s="21"/>
       <c r="G867" s="21"/>
     </row>
-    <row r="868" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F868" s="21"/>
       <c r="G868" s="21"/>
     </row>
-    <row r="869" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F869" s="21"/>
       <c r="G869" s="21"/>
     </row>
-    <row r="870" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F870" s="21"/>
       <c r="G870" s="21"/>
     </row>
-    <row r="871" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F871" s="21"/>
       <c r="G871" s="21"/>
     </row>
-    <row r="872" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F872" s="21"/>
       <c r="G872" s="21"/>
     </row>
-    <row r="873" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F873" s="21"/>
       <c r="G873" s="21"/>
     </row>
-    <row r="874" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F874" s="21"/>
       <c r="G874" s="21"/>
     </row>
-    <row r="875" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F875" s="21"/>
       <c r="G875" s="21"/>
     </row>
-    <row r="876" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F876" s="21"/>
       <c r="G876" s="21"/>
     </row>
-    <row r="877" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F877" s="21"/>
       <c r="G877" s="21"/>
     </row>
-    <row r="878" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F878" s="21"/>
       <c r="G878" s="21"/>
     </row>
-    <row r="879" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F879" s="21"/>
       <c r="G879" s="21"/>
     </row>
-    <row r="880" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F880" s="21"/>
       <c r="G880" s="21"/>
     </row>
-    <row r="881" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F881" s="21"/>
       <c r="G881" s="21"/>
     </row>
-    <row r="882" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F882" s="21"/>
       <c r="G882" s="21"/>
     </row>
-    <row r="883" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F883" s="21"/>
       <c r="G883" s="21"/>
     </row>
-    <row r="884" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F884" s="21"/>
       <c r="G884" s="21"/>
     </row>
-    <row r="885" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F885" s="21"/>
       <c r="G885" s="21"/>
     </row>
-    <row r="886" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F886" s="21"/>
       <c r="G886" s="21"/>
     </row>
-    <row r="887" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F887" s="21"/>
       <c r="G887" s="21"/>
     </row>
-    <row r="888" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F888" s="21"/>
       <c r="G888" s="21"/>
     </row>
-    <row r="889" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F889" s="21"/>
       <c r="G889" s="21"/>
     </row>
-    <row r="890" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F890" s="21"/>
       <c r="G890" s="21"/>
     </row>
-    <row r="891" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F891" s="21"/>
       <c r="G891" s="21"/>
     </row>
-    <row r="892" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F892" s="21"/>
       <c r="G892" s="21"/>
     </row>
-    <row r="893" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F893" s="21"/>
       <c r="G893" s="21"/>
     </row>
-    <row r="894" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F894" s="21"/>
       <c r="G894" s="21"/>
     </row>
-    <row r="895" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F895" s="21"/>
       <c r="G895" s="21"/>
     </row>
-    <row r="896" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F896" s="21"/>
       <c r="G896" s="21"/>
     </row>
-    <row r="897" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F897" s="21"/>
       <c r="G897" s="21"/>
     </row>
-    <row r="898" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F898" s="21"/>
       <c r="G898" s="21"/>
     </row>
-    <row r="899" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F899" s="21"/>
       <c r="G899" s="21"/>
     </row>
-    <row r="900" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F900" s="21"/>
       <c r="G900" s="21"/>
     </row>
-    <row r="901" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F901" s="21"/>
       <c r="G901" s="21"/>
     </row>
-    <row r="902" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F902" s="21"/>
       <c r="G902" s="21"/>
     </row>
-    <row r="903" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F903" s="21"/>
       <c r="G903" s="21"/>
     </row>
-    <row r="904" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F904" s="21"/>
       <c r="G904" s="21"/>
     </row>
-    <row r="905" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F905" s="21"/>
       <c r="G905" s="21"/>
     </row>
-    <row r="906" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F906" s="21"/>
       <c r="G906" s="21"/>
     </row>
-    <row r="907" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F907" s="21"/>
       <c r="G907" s="21"/>
     </row>
-    <row r="908" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F908" s="21"/>
       <c r="G908" s="21"/>
     </row>
-    <row r="909" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F909" s="21"/>
       <c r="G909" s="21"/>
     </row>
-    <row r="910" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F910" s="21"/>
       <c r="G910" s="21"/>
     </row>
-    <row r="911" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F911" s="21"/>
       <c r="G911" s="21"/>
     </row>
-    <row r="912" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F912" s="21"/>
       <c r="G912" s="21"/>
     </row>
-    <row r="913" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F913" s="21"/>
       <c r="G913" s="21"/>
     </row>
-    <row r="914" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F914" s="21"/>
       <c r="G914" s="21"/>
     </row>
-    <row r="915" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F915" s="21"/>
       <c r="G915" s="21"/>
     </row>
-    <row r="916" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F916" s="21"/>
       <c r="G916" s="21"/>
     </row>
-    <row r="917" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F917" s="21"/>
       <c r="G917" s="21"/>
     </row>
-    <row r="918" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F918" s="21"/>
       <c r="G918" s="21"/>
     </row>
-    <row r="919" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F919" s="21"/>
       <c r="G919" s="21"/>
     </row>
-    <row r="920" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F920" s="21"/>
       <c r="G920" s="21"/>
     </row>
-    <row r="921" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F921" s="21"/>
       <c r="G921" s="21"/>
     </row>
-    <row r="922" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F922" s="21"/>
       <c r="G922" s="21"/>
     </row>
-    <row r="923" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F923" s="21"/>
       <c r="G923" s="21"/>
     </row>
-    <row r="924" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F924" s="21"/>
       <c r="G924" s="21"/>
     </row>
-    <row r="925" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F925" s="21"/>
       <c r="G925" s="21"/>
     </row>
-    <row r="926" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F926" s="21"/>
       <c r="G926" s="21"/>
     </row>
-    <row r="927" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F927" s="21"/>
       <c r="G927" s="21"/>
     </row>
-    <row r="928" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F928" s="21"/>
       <c r="G928" s="21"/>
     </row>
-    <row r="929" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F929" s="21"/>
       <c r="G929" s="21"/>
     </row>
-    <row r="930" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F930" s="21"/>
       <c r="G930" s="21"/>
     </row>
-    <row r="931" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F931" s="21"/>
       <c r="G931" s="21"/>
     </row>
-    <row r="932" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F932" s="21"/>
       <c r="G932" s="21"/>
     </row>
-    <row r="933" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F933" s="21"/>
       <c r="G933" s="21"/>
     </row>
-    <row r="934" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F934" s="21"/>
       <c r="G934" s="21"/>
     </row>
-    <row r="935" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F935" s="21"/>
       <c r="G935" s="21"/>
     </row>
-    <row r="936" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F936" s="21"/>
       <c r="G936" s="21"/>
     </row>
-    <row r="937" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F937" s="21"/>
       <c r="G937" s="21"/>
     </row>
-    <row r="938" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F938" s="21"/>
       <c r="G938" s="21"/>
     </row>
-    <row r="939" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F939" s="21"/>
       <c r="G939" s="21"/>
     </row>
-    <row r="940" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F940" s="21"/>
       <c r="G940" s="21"/>
     </row>
-    <row r="941" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F941" s="21"/>
       <c r="G941" s="21"/>
     </row>
-    <row r="942" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F942" s="21"/>
       <c r="G942" s="21"/>
     </row>
-    <row r="943" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F943" s="21"/>
       <c r="G943" s="21"/>
     </row>
-    <row r="944" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F944" s="21"/>
       <c r="G944" s="21"/>
     </row>
-    <row r="945" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F945" s="21"/>
       <c r="G945" s="21"/>
     </row>
-    <row r="946" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F946" s="21"/>
       <c r="G946" s="21"/>
     </row>
-    <row r="947" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F947" s="21"/>
       <c r="G947" s="21"/>
     </row>
-    <row r="948" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F948" s="21"/>
       <c r="G948" s="21"/>
     </row>
-    <row r="949" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F949" s="21"/>
       <c r="G949" s="21"/>
     </row>
-    <row r="950" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F950" s="21"/>
       <c r="G950" s="21"/>
     </row>
-    <row r="951" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F951" s="21"/>
       <c r="G951" s="21"/>
     </row>
-    <row r="952" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F952" s="21"/>
       <c r="G952" s="21"/>
     </row>
-    <row r="953" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F953" s="21"/>
       <c r="G953" s="21"/>
     </row>
-    <row r="954" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F954" s="21"/>
       <c r="G954" s="21"/>
     </row>
-    <row r="955" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F955" s="21"/>
       <c r="G955" s="21"/>
     </row>
-    <row r="956" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F956" s="21"/>
       <c r="G956" s="21"/>
     </row>
-    <row r="957" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F957" s="21"/>
       <c r="G957" s="21"/>
     </row>
-    <row r="958" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F958" s="21"/>
       <c r="G958" s="21"/>
     </row>
-    <row r="959" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F959" s="21"/>
       <c r="G959" s="21"/>
     </row>
-    <row r="960" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F960" s="21"/>
       <c r="G960" s="21"/>
     </row>
-    <row r="961" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F961" s="21"/>
       <c r="G961" s="21"/>
     </row>
-    <row r="962" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F962" s="21"/>
       <c r="G962" s="21"/>
     </row>
-    <row r="963" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F963" s="21"/>
       <c r="G963" s="21"/>
     </row>
-    <row r="964" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F964" s="21"/>
       <c r="G964" s="21"/>
     </row>
-    <row r="965" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F965" s="21"/>
       <c r="G965" s="21"/>
     </row>
-    <row r="966" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F966" s="21"/>
       <c r="G966" s="21"/>
     </row>
-    <row r="967" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F967" s="21"/>
       <c r="G967" s="21"/>
     </row>
-    <row r="968" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F968" s="21"/>
       <c r="G968" s="21"/>
     </row>
-    <row r="969" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F969" s="21"/>
       <c r="G969" s="21"/>
     </row>
-    <row r="970" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F970" s="21"/>
       <c r="G970" s="21"/>
     </row>
-    <row r="971" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F971" s="21"/>
       <c r="G971" s="21"/>
     </row>
-    <row r="972" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F972" s="21"/>
       <c r="G972" s="21"/>
     </row>
-    <row r="973" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F973" s="21"/>
       <c r="G973" s="21"/>
     </row>
-    <row r="974" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F974" s="21"/>
       <c r="G974" s="21"/>
     </row>
-    <row r="975" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F975" s="21"/>
       <c r="G975" s="21"/>
     </row>
-    <row r="976" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F976" s="21"/>
       <c r="G976" s="21"/>
     </row>
-    <row r="977" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F977" s="21"/>
       <c r="G977" s="21"/>
     </row>
-    <row r="978" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F978" s="21"/>
       <c r="G978" s="21"/>
     </row>
-    <row r="979" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F979" s="21"/>
       <c r="G979" s="21"/>
     </row>
-    <row r="980" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F980" s="21"/>
       <c r="G980" s="21"/>
     </row>
-    <row r="981" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F981" s="21"/>
       <c r="G981" s="21"/>
     </row>
-    <row r="982" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F982" s="21"/>
       <c r="G982" s="21"/>
     </row>
-    <row r="983" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F983" s="21"/>
       <c r="G983" s="21"/>
     </row>
-    <row r="984" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F984" s="21"/>
       <c r="G984" s="21"/>
     </row>
-    <row r="985" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F985" s="21"/>
       <c r="G985" s="21"/>
     </row>
-    <row r="986" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F986" s="21"/>
       <c r="G986" s="21"/>
     </row>
-    <row r="987" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F987" s="21"/>
       <c r="G987" s="21"/>
     </row>
-    <row r="988" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F988" s="21"/>
       <c r="G988" s="21"/>
     </row>
-    <row r="989" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F989" s="21"/>
       <c r="G989" s="21"/>
     </row>
-    <row r="990" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F990" s="21"/>
       <c r="G990" s="21"/>
     </row>
-    <row r="991" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F991" s="21"/>
       <c r="G991" s="21"/>
     </row>
-    <row r="992" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F992" s="21"/>
       <c r="G992" s="21"/>
     </row>
-    <row r="993" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F993" s="21"/>
       <c r="G993" s="21"/>
     </row>
-    <row r="994" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F994" s="21"/>
       <c r="G994" s="21"/>
     </row>
-    <row r="995" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F995" s="21"/>
       <c r="G995" s="21"/>
     </row>
-    <row r="996" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F996" s="21"/>
       <c r="G996" s="21"/>
     </row>
-    <row r="997" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F997" s="21"/>
       <c r="G997" s="21"/>
     </row>
-    <row r="998" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F998" s="21"/>
       <c r="G998" s="21"/>
     </row>
-    <row r="999" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F999" s="21"/>
       <c r="G999" s="21"/>
     </row>
-    <row r="1000" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1000" s="21"/>
       <c r="G1000" s="21"/>
     </row>
-    <row r="1001" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1001" s="21"/>
       <c r="G1001" s="21"/>
     </row>
-    <row r="1002" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1002" s="21"/>
       <c r="G1002" s="21"/>
     </row>
-    <row r="1003" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1003" s="21"/>
       <c r="G1003" s="21"/>
     </row>
-    <row r="1004" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1004" s="21"/>
       <c r="G1004" s="21"/>
     </row>
-    <row r="1005" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1005" s="21"/>
       <c r="G1005" s="21"/>
     </row>
-    <row r="1006" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1006" s="21"/>
       <c r="G1006" s="21"/>
     </row>
-    <row r="1007" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1007" s="21"/>
       <c r="G1007" s="21"/>
     </row>
-    <row r="1008" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1008" s="21"/>
       <c r="G1008" s="21"/>
     </row>
-    <row r="1009" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1009" s="21"/>
       <c r="G1009" s="21"/>
     </row>
-    <row r="1010" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
     </row>
-    <row r="1011" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1011" s="21"/>
       <c r="G1011" s="21"/>
     </row>
-    <row r="1012" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1012" s="21"/>
       <c r="G1012" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="63">
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5763,54 +5866,9 @@
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F1:F21 F61:G1012 F44:F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5827,19 +5885,19 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
@@ -5853,21 +5911,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="25">
+        <v>15</v>
+      </c>
       <c r="C2" s="25">
         <f>WP!D9 + WP!D11 + WP!D18 + WP!D20 + WP!D30 + WP!D32 + WP!D39 + WP!D41 + WP!D51</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2" s="25">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41  + WP!E51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -5883,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
@@ -5899,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5913,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5927,21 +5987,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="26">
         <f>B2+B3+B4+B5+B6</f>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C7" s="26">
         <f>C2+C3+C4+C5+C6</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3E92B-A12D-4ADF-A5C4-33E83398E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F84C79E-7A72-4FA2-AF62-43FADF5988B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -773,26 +773,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,7 +869,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,51 +876,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,21 +1100,21 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,13 +1130,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1146,16 +1146,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1181,13 +1181,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50"/>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1196,13 +1196,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1211,13 +1211,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50"/>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1243,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1262,13 +1262,13 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50"/>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1279,13 +1279,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50"/>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1328,13 +1328,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1345,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1379,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1413,13 +1413,13 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="50"/>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1428,13 +1428,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50"/>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
@@ -1445,13 +1445,13 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="77"/>
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1460,22 +1460,22 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1485,16 +1485,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="50"/>
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1502,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="50"/>
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1520,13 +1520,13 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="50"/>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="50"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1550,13 +1550,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="50"/>
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="50"/>
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1582,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="50"/>
       <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="50"/>
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="50"/>
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
@@ -1633,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="50"/>
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
@@ -1648,13 +1648,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="50"/>
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
@@ -1663,13 +1663,13 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="50"/>
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1680,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="50"/>
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
@@ -1697,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="50"/>
       <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="50"/>
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1731,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="50"/>
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1748,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="50"/>
       <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
@@ -1763,13 +1763,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
+      <c r="G40" s="42"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="50"/>
       <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
@@ -1780,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="G41" s="42"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="77"/>
       <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
@@ -1795,143 +1795,143 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="79" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="68"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="57"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="49"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="68"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="57"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="49"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="68"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="57"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="49"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="68"/>
-    </row>
-    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="57"/>
+    </row>
+    <row r="48" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
-    </row>
-    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+    </row>
+    <row r="49" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="80"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+    </row>
+    <row r="50" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="35">
         <v>3</v>
       </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="47" t="s">
+      <c r="E51" s="38"/>
+      <c r="F51" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="48"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="65"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="33" t="s">
         <v>26</v>
       </c>
@@ -1941,14 +1941,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="42"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="62"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="30" t="s">
         <v>24</v>
       </c>
@@ -1957,15 +1957,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="70">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
         <v>2</v>
       </c>
-      <c r="G57" s="52"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
+      <c r="G57" s="71"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="62"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
@@ -1976,12 +1976,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="63"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1990,3819 +1990,3866 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
     </row>
-    <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
     </row>
-    <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
     </row>
-    <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
     </row>
-    <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
     </row>
-    <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
     </row>
-    <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
-    <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
-    <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
     </row>
-    <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
     </row>
-    <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
     </row>
-    <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
     </row>
-    <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
     </row>
-    <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
     </row>
-    <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
     </row>
-    <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
     </row>
-    <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
     </row>
-    <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
     </row>
-    <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
     </row>
-    <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F393" s="21"/>
       <c r="G393" s="21"/>
     </row>
-    <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F400" s="21"/>
       <c r="G400" s="21"/>
     </row>
-    <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F407" s="21"/>
       <c r="G407" s="21"/>
     </row>
-    <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F414" s="21"/>
       <c r="G414" s="21"/>
     </row>
-    <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F421" s="21"/>
       <c r="G421" s="21"/>
     </row>
-    <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F428" s="21"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F435" s="21"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F442" s="21"/>
       <c r="G442" s="21"/>
     </row>
-    <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F449" s="21"/>
       <c r="G449" s="21"/>
     </row>
-    <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F456" s="21"/>
       <c r="G456" s="21"/>
     </row>
-    <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F463" s="21"/>
       <c r="G463" s="21"/>
     </row>
-    <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F470" s="21"/>
       <c r="G470" s="21"/>
     </row>
-    <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F497" s="21"/>
       <c r="G497" s="21"/>
     </row>
-    <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F498" s="21"/>
       <c r="G498" s="21"/>
     </row>
-    <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F499" s="21"/>
       <c r="G499" s="21"/>
     </row>
-    <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F500" s="21"/>
       <c r="G500" s="21"/>
     </row>
-    <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F501" s="21"/>
       <c r="G501" s="21"/>
     </row>
-    <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F502" s="21"/>
       <c r="G502" s="21"/>
     </row>
-    <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F503" s="21"/>
       <c r="G503" s="21"/>
     </row>
-    <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F505" s="21"/>
       <c r="G505" s="21"/>
     </row>
-    <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F506" s="21"/>
       <c r="G506" s="21"/>
     </row>
-    <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F508" s="21"/>
       <c r="G508" s="21"/>
     </row>
-    <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F509" s="21"/>
       <c r="G509" s="21"/>
     </row>
-    <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F510" s="21"/>
       <c r="G510" s="21"/>
     </row>
-    <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F511" s="21"/>
       <c r="G511" s="21"/>
     </row>
-    <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F512" s="21"/>
       <c r="G512" s="21"/>
     </row>
-    <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F513" s="21"/>
       <c r="G513" s="21"/>
     </row>
-    <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F514" s="21"/>
       <c r="G514" s="21"/>
     </row>
-    <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F515" s="21"/>
       <c r="G515" s="21"/>
     </row>
-    <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F516" s="21"/>
       <c r="G516" s="21"/>
     </row>
-    <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F517" s="21"/>
       <c r="G517" s="21"/>
     </row>
-    <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F518" s="21"/>
       <c r="G518" s="21"/>
     </row>
-    <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
     </row>
-    <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F521" s="21"/>
       <c r="G521" s="21"/>
     </row>
-    <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F522" s="21"/>
       <c r="G522" s="21"/>
     </row>
-    <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F523" s="21"/>
       <c r="G523" s="21"/>
     </row>
-    <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F524" s="21"/>
       <c r="G524" s="21"/>
     </row>
-    <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F525" s="21"/>
       <c r="G525" s="21"/>
     </row>
-    <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F526" s="21"/>
       <c r="G526" s="21"/>
     </row>
-    <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
     </row>
-    <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F528" s="21"/>
       <c r="G528" s="21"/>
     </row>
-    <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F530" s="21"/>
       <c r="G530" s="21"/>
     </row>
-    <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F531" s="21"/>
       <c r="G531" s="21"/>
     </row>
-    <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F532" s="21"/>
       <c r="G532" s="21"/>
     </row>
-    <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F533" s="21"/>
       <c r="G533" s="21"/>
     </row>
-    <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F534" s="21"/>
       <c r="G534" s="21"/>
     </row>
-    <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F535" s="21"/>
       <c r="G535" s="21"/>
     </row>
-    <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F536" s="21"/>
       <c r="G536" s="21"/>
     </row>
-    <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F537" s="21"/>
       <c r="G537" s="21"/>
     </row>
-    <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F538" s="21"/>
       <c r="G538" s="21"/>
     </row>
-    <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F539" s="21"/>
       <c r="G539" s="21"/>
     </row>
-    <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F540" s="21"/>
       <c r="G540" s="21"/>
     </row>
-    <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F541" s="21"/>
       <c r="G541" s="21"/>
     </row>
-    <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F542" s="21"/>
       <c r="G542" s="21"/>
     </row>
-    <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F543" s="21"/>
       <c r="G543" s="21"/>
     </row>
-    <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
     </row>
-    <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
     </row>
-    <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F554" s="21"/>
       <c r="G554" s="21"/>
     </row>
-    <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F561" s="21"/>
       <c r="G561" s="21"/>
     </row>
-    <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F568" s="21"/>
       <c r="G568" s="21"/>
     </row>
-    <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F575" s="21"/>
       <c r="G575" s="21"/>
     </row>
-    <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F582" s="21"/>
       <c r="G582" s="21"/>
     </row>
-    <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F589" s="21"/>
       <c r="G589" s="21"/>
     </row>
-    <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F593" s="21"/>
       <c r="G593" s="21"/>
     </row>
-    <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F594" s="21"/>
       <c r="G594" s="21"/>
     </row>
-    <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F595" s="21"/>
       <c r="G595" s="21"/>
     </row>
-    <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F596" s="21"/>
       <c r="G596" s="21"/>
     </row>
-    <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F597" s="21"/>
       <c r="G597" s="21"/>
     </row>
-    <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F598" s="21"/>
       <c r="G598" s="21"/>
     </row>
-    <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F599" s="21"/>
       <c r="G599" s="21"/>
     </row>
-    <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F600" s="21"/>
       <c r="G600" s="21"/>
     </row>
-    <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F601" s="21"/>
       <c r="G601" s="21"/>
     </row>
-    <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F602" s="21"/>
       <c r="G602" s="21"/>
     </row>
-    <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F603" s="21"/>
       <c r="G603" s="21"/>
     </row>
-    <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F604" s="21"/>
       <c r="G604" s="21"/>
     </row>
-    <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F605" s="21"/>
       <c r="G605" s="21"/>
     </row>
-    <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F606" s="21"/>
       <c r="G606" s="21"/>
     </row>
-    <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F607" s="21"/>
       <c r="G607" s="21"/>
     </row>
-    <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F608" s="21"/>
       <c r="G608" s="21"/>
     </row>
-    <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F609" s="21"/>
       <c r="G609" s="21"/>
     </row>
-    <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F610" s="21"/>
       <c r="G610" s="21"/>
     </row>
-    <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F611" s="21"/>
       <c r="G611" s="21"/>
     </row>
-    <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F612" s="21"/>
       <c r="G612" s="21"/>
     </row>
-    <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F613" s="21"/>
       <c r="G613" s="21"/>
     </row>
-    <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F614" s="21"/>
       <c r="G614" s="21"/>
     </row>
-    <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F615" s="21"/>
       <c r="G615" s="21"/>
     </row>
-    <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F616" s="21"/>
       <c r="G616" s="21"/>
     </row>
-    <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F617" s="21"/>
       <c r="G617" s="21"/>
     </row>
-    <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F618" s="21"/>
       <c r="G618" s="21"/>
     </row>
-    <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F619" s="21"/>
       <c r="G619" s="21"/>
     </row>
-    <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F620" s="21"/>
       <c r="G620" s="21"/>
     </row>
-    <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F621" s="21"/>
       <c r="G621" s="21"/>
     </row>
-    <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F622" s="21"/>
       <c r="G622" s="21"/>
     </row>
-    <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F623" s="21"/>
       <c r="G623" s="21"/>
     </row>
-    <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F624" s="21"/>
       <c r="G624" s="21"/>
     </row>
-    <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F625" s="21"/>
       <c r="G625" s="21"/>
     </row>
-    <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F626" s="21"/>
       <c r="G626" s="21"/>
     </row>
-    <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F627" s="21"/>
       <c r="G627" s="21"/>
     </row>
-    <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F628" s="21"/>
       <c r="G628" s="21"/>
     </row>
-    <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F629" s="21"/>
       <c r="G629" s="21"/>
     </row>
-    <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F630" s="21"/>
       <c r="G630" s="21"/>
     </row>
-    <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F631" s="21"/>
       <c r="G631" s="21"/>
     </row>
-    <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F632" s="21"/>
       <c r="G632" s="21"/>
     </row>
-    <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F633" s="21"/>
       <c r="G633" s="21"/>
     </row>
-    <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F634" s="21"/>
       <c r="G634" s="21"/>
     </row>
-    <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F635" s="21"/>
       <c r="G635" s="21"/>
     </row>
-    <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F640" s="21"/>
       <c r="G640" s="21"/>
     </row>
-    <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F641" s="21"/>
       <c r="G641" s="21"/>
     </row>
-    <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F642" s="21"/>
       <c r="G642" s="21"/>
     </row>
-    <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F643" s="21"/>
       <c r="G643" s="21"/>
     </row>
-    <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F644" s="21"/>
       <c r="G644" s="21"/>
     </row>
-    <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F645" s="21"/>
       <c r="G645" s="21"/>
     </row>
-    <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F646" s="21"/>
       <c r="G646" s="21"/>
     </row>
-    <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F647" s="21"/>
       <c r="G647" s="21"/>
     </row>
-    <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F648" s="21"/>
       <c r="G648" s="21"/>
     </row>
-    <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F649" s="21"/>
       <c r="G649" s="21"/>
     </row>
-    <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F650" s="21"/>
       <c r="G650" s="21"/>
     </row>
-    <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F651" s="21"/>
       <c r="G651" s="21"/>
     </row>
-    <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F652" s="21"/>
       <c r="G652" s="21"/>
     </row>
-    <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F653" s="21"/>
       <c r="G653" s="21"/>
     </row>
-    <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F654" s="21"/>
       <c r="G654" s="21"/>
     </row>
-    <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F655" s="21"/>
       <c r="G655" s="21"/>
     </row>
-    <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F656" s="21"/>
       <c r="G656" s="21"/>
     </row>
-    <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F659" s="21"/>
       <c r="G659" s="21"/>
     </row>
-    <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F666" s="21"/>
       <c r="G666" s="21"/>
     </row>
-    <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F673" s="21"/>
       <c r="G673" s="21"/>
     </row>
-    <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F687" s="21"/>
       <c r="G687" s="21"/>
     </row>
-    <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F694" s="21"/>
       <c r="G694" s="21"/>
     </row>
-    <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F701" s="21"/>
       <c r="G701" s="21"/>
     </row>
-    <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F708" s="21"/>
       <c r="G708" s="21"/>
     </row>
-    <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F722" s="21"/>
       <c r="G722" s="21"/>
     </row>
-    <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F729" s="21"/>
       <c r="G729" s="21"/>
     </row>
-    <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F736" s="21"/>
       <c r="G736" s="21"/>
     </row>
-    <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F742" s="21"/>
       <c r="G742" s="21"/>
     </row>
-    <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F750" s="21"/>
       <c r="G750" s="21"/>
     </row>
-    <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F757" s="21"/>
       <c r="G757" s="21"/>
     </row>
-    <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F764" s="21"/>
       <c r="G764" s="21"/>
     </row>
-    <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F769" s="21"/>
       <c r="G769" s="21"/>
     </row>
-    <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F770" s="21"/>
       <c r="G770" s="21"/>
     </row>
-    <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F771" s="21"/>
       <c r="G771" s="21"/>
     </row>
-    <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F772" s="21"/>
       <c r="G772" s="21"/>
     </row>
-    <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F773" s="21"/>
       <c r="G773" s="21"/>
     </row>
-    <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F774" s="21"/>
       <c r="G774" s="21"/>
     </row>
-    <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F775" s="21"/>
       <c r="G775" s="21"/>
     </row>
-    <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F776" s="21"/>
       <c r="G776" s="21"/>
     </row>
-    <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F777" s="21"/>
       <c r="G777" s="21"/>
     </row>
-    <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F778" s="21"/>
       <c r="G778" s="21"/>
     </row>
-    <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F779" s="21"/>
       <c r="G779" s="21"/>
     </row>
-    <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F780" s="21"/>
       <c r="G780" s="21"/>
     </row>
-    <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F781" s="21"/>
       <c r="G781" s="21"/>
     </row>
-    <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F782" s="21"/>
       <c r="G782" s="21"/>
     </row>
-    <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F783" s="21"/>
       <c r="G783" s="21"/>
     </row>
-    <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F784" s="21"/>
       <c r="G784" s="21"/>
     </row>
-    <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F785" s="21"/>
       <c r="G785" s="21"/>
     </row>
-    <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F786" s="21"/>
       <c r="G786" s="21"/>
     </row>
-    <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F787" s="21"/>
       <c r="G787" s="21"/>
     </row>
-    <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F788" s="21"/>
       <c r="G788" s="21"/>
     </row>
-    <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F789" s="21"/>
       <c r="G789" s="21"/>
     </row>
-    <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F790" s="21"/>
       <c r="G790" s="21"/>
     </row>
-    <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F791" s="21"/>
       <c r="G791" s="21"/>
     </row>
-    <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F792" s="21"/>
       <c r="G792" s="21"/>
     </row>
-    <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F793" s="21"/>
       <c r="G793" s="21"/>
     </row>
-    <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F794" s="21"/>
       <c r="G794" s="21"/>
     </row>
-    <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F795" s="21"/>
       <c r="G795" s="21"/>
     </row>
-    <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F796" s="21"/>
       <c r="G796" s="21"/>
     </row>
-    <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F797" s="21"/>
       <c r="G797" s="21"/>
     </row>
-    <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F798" s="21"/>
       <c r="G798" s="21"/>
     </row>
-    <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F799" s="21"/>
       <c r="G799" s="21"/>
     </row>
-    <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F800" s="21"/>
       <c r="G800" s="21"/>
     </row>
-    <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F801" s="21"/>
       <c r="G801" s="21"/>
     </row>
-    <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F802" s="21"/>
       <c r="G802" s="21"/>
     </row>
-    <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F803" s="21"/>
       <c r="G803" s="21"/>
     </row>
-    <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F804" s="21"/>
       <c r="G804" s="21"/>
     </row>
-    <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F805" s="21"/>
       <c r="G805" s="21"/>
     </row>
-    <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F806" s="21"/>
       <c r="G806" s="21"/>
     </row>
-    <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F807" s="21"/>
       <c r="G807" s="21"/>
     </row>
-    <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F808" s="21"/>
       <c r="G808" s="21"/>
     </row>
-    <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F809" s="21"/>
       <c r="G809" s="21"/>
     </row>
-    <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F810" s="21"/>
       <c r="G810" s="21"/>
     </row>
-    <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F811" s="21"/>
       <c r="G811" s="21"/>
     </row>
-    <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F812" s="21"/>
       <c r="G812" s="21"/>
     </row>
-    <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F813" s="21"/>
       <c r="G813" s="21"/>
     </row>
-    <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F814" s="21"/>
       <c r="G814" s="21"/>
     </row>
-    <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F815" s="21"/>
       <c r="G815" s="21"/>
     </row>
-    <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F816" s="21"/>
       <c r="G816" s="21"/>
     </row>
-    <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F817" s="21"/>
       <c r="G817" s="21"/>
     </row>
-    <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F818" s="21"/>
       <c r="G818" s="21"/>
     </row>
-    <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F819" s="21"/>
       <c r="G819" s="21"/>
     </row>
-    <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F820" s="21"/>
       <c r="G820" s="21"/>
     </row>
-    <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F821" s="21"/>
       <c r="G821" s="21"/>
     </row>
-    <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F822" s="21"/>
       <c r="G822" s="21"/>
     </row>
-    <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F823" s="21"/>
       <c r="G823" s="21"/>
     </row>
-    <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F824" s="21"/>
       <c r="G824" s="21"/>
     </row>
-    <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F825" s="21"/>
       <c r="G825" s="21"/>
     </row>
-    <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F826" s="21"/>
       <c r="G826" s="21"/>
     </row>
-    <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F827" s="21"/>
       <c r="G827" s="21"/>
     </row>
-    <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F828" s="21"/>
       <c r="G828" s="21"/>
     </row>
-    <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F829" s="21"/>
       <c r="G829" s="21"/>
     </row>
-    <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F830" s="21"/>
       <c r="G830" s="21"/>
     </row>
-    <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F831" s="21"/>
       <c r="G831" s="21"/>
     </row>
-    <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F832" s="21"/>
       <c r="G832" s="21"/>
     </row>
-    <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F833" s="21"/>
       <c r="G833" s="21"/>
     </row>
-    <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F834" s="21"/>
       <c r="G834" s="21"/>
     </row>
-    <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F835" s="21"/>
       <c r="G835" s="21"/>
     </row>
-    <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F836" s="21"/>
       <c r="G836" s="21"/>
     </row>
-    <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F837" s="21"/>
       <c r="G837" s="21"/>
     </row>
-    <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F838" s="21"/>
       <c r="G838" s="21"/>
     </row>
-    <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F839" s="21"/>
       <c r="G839" s="21"/>
     </row>
-    <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F840" s="21"/>
       <c r="G840" s="21"/>
     </row>
-    <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F841" s="21"/>
       <c r="G841" s="21"/>
     </row>
-    <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F842" s="21"/>
       <c r="G842" s="21"/>
     </row>
-    <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F843" s="21"/>
       <c r="G843" s="21"/>
     </row>
-    <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F844" s="21"/>
       <c r="G844" s="21"/>
     </row>
-    <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F845" s="21"/>
       <c r="G845" s="21"/>
     </row>
-    <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
     </row>
-    <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F848" s="21"/>
       <c r="G848" s="21"/>
     </row>
-    <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F849" s="21"/>
       <c r="G849" s="21"/>
     </row>
-    <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F850" s="21"/>
       <c r="G850" s="21"/>
     </row>
-    <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F851" s="21"/>
       <c r="G851" s="21"/>
     </row>
-    <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F852" s="21"/>
       <c r="G852" s="21"/>
     </row>
-    <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F853" s="21"/>
       <c r="G853" s="21"/>
     </row>
-    <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
     </row>
-    <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
     </row>
-    <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F856" s="21"/>
       <c r="G856" s="21"/>
     </row>
-    <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F857" s="21"/>
       <c r="G857" s="21"/>
     </row>
-    <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F858" s="21"/>
       <c r="G858" s="21"/>
     </row>
-    <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F859" s="21"/>
       <c r="G859" s="21"/>
     </row>
-    <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F860" s="21"/>
       <c r="G860" s="21"/>
     </row>
-    <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F861" s="21"/>
       <c r="G861" s="21"/>
     </row>
-    <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F862" s="21"/>
       <c r="G862" s="21"/>
     </row>
-    <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F863" s="21"/>
       <c r="G863" s="21"/>
     </row>
-    <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F864" s="21"/>
       <c r="G864" s="21"/>
     </row>
-    <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F865" s="21"/>
       <c r="G865" s="21"/>
     </row>
-    <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F866" s="21"/>
       <c r="G866" s="21"/>
     </row>
-    <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F867" s="21"/>
       <c r="G867" s="21"/>
     </row>
-    <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F868" s="21"/>
       <c r="G868" s="21"/>
     </row>
-    <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F869" s="21"/>
       <c r="G869" s="21"/>
     </row>
-    <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F870" s="21"/>
       <c r="G870" s="21"/>
     </row>
-    <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F871" s="21"/>
       <c r="G871" s="21"/>
     </row>
-    <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F872" s="21"/>
       <c r="G872" s="21"/>
     </row>
-    <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F873" s="21"/>
       <c r="G873" s="21"/>
     </row>
-    <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F874" s="21"/>
       <c r="G874" s="21"/>
     </row>
-    <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F875" s="21"/>
       <c r="G875" s="21"/>
     </row>
-    <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F876" s="21"/>
       <c r="G876" s="21"/>
     </row>
-    <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F877" s="21"/>
       <c r="G877" s="21"/>
     </row>
-    <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F878" s="21"/>
       <c r="G878" s="21"/>
     </row>
-    <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F879" s="21"/>
       <c r="G879" s="21"/>
     </row>
-    <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F880" s="21"/>
       <c r="G880" s="21"/>
     </row>
-    <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F881" s="21"/>
       <c r="G881" s="21"/>
     </row>
-    <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F882" s="21"/>
       <c r="G882" s="21"/>
     </row>
-    <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F883" s="21"/>
       <c r="G883" s="21"/>
     </row>
-    <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F884" s="21"/>
       <c r="G884" s="21"/>
     </row>
-    <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F885" s="21"/>
       <c r="G885" s="21"/>
     </row>
-    <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F886" s="21"/>
       <c r="G886" s="21"/>
     </row>
-    <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F887" s="21"/>
       <c r="G887" s="21"/>
     </row>
-    <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F888" s="21"/>
       <c r="G888" s="21"/>
     </row>
-    <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F889" s="21"/>
       <c r="G889" s="21"/>
     </row>
-    <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F890" s="21"/>
       <c r="G890" s="21"/>
     </row>
-    <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F891" s="21"/>
       <c r="G891" s="21"/>
     </row>
-    <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F892" s="21"/>
       <c r="G892" s="21"/>
     </row>
-    <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F893" s="21"/>
       <c r="G893" s="21"/>
     </row>
-    <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F894" s="21"/>
       <c r="G894" s="21"/>
     </row>
-    <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F895" s="21"/>
       <c r="G895" s="21"/>
     </row>
-    <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F896" s="21"/>
       <c r="G896" s="21"/>
     </row>
-    <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F897" s="21"/>
       <c r="G897" s="21"/>
     </row>
-    <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F898" s="21"/>
       <c r="G898" s="21"/>
     </row>
-    <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F899" s="21"/>
       <c r="G899" s="21"/>
     </row>
-    <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F900" s="21"/>
       <c r="G900" s="21"/>
     </row>
-    <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F901" s="21"/>
       <c r="G901" s="21"/>
     </row>
-    <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F902" s="21"/>
       <c r="G902" s="21"/>
     </row>
-    <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F903" s="21"/>
       <c r="G903" s="21"/>
     </row>
-    <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F904" s="21"/>
       <c r="G904" s="21"/>
     </row>
-    <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F905" s="21"/>
       <c r="G905" s="21"/>
     </row>
-    <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F906" s="21"/>
       <c r="G906" s="21"/>
     </row>
-    <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F907" s="21"/>
       <c r="G907" s="21"/>
     </row>
-    <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F908" s="21"/>
       <c r="G908" s="21"/>
     </row>
-    <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F909" s="21"/>
       <c r="G909" s="21"/>
     </row>
-    <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F910" s="21"/>
       <c r="G910" s="21"/>
     </row>
-    <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F911" s="21"/>
       <c r="G911" s="21"/>
     </row>
-    <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F912" s="21"/>
       <c r="G912" s="21"/>
     </row>
-    <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F913" s="21"/>
       <c r="G913" s="21"/>
     </row>
-    <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F914" s="21"/>
       <c r="G914" s="21"/>
     </row>
-    <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F915" s="21"/>
       <c r="G915" s="21"/>
     </row>
-    <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F916" s="21"/>
       <c r="G916" s="21"/>
     </row>
-    <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F917" s="21"/>
       <c r="G917" s="21"/>
     </row>
-    <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F918" s="21"/>
       <c r="G918" s="21"/>
     </row>
-    <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F919" s="21"/>
       <c r="G919" s="21"/>
     </row>
-    <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F920" s="21"/>
       <c r="G920" s="21"/>
     </row>
-    <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F921" s="21"/>
       <c r="G921" s="21"/>
     </row>
-    <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F922" s="21"/>
       <c r="G922" s="21"/>
     </row>
-    <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F923" s="21"/>
       <c r="G923" s="21"/>
     </row>
-    <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F924" s="21"/>
       <c r="G924" s="21"/>
     </row>
-    <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F925" s="21"/>
       <c r="G925" s="21"/>
     </row>
-    <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F926" s="21"/>
       <c r="G926" s="21"/>
     </row>
-    <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F927" s="21"/>
       <c r="G927" s="21"/>
     </row>
-    <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F928" s="21"/>
       <c r="G928" s="21"/>
     </row>
-    <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F929" s="21"/>
       <c r="G929" s="21"/>
     </row>
-    <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F930" s="21"/>
       <c r="G930" s="21"/>
     </row>
-    <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F931" s="21"/>
       <c r="G931" s="21"/>
     </row>
-    <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F932" s="21"/>
       <c r="G932" s="21"/>
     </row>
-    <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F933" s="21"/>
       <c r="G933" s="21"/>
     </row>
-    <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F934" s="21"/>
       <c r="G934" s="21"/>
     </row>
-    <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F935" s="21"/>
       <c r="G935" s="21"/>
     </row>
-    <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F936" s="21"/>
       <c r="G936" s="21"/>
     </row>
-    <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F937" s="21"/>
       <c r="G937" s="21"/>
     </row>
-    <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F938" s="21"/>
       <c r="G938" s="21"/>
     </row>
-    <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F939" s="21"/>
       <c r="G939" s="21"/>
     </row>
-    <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F940" s="21"/>
       <c r="G940" s="21"/>
     </row>
-    <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F941" s="21"/>
       <c r="G941" s="21"/>
     </row>
-    <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F942" s="21"/>
       <c r="G942" s="21"/>
     </row>
-    <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F943" s="21"/>
       <c r="G943" s="21"/>
     </row>
-    <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F944" s="21"/>
       <c r="G944" s="21"/>
     </row>
-    <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F945" s="21"/>
       <c r="G945" s="21"/>
     </row>
-    <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F946" s="21"/>
       <c r="G946" s="21"/>
     </row>
-    <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F947" s="21"/>
       <c r="G947" s="21"/>
     </row>
-    <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F948" s="21"/>
       <c r="G948" s="21"/>
     </row>
-    <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F949" s="21"/>
       <c r="G949" s="21"/>
     </row>
-    <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F950" s="21"/>
       <c r="G950" s="21"/>
     </row>
-    <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F951" s="21"/>
       <c r="G951" s="21"/>
     </row>
-    <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F952" s="21"/>
       <c r="G952" s="21"/>
     </row>
-    <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F953" s="21"/>
       <c r="G953" s="21"/>
     </row>
-    <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F954" s="21"/>
       <c r="G954" s="21"/>
     </row>
-    <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F955" s="21"/>
       <c r="G955" s="21"/>
     </row>
-    <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F956" s="21"/>
       <c r="G956" s="21"/>
     </row>
-    <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F957" s="21"/>
       <c r="G957" s="21"/>
     </row>
-    <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F958" s="21"/>
       <c r="G958" s="21"/>
     </row>
-    <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F959" s="21"/>
       <c r="G959" s="21"/>
     </row>
-    <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F960" s="21"/>
       <c r="G960" s="21"/>
     </row>
-    <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F961" s="21"/>
       <c r="G961" s="21"/>
     </row>
-    <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F962" s="21"/>
       <c r="G962" s="21"/>
     </row>
-    <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F963" s="21"/>
       <c r="G963" s="21"/>
     </row>
-    <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F964" s="21"/>
       <c r="G964" s="21"/>
     </row>
-    <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F965" s="21"/>
       <c r="G965" s="21"/>
     </row>
-    <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F966" s="21"/>
       <c r="G966" s="21"/>
     </row>
-    <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F967" s="21"/>
       <c r="G967" s="21"/>
     </row>
-    <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F968" s="21"/>
       <c r="G968" s="21"/>
     </row>
-    <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F969" s="21"/>
       <c r="G969" s="21"/>
     </row>
-    <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F970" s="21"/>
       <c r="G970" s="21"/>
     </row>
-    <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F971" s="21"/>
       <c r="G971" s="21"/>
     </row>
-    <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F972" s="21"/>
       <c r="G972" s="21"/>
     </row>
-    <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F973" s="21"/>
       <c r="G973" s="21"/>
     </row>
-    <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F974" s="21"/>
       <c r="G974" s="21"/>
     </row>
-    <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F975" s="21"/>
       <c r="G975" s="21"/>
     </row>
-    <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F976" s="21"/>
       <c r="G976" s="21"/>
     </row>
-    <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F977" s="21"/>
       <c r="G977" s="21"/>
     </row>
-    <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F978" s="21"/>
       <c r="G978" s="21"/>
     </row>
-    <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F979" s="21"/>
       <c r="G979" s="21"/>
     </row>
-    <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F980" s="21"/>
       <c r="G980" s="21"/>
     </row>
-    <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F981" s="21"/>
       <c r="G981" s="21"/>
     </row>
-    <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F982" s="21"/>
       <c r="G982" s="21"/>
     </row>
-    <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F983" s="21"/>
       <c r="G983" s="21"/>
     </row>
-    <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F984" s="21"/>
       <c r="G984" s="21"/>
     </row>
-    <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F985" s="21"/>
       <c r="G985" s="21"/>
     </row>
-    <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F986" s="21"/>
       <c r="G986" s="21"/>
     </row>
-    <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F987" s="21"/>
       <c r="G987" s="21"/>
     </row>
-    <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F988" s="21"/>
       <c r="G988" s="21"/>
     </row>
-    <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F989" s="21"/>
       <c r="G989" s="21"/>
     </row>
-    <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F990" s="21"/>
       <c r="G990" s="21"/>
     </row>
-    <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F991" s="21"/>
       <c r="G991" s="21"/>
     </row>
-    <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F992" s="21"/>
       <c r="G992" s="21"/>
     </row>
-    <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F993" s="21"/>
       <c r="G993" s="21"/>
     </row>
-    <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F994" s="21"/>
       <c r="G994" s="21"/>
     </row>
-    <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F995" s="21"/>
       <c r="G995" s="21"/>
     </row>
-    <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F996" s="21"/>
       <c r="G996" s="21"/>
     </row>
-    <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F997" s="21"/>
       <c r="G997" s="21"/>
     </row>
-    <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F998" s="21"/>
       <c r="G998" s="21"/>
     </row>
-    <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F999" s="21"/>
       <c r="G999" s="21"/>
     </row>
-    <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1000" s="21"/>
       <c r="G1000" s="21"/>
     </row>
-    <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1001" s="21"/>
       <c r="G1001" s="21"/>
     </row>
-    <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1002" s="21"/>
       <c r="G1002" s="21"/>
     </row>
-    <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1003" s="21"/>
       <c r="G1003" s="21"/>
     </row>
-    <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1004" s="21"/>
       <c r="G1004" s="21"/>
     </row>
-    <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1005" s="21"/>
       <c r="G1005" s="21"/>
     </row>
-    <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1006" s="21"/>
       <c r="G1006" s="21"/>
     </row>
-    <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1007" s="21"/>
       <c r="G1007" s="21"/>
     </row>
-    <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1008" s="21"/>
       <c r="G1008" s="21"/>
     </row>
-    <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1009" s="21"/>
       <c r="G1009" s="21"/>
     </row>
-    <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
     </row>
-    <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1011" s="21"/>
       <c r="G1011" s="21"/>
     </row>
-    <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F1012" s="21"/>
       <c r="G1012" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F51:G54"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="E51:E54"/>
     <mergeCell ref="F19:G19"/>
@@ -5819,53 +5866,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F51:G54"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5885,19 +5885,19 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -5943,23 +5943,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="25">
         <f>WP!D2 + WP!D3 + WP!D15 + WP!D17 + WP!D23 + WP!D24 + WP!D36 + WP!D38</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="25">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5987,17 +5987,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="26">
         <f>B2+B3+B4+B5+B6</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="26">
         <f>C2+C3+C4+C5+C6</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F84C79E-7A72-4FA2-AF62-43FADF5988B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA8575-1765-4045-9871-6852706024CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Release 4
-Planning</t>
-  </si>
-  <si>
     <t>Doing</t>
   </si>
   <si>
@@ -116,10 +112,6 @@
   </si>
   <si>
     <t>Total Tasks</t>
-  </si>
-  <si>
-    <t>Release 3
-Comments</t>
   </si>
   <si>
     <t>FrontEnd
@@ -248,6 +240,14 @@
   </si>
   <si>
     <t xml:space="preserve">Review BackEnd for Supplier Delete product </t>
+  </si>
+  <si>
+    <t>Release 5
+Planning</t>
+  </si>
+  <si>
+    <t>Release 4
+Comments</t>
   </si>
 </sst>
 </file>
@@ -773,69 +773,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,6 +826,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,9 +834,51 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,21 +1100,21 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,17 +1130,17 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>6</v>
@@ -1148,16 +1148,18 @@
       <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1165,76 +1167,78 @@
       <c r="D3" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="F4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="F5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="F6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
+      <c r="F7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
@@ -1243,15 +1247,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="F8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -1262,15 +1266,15 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
@@ -1279,15 +1283,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="F10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -1298,45 +1302,45 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
+      <c r="F12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
+      <c r="F13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
@@ -1345,15 +1349,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
+      <c r="F14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -1362,15 +1366,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
+      <c r="F15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>11</v>
@@ -1379,15 +1383,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
+      <c r="F16" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -1396,15 +1400,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
+      <c r="F17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -1413,30 +1417,30 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
+      <c r="F18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
+      <c r="F19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
@@ -1445,41 +1449,41 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="F20" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="F21" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="78" t="s">
-        <v>29</v>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -1487,16 +1491,18 @@
       <c r="D23" s="7">
         <v>3</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -1504,76 +1510,78 @@
       <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
+      <c r="F25" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
+      <c r="F26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
+      <c r="F27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="50"/>
+      <c r="F28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1582,15 +1590,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
+      <c r="F29" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -1599,15 +1607,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="50"/>
+      <c r="F30" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
@@ -1616,15 +1624,15 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="50"/>
+      <c r="F31" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -1633,45 +1641,45 @@
         <v>3</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="50"/>
+      <c r="F32" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="50"/>
+      <c r="F33" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="50"/>
+      <c r="F34" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
@@ -1680,15 +1688,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="42"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="50"/>
+      <c r="F35" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -1697,15 +1705,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="42"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="50"/>
+      <c r="F36" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
@@ -1714,15 +1722,15 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="42"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="50"/>
+      <c r="F37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>6</v>
@@ -1731,15 +1739,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="50"/>
+      <c r="F38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -1748,30 +1756,30 @@
         <v>1</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="42"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="50"/>
+      <c r="F39" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="50"/>
+      <c r="F40" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>10</v>
@@ -1780,160 +1788,160 @@
         <v>1</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="42"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
+      <c r="F41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
       <c r="B42" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="F42" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="79" t="s">
-        <v>27</v>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
+        <v>69</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="57"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="49"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="64"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="57"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="49"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="64"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="57"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="57"/>
-    </row>
-    <row r="48" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-    </row>
-    <row r="49" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="50" spans="1:7" ht="25.8" x14ac:dyDescent="0.35">
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="73">
         <v>3</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="66" t="s">
+      <c r="E51" s="76"/>
+      <c r="F51" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="58"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="66"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="33" t="s">
-        <v>26</v>
       </c>
       <c r="D56" s="33">
         <v>41</v>
@@ -1941,33 +1949,33 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="62"/>
-      <c r="B57" s="53"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="29">
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F57" s="51">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>2</v>
-      </c>
-      <c r="G57" s="71"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="62"/>
-      <c r="B58" s="53"/>
+        <v>14</v>
+      </c>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="31">
         <v>41</v>
@@ -1976,12 +1984,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="63"/>
-      <c r="B59" s="52"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1990,3819 +1998,3866 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
     </row>
-    <row r="170" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
     </row>
-    <row r="177" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
     </row>
-    <row r="254" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
     </row>
-    <row r="268" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
     </row>
-    <row r="275" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
     </row>
-    <row r="282" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
-    <row r="289" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
-    <row r="296" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
     </row>
-    <row r="303" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
     </row>
-    <row r="310" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
     </row>
-    <row r="317" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
     </row>
-    <row r="324" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
     </row>
-    <row r="331" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
     </row>
-    <row r="338" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
     </row>
-    <row r="345" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
     </row>
-    <row r="352" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
     </row>
-    <row r="359" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
     </row>
-    <row r="380" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
     </row>
-    <row r="387" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F393" s="21"/>
       <c r="G393" s="21"/>
     </row>
-    <row r="394" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F400" s="21"/>
       <c r="G400" s="21"/>
     </row>
-    <row r="401" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F407" s="21"/>
       <c r="G407" s="21"/>
     </row>
-    <row r="408" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F414" s="21"/>
       <c r="G414" s="21"/>
     </row>
-    <row r="415" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F421" s="21"/>
       <c r="G421" s="21"/>
     </row>
-    <row r="422" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F428" s="21"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F435" s="21"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F442" s="21"/>
       <c r="G442" s="21"/>
     </row>
-    <row r="443" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F449" s="21"/>
       <c r="G449" s="21"/>
     </row>
-    <row r="450" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F456" s="21"/>
       <c r="G456" s="21"/>
     </row>
-    <row r="457" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F463" s="21"/>
       <c r="G463" s="21"/>
     </row>
-    <row r="464" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F470" s="21"/>
       <c r="G470" s="21"/>
     </row>
-    <row r="471" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="492" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F497" s="21"/>
       <c r="G497" s="21"/>
     </row>
-    <row r="498" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F498" s="21"/>
       <c r="G498" s="21"/>
     </row>
-    <row r="499" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F499" s="21"/>
       <c r="G499" s="21"/>
     </row>
-    <row r="500" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F500" s="21"/>
       <c r="G500" s="21"/>
     </row>
-    <row r="501" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F501" s="21"/>
       <c r="G501" s="21"/>
     </row>
-    <row r="502" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F502" s="21"/>
       <c r="G502" s="21"/>
     </row>
-    <row r="503" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F503" s="21"/>
       <c r="G503" s="21"/>
     </row>
-    <row r="504" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F505" s="21"/>
       <c r="G505" s="21"/>
     </row>
-    <row r="506" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F506" s="21"/>
       <c r="G506" s="21"/>
     </row>
-    <row r="507" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F508" s="21"/>
       <c r="G508" s="21"/>
     </row>
-    <row r="509" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F509" s="21"/>
       <c r="G509" s="21"/>
     </row>
-    <row r="510" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F510" s="21"/>
       <c r="G510" s="21"/>
     </row>
-    <row r="511" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F511" s="21"/>
       <c r="G511" s="21"/>
     </row>
-    <row r="512" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F512" s="21"/>
       <c r="G512" s="21"/>
     </row>
-    <row r="513" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F513" s="21"/>
       <c r="G513" s="21"/>
     </row>
-    <row r="514" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F514" s="21"/>
       <c r="G514" s="21"/>
     </row>
-    <row r="515" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F515" s="21"/>
       <c r="G515" s="21"/>
     </row>
-    <row r="516" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F516" s="21"/>
       <c r="G516" s="21"/>
     </row>
-    <row r="517" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F517" s="21"/>
       <c r="G517" s="21"/>
     </row>
-    <row r="518" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F518" s="21"/>
       <c r="G518" s="21"/>
     </row>
-    <row r="519" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
     </row>
-    <row r="521" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F521" s="21"/>
       <c r="G521" s="21"/>
     </row>
-    <row r="522" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F522" s="21"/>
       <c r="G522" s="21"/>
     </row>
-    <row r="523" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F523" s="21"/>
       <c r="G523" s="21"/>
     </row>
-    <row r="524" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F524" s="21"/>
       <c r="G524" s="21"/>
     </row>
-    <row r="525" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F525" s="21"/>
       <c r="G525" s="21"/>
     </row>
-    <row r="526" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F526" s="21"/>
       <c r="G526" s="21"/>
     </row>
-    <row r="527" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
     </row>
-    <row r="528" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F528" s="21"/>
       <c r="G528" s="21"/>
     </row>
-    <row r="529" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F530" s="21"/>
       <c r="G530" s="21"/>
     </row>
-    <row r="531" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F531" s="21"/>
       <c r="G531" s="21"/>
     </row>
-    <row r="532" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F532" s="21"/>
       <c r="G532" s="21"/>
     </row>
-    <row r="533" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F533" s="21"/>
       <c r="G533" s="21"/>
     </row>
-    <row r="534" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F534" s="21"/>
       <c r="G534" s="21"/>
     </row>
-    <row r="535" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F535" s="21"/>
       <c r="G535" s="21"/>
     </row>
-    <row r="536" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F536" s="21"/>
       <c r="G536" s="21"/>
     </row>
-    <row r="537" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F537" s="21"/>
       <c r="G537" s="21"/>
     </row>
-    <row r="538" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F538" s="21"/>
       <c r="G538" s="21"/>
     </row>
-    <row r="539" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F539" s="21"/>
       <c r="G539" s="21"/>
     </row>
-    <row r="540" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F540" s="21"/>
       <c r="G540" s="21"/>
     </row>
-    <row r="541" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F541" s="21"/>
       <c r="G541" s="21"/>
     </row>
-    <row r="542" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F542" s="21"/>
       <c r="G542" s="21"/>
     </row>
-    <row r="543" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F543" s="21"/>
       <c r="G543" s="21"/>
     </row>
-    <row r="544" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
     </row>
-    <row r="545" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
     </row>
-    <row r="548" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F554" s="21"/>
       <c r="G554" s="21"/>
     </row>
-    <row r="555" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F561" s="21"/>
       <c r="G561" s="21"/>
     </row>
-    <row r="562" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F568" s="21"/>
       <c r="G568" s="21"/>
     </row>
-    <row r="569" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F575" s="21"/>
       <c r="G575" s="21"/>
     </row>
-    <row r="576" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F582" s="21"/>
       <c r="G582" s="21"/>
     </row>
-    <row r="583" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F589" s="21"/>
       <c r="G589" s="21"/>
     </row>
-    <row r="590" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F593" s="21"/>
       <c r="G593" s="21"/>
     </row>
-    <row r="594" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F594" s="21"/>
       <c r="G594" s="21"/>
     </row>
-    <row r="595" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F595" s="21"/>
       <c r="G595" s="21"/>
     </row>
-    <row r="596" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F596" s="21"/>
       <c r="G596" s="21"/>
     </row>
-    <row r="597" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F597" s="21"/>
       <c r="G597" s="21"/>
     </row>
-    <row r="598" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F598" s="21"/>
       <c r="G598" s="21"/>
     </row>
-    <row r="599" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F599" s="21"/>
       <c r="G599" s="21"/>
     </row>
-    <row r="600" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F600" s="21"/>
       <c r="G600" s="21"/>
     </row>
-    <row r="601" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F601" s="21"/>
       <c r="G601" s="21"/>
     </row>
-    <row r="602" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F602" s="21"/>
       <c r="G602" s="21"/>
     </row>
-    <row r="603" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F603" s="21"/>
       <c r="G603" s="21"/>
     </row>
-    <row r="604" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F604" s="21"/>
       <c r="G604" s="21"/>
     </row>
-    <row r="605" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F605" s="21"/>
       <c r="G605" s="21"/>
     </row>
-    <row r="606" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F606" s="21"/>
       <c r="G606" s="21"/>
     </row>
-    <row r="607" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F607" s="21"/>
       <c r="G607" s="21"/>
     </row>
-    <row r="608" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F608" s="21"/>
       <c r="G608" s="21"/>
     </row>
-    <row r="609" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F609" s="21"/>
       <c r="G609" s="21"/>
     </row>
-    <row r="610" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F610" s="21"/>
       <c r="G610" s="21"/>
     </row>
-    <row r="611" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F611" s="21"/>
       <c r="G611" s="21"/>
     </row>
-    <row r="612" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F612" s="21"/>
       <c r="G612" s="21"/>
     </row>
-    <row r="613" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F613" s="21"/>
       <c r="G613" s="21"/>
     </row>
-    <row r="614" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F614" s="21"/>
       <c r="G614" s="21"/>
     </row>
-    <row r="615" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F615" s="21"/>
       <c r="G615" s="21"/>
     </row>
-    <row r="616" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F616" s="21"/>
       <c r="G616" s="21"/>
     </row>
-    <row r="617" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F617" s="21"/>
       <c r="G617" s="21"/>
     </row>
-    <row r="618" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F618" s="21"/>
       <c r="G618" s="21"/>
     </row>
-    <row r="619" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F619" s="21"/>
       <c r="G619" s="21"/>
     </row>
-    <row r="620" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F620" s="21"/>
       <c r="G620" s="21"/>
     </row>
-    <row r="621" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F621" s="21"/>
       <c r="G621" s="21"/>
     </row>
-    <row r="622" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F622" s="21"/>
       <c r="G622" s="21"/>
     </row>
-    <row r="623" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F623" s="21"/>
       <c r="G623" s="21"/>
     </row>
-    <row r="624" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F624" s="21"/>
       <c r="G624" s="21"/>
     </row>
-    <row r="625" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F625" s="21"/>
       <c r="G625" s="21"/>
     </row>
-    <row r="626" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F626" s="21"/>
       <c r="G626" s="21"/>
     </row>
-    <row r="627" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F627" s="21"/>
       <c r="G627" s="21"/>
     </row>
-    <row r="628" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F628" s="21"/>
       <c r="G628" s="21"/>
     </row>
-    <row r="629" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F629" s="21"/>
       <c r="G629" s="21"/>
     </row>
-    <row r="630" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F630" s="21"/>
       <c r="G630" s="21"/>
     </row>
-    <row r="631" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F631" s="21"/>
       <c r="G631" s="21"/>
     </row>
-    <row r="632" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F632" s="21"/>
       <c r="G632" s="21"/>
     </row>
-    <row r="633" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F633" s="21"/>
       <c r="G633" s="21"/>
     </row>
-    <row r="634" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F634" s="21"/>
       <c r="G634" s="21"/>
     </row>
-    <row r="635" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F635" s="21"/>
       <c r="G635" s="21"/>
     </row>
-    <row r="636" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F640" s="21"/>
       <c r="G640" s="21"/>
     </row>
-    <row r="641" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F641" s="21"/>
       <c r="G641" s="21"/>
     </row>
-    <row r="642" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F642" s="21"/>
       <c r="G642" s="21"/>
     </row>
-    <row r="643" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F643" s="21"/>
       <c r="G643" s="21"/>
     </row>
-    <row r="644" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F644" s="21"/>
       <c r="G644" s="21"/>
     </row>
-    <row r="645" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F645" s="21"/>
       <c r="G645" s="21"/>
     </row>
-    <row r="646" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F646" s="21"/>
       <c r="G646" s="21"/>
     </row>
-    <row r="647" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F647" s="21"/>
       <c r="G647" s="21"/>
     </row>
-    <row r="648" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F648" s="21"/>
       <c r="G648" s="21"/>
     </row>
-    <row r="649" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F649" s="21"/>
       <c r="G649" s="21"/>
     </row>
-    <row r="650" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F650" s="21"/>
       <c r="G650" s="21"/>
     </row>
-    <row r="651" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F651" s="21"/>
       <c r="G651" s="21"/>
     </row>
-    <row r="652" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F652" s="21"/>
       <c r="G652" s="21"/>
     </row>
-    <row r="653" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F653" s="21"/>
       <c r="G653" s="21"/>
     </row>
-    <row r="654" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F654" s="21"/>
       <c r="G654" s="21"/>
     </row>
-    <row r="655" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F655" s="21"/>
       <c r="G655" s="21"/>
     </row>
-    <row r="656" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F656" s="21"/>
       <c r="G656" s="21"/>
     </row>
-    <row r="657" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F659" s="21"/>
       <c r="G659" s="21"/>
     </row>
-    <row r="660" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F666" s="21"/>
       <c r="G666" s="21"/>
     </row>
-    <row r="667" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F673" s="21"/>
       <c r="G673" s="21"/>
     </row>
-    <row r="674" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F687" s="21"/>
       <c r="G687" s="21"/>
     </row>
-    <row r="688" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F694" s="21"/>
       <c r="G694" s="21"/>
     </row>
-    <row r="695" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F701" s="21"/>
       <c r="G701" s="21"/>
     </row>
-    <row r="702" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F708" s="21"/>
       <c r="G708" s="21"/>
     </row>
-    <row r="709" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F722" s="21"/>
       <c r="G722" s="21"/>
     </row>
-    <row r="723" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F729" s="21"/>
       <c r="G729" s="21"/>
     </row>
-    <row r="730" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F736" s="21"/>
       <c r="G736" s="21"/>
     </row>
-    <row r="737" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F742" s="21"/>
       <c r="G742" s="21"/>
     </row>
-    <row r="743" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F750" s="21"/>
       <c r="G750" s="21"/>
     </row>
-    <row r="751" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F757" s="21"/>
       <c r="G757" s="21"/>
     </row>
-    <row r="758" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F764" s="21"/>
       <c r="G764" s="21"/>
     </row>
-    <row r="765" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F769" s="21"/>
       <c r="G769" s="21"/>
     </row>
-    <row r="770" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F770" s="21"/>
       <c r="G770" s="21"/>
     </row>
-    <row r="771" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F771" s="21"/>
       <c r="G771" s="21"/>
     </row>
-    <row r="772" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F772" s="21"/>
       <c r="G772" s="21"/>
     </row>
-    <row r="773" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F773" s="21"/>
       <c r="G773" s="21"/>
     </row>
-    <row r="774" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F774" s="21"/>
       <c r="G774" s="21"/>
     </row>
-    <row r="775" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F775" s="21"/>
       <c r="G775" s="21"/>
     </row>
-    <row r="776" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F776" s="21"/>
       <c r="G776" s="21"/>
     </row>
-    <row r="777" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F777" s="21"/>
       <c r="G777" s="21"/>
     </row>
-    <row r="778" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F778" s="21"/>
       <c r="G778" s="21"/>
     </row>
-    <row r="779" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F779" s="21"/>
       <c r="G779" s="21"/>
     </row>
-    <row r="780" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F780" s="21"/>
       <c r="G780" s="21"/>
     </row>
-    <row r="781" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F781" s="21"/>
       <c r="G781" s="21"/>
     </row>
-    <row r="782" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F782" s="21"/>
       <c r="G782" s="21"/>
     </row>
-    <row r="783" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F783" s="21"/>
       <c r="G783" s="21"/>
     </row>
-    <row r="784" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F784" s="21"/>
       <c r="G784" s="21"/>
     </row>
-    <row r="785" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F785" s="21"/>
       <c r="G785" s="21"/>
     </row>
-    <row r="786" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F786" s="21"/>
       <c r="G786" s="21"/>
     </row>
-    <row r="787" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F787" s="21"/>
       <c r="G787" s="21"/>
     </row>
-    <row r="788" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F788" s="21"/>
       <c r="G788" s="21"/>
     </row>
-    <row r="789" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F789" s="21"/>
       <c r="G789" s="21"/>
     </row>
-    <row r="790" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F790" s="21"/>
       <c r="G790" s="21"/>
     </row>
-    <row r="791" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F791" s="21"/>
       <c r="G791" s="21"/>
     </row>
-    <row r="792" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F792" s="21"/>
       <c r="G792" s="21"/>
     </row>
-    <row r="793" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F793" s="21"/>
       <c r="G793" s="21"/>
     </row>
-    <row r="794" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F794" s="21"/>
       <c r="G794" s="21"/>
     </row>
-    <row r="795" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F795" s="21"/>
       <c r="G795" s="21"/>
     </row>
-    <row r="796" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F796" s="21"/>
       <c r="G796" s="21"/>
     </row>
-    <row r="797" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F797" s="21"/>
       <c r="G797" s="21"/>
     </row>
-    <row r="798" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F798" s="21"/>
       <c r="G798" s="21"/>
     </row>
-    <row r="799" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F799" s="21"/>
       <c r="G799" s="21"/>
     </row>
-    <row r="800" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F800" s="21"/>
       <c r="G800" s="21"/>
     </row>
-    <row r="801" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F801" s="21"/>
       <c r="G801" s="21"/>
     </row>
-    <row r="802" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F802" s="21"/>
       <c r="G802" s="21"/>
     </row>
-    <row r="803" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F803" s="21"/>
       <c r="G803" s="21"/>
     </row>
-    <row r="804" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F804" s="21"/>
       <c r="G804" s="21"/>
     </row>
-    <row r="805" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F805" s="21"/>
       <c r="G805" s="21"/>
     </row>
-    <row r="806" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F806" s="21"/>
       <c r="G806" s="21"/>
     </row>
-    <row r="807" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F807" s="21"/>
       <c r="G807" s="21"/>
     </row>
-    <row r="808" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F808" s="21"/>
       <c r="G808" s="21"/>
     </row>
-    <row r="809" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F809" s="21"/>
       <c r="G809" s="21"/>
     </row>
-    <row r="810" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F810" s="21"/>
       <c r="G810" s="21"/>
     </row>
-    <row r="811" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F811" s="21"/>
       <c r="G811" s="21"/>
     </row>
-    <row r="812" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F812" s="21"/>
       <c r="G812" s="21"/>
     </row>
-    <row r="813" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F813" s="21"/>
       <c r="G813" s="21"/>
     </row>
-    <row r="814" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F814" s="21"/>
       <c r="G814" s="21"/>
     </row>
-    <row r="815" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F815" s="21"/>
       <c r="G815" s="21"/>
     </row>
-    <row r="816" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F816" s="21"/>
       <c r="G816" s="21"/>
     </row>
-    <row r="817" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F817" s="21"/>
       <c r="G817" s="21"/>
     </row>
-    <row r="818" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F818" s="21"/>
       <c r="G818" s="21"/>
     </row>
-    <row r="819" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F819" s="21"/>
       <c r="G819" s="21"/>
     </row>
-    <row r="820" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F820" s="21"/>
       <c r="G820" s="21"/>
     </row>
-    <row r="821" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F821" s="21"/>
       <c r="G821" s="21"/>
     </row>
-    <row r="822" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F822" s="21"/>
       <c r="G822" s="21"/>
     </row>
-    <row r="823" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F823" s="21"/>
       <c r="G823" s="21"/>
     </row>
-    <row r="824" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F824" s="21"/>
       <c r="G824" s="21"/>
     </row>
-    <row r="825" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F825" s="21"/>
       <c r="G825" s="21"/>
     </row>
-    <row r="826" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F826" s="21"/>
       <c r="G826" s="21"/>
     </row>
-    <row r="827" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F827" s="21"/>
       <c r="G827" s="21"/>
     </row>
-    <row r="828" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F828" s="21"/>
       <c r="G828" s="21"/>
     </row>
-    <row r="829" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F829" s="21"/>
       <c r="G829" s="21"/>
     </row>
-    <row r="830" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F830" s="21"/>
       <c r="G830" s="21"/>
     </row>
-    <row r="831" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F831" s="21"/>
       <c r="G831" s="21"/>
     </row>
-    <row r="832" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F832" s="21"/>
       <c r="G832" s="21"/>
     </row>
-    <row r="833" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F833" s="21"/>
       <c r="G833" s="21"/>
     </row>
-    <row r="834" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F834" s="21"/>
       <c r="G834" s="21"/>
     </row>
-    <row r="835" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F835" s="21"/>
       <c r="G835" s="21"/>
     </row>
-    <row r="836" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F836" s="21"/>
       <c r="G836" s="21"/>
     </row>
-    <row r="837" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F837" s="21"/>
       <c r="G837" s="21"/>
     </row>
-    <row r="838" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F838" s="21"/>
       <c r="G838" s="21"/>
     </row>
-    <row r="839" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F839" s="21"/>
       <c r="G839" s="21"/>
     </row>
-    <row r="840" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F840" s="21"/>
       <c r="G840" s="21"/>
     </row>
-    <row r="841" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F841" s="21"/>
       <c r="G841" s="21"/>
     </row>
-    <row r="842" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F842" s="21"/>
       <c r="G842" s="21"/>
     </row>
-    <row r="843" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F843" s="21"/>
       <c r="G843" s="21"/>
     </row>
-    <row r="844" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F844" s="21"/>
       <c r="G844" s="21"/>
     </row>
-    <row r="845" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F845" s="21"/>
       <c r="G845" s="21"/>
     </row>
-    <row r="846" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
     </row>
-    <row r="847" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F848" s="21"/>
       <c r="G848" s="21"/>
     </row>
-    <row r="849" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F849" s="21"/>
       <c r="G849" s="21"/>
     </row>
-    <row r="850" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F850" s="21"/>
       <c r="G850" s="21"/>
     </row>
-    <row r="851" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F851" s="21"/>
       <c r="G851" s="21"/>
     </row>
-    <row r="852" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F852" s="21"/>
       <c r="G852" s="21"/>
     </row>
-    <row r="853" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F853" s="21"/>
       <c r="G853" s="21"/>
     </row>
-    <row r="854" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
     </row>
-    <row r="855" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
     </row>
-    <row r="856" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F856" s="21"/>
       <c r="G856" s="21"/>
     </row>
-    <row r="857" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F857" s="21"/>
       <c r="G857" s="21"/>
     </row>
-    <row r="858" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F858" s="21"/>
       <c r="G858" s="21"/>
     </row>
-    <row r="859" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F859" s="21"/>
       <c r="G859" s="21"/>
     </row>
-    <row r="860" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F860" s="21"/>
       <c r="G860" s="21"/>
     </row>
-    <row r="861" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F861" s="21"/>
       <c r="G861" s="21"/>
     </row>
-    <row r="862" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F862" s="21"/>
       <c r="G862" s="21"/>
     </row>
-    <row r="863" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F863" s="21"/>
       <c r="G863" s="21"/>
     </row>
-    <row r="864" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F864" s="21"/>
       <c r="G864" s="21"/>
     </row>
-    <row r="865" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F865" s="21"/>
       <c r="G865" s="21"/>
     </row>
-    <row r="866" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F866" s="21"/>
       <c r="G866" s="21"/>
     </row>
-    <row r="867" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F867" s="21"/>
       <c r="G867" s="21"/>
     </row>
-    <row r="868" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F868" s="21"/>
       <c r="G868" s="21"/>
     </row>
-    <row r="869" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F869" s="21"/>
       <c r="G869" s="21"/>
     </row>
-    <row r="870" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F870" s="21"/>
       <c r="G870" s="21"/>
     </row>
-    <row r="871" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F871" s="21"/>
       <c r="G871" s="21"/>
     </row>
-    <row r="872" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F872" s="21"/>
       <c r="G872" s="21"/>
     </row>
-    <row r="873" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F873" s="21"/>
       <c r="G873" s="21"/>
     </row>
-    <row r="874" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F874" s="21"/>
       <c r="G874" s="21"/>
     </row>
-    <row r="875" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F875" s="21"/>
       <c r="G875" s="21"/>
     </row>
-    <row r="876" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F876" s="21"/>
       <c r="G876" s="21"/>
     </row>
-    <row r="877" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F877" s="21"/>
       <c r="G877" s="21"/>
     </row>
-    <row r="878" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F878" s="21"/>
       <c r="G878" s="21"/>
     </row>
-    <row r="879" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F879" s="21"/>
       <c r="G879" s="21"/>
     </row>
-    <row r="880" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F880" s="21"/>
       <c r="G880" s="21"/>
     </row>
-    <row r="881" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F881" s="21"/>
       <c r="G881" s="21"/>
     </row>
-    <row r="882" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F882" s="21"/>
       <c r="G882" s="21"/>
     </row>
-    <row r="883" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F883" s="21"/>
       <c r="G883" s="21"/>
     </row>
-    <row r="884" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F884" s="21"/>
       <c r="G884" s="21"/>
     </row>
-    <row r="885" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F885" s="21"/>
       <c r="G885" s="21"/>
     </row>
-    <row r="886" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F886" s="21"/>
       <c r="G886" s="21"/>
     </row>
-    <row r="887" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F887" s="21"/>
       <c r="G887" s="21"/>
     </row>
-    <row r="888" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F888" s="21"/>
       <c r="G888" s="21"/>
     </row>
-    <row r="889" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F889" s="21"/>
       <c r="G889" s="21"/>
     </row>
-    <row r="890" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F890" s="21"/>
       <c r="G890" s="21"/>
     </row>
-    <row r="891" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F891" s="21"/>
       <c r="G891" s="21"/>
     </row>
-    <row r="892" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F892" s="21"/>
       <c r="G892" s="21"/>
     </row>
-    <row r="893" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F893" s="21"/>
       <c r="G893" s="21"/>
     </row>
-    <row r="894" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F894" s="21"/>
       <c r="G894" s="21"/>
     </row>
-    <row r="895" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F895" s="21"/>
       <c r="G895" s="21"/>
     </row>
-    <row r="896" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F896" s="21"/>
       <c r="G896" s="21"/>
     </row>
-    <row r="897" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F897" s="21"/>
       <c r="G897" s="21"/>
     </row>
-    <row r="898" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F898" s="21"/>
       <c r="G898" s="21"/>
     </row>
-    <row r="899" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F899" s="21"/>
       <c r="G899" s="21"/>
     </row>
-    <row r="900" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F900" s="21"/>
       <c r="G900" s="21"/>
     </row>
-    <row r="901" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F901" s="21"/>
       <c r="G901" s="21"/>
     </row>
-    <row r="902" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F902" s="21"/>
       <c r="G902" s="21"/>
     </row>
-    <row r="903" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F903" s="21"/>
       <c r="G903" s="21"/>
     </row>
-    <row r="904" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F904" s="21"/>
       <c r="G904" s="21"/>
     </row>
-    <row r="905" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F905" s="21"/>
       <c r="G905" s="21"/>
     </row>
-    <row r="906" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F906" s="21"/>
       <c r="G906" s="21"/>
     </row>
-    <row r="907" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F907" s="21"/>
       <c r="G907" s="21"/>
     </row>
-    <row r="908" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F908" s="21"/>
       <c r="G908" s="21"/>
     </row>
-    <row r="909" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F909" s="21"/>
       <c r="G909" s="21"/>
     </row>
-    <row r="910" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F910" s="21"/>
       <c r="G910" s="21"/>
     </row>
-    <row r="911" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F911" s="21"/>
       <c r="G911" s="21"/>
     </row>
-    <row r="912" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F912" s="21"/>
       <c r="G912" s="21"/>
     </row>
-    <row r="913" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F913" s="21"/>
       <c r="G913" s="21"/>
     </row>
-    <row r="914" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F914" s="21"/>
       <c r="G914" s="21"/>
     </row>
-    <row r="915" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F915" s="21"/>
       <c r="G915" s="21"/>
     </row>
-    <row r="916" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F916" s="21"/>
       <c r="G916" s="21"/>
     </row>
-    <row r="917" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F917" s="21"/>
       <c r="G917" s="21"/>
     </row>
-    <row r="918" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F918" s="21"/>
       <c r="G918" s="21"/>
     </row>
-    <row r="919" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F919" s="21"/>
       <c r="G919" s="21"/>
     </row>
-    <row r="920" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F920" s="21"/>
       <c r="G920" s="21"/>
     </row>
-    <row r="921" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F921" s="21"/>
       <c r="G921" s="21"/>
     </row>
-    <row r="922" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F922" s="21"/>
       <c r="G922" s="21"/>
     </row>
-    <row r="923" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F923" s="21"/>
       <c r="G923" s="21"/>
     </row>
-    <row r="924" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F924" s="21"/>
       <c r="G924" s="21"/>
     </row>
-    <row r="925" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F925" s="21"/>
       <c r="G925" s="21"/>
     </row>
-    <row r="926" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F926" s="21"/>
       <c r="G926" s="21"/>
     </row>
-    <row r="927" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F927" s="21"/>
       <c r="G927" s="21"/>
     </row>
-    <row r="928" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F928" s="21"/>
       <c r="G928" s="21"/>
     </row>
-    <row r="929" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F929" s="21"/>
       <c r="G929" s="21"/>
     </row>
-    <row r="930" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F930" s="21"/>
       <c r="G930" s="21"/>
     </row>
-    <row r="931" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F931" s="21"/>
       <c r="G931" s="21"/>
     </row>
-    <row r="932" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F932" s="21"/>
       <c r="G932" s="21"/>
     </row>
-    <row r="933" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F933" s="21"/>
       <c r="G933" s="21"/>
     </row>
-    <row r="934" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F934" s="21"/>
       <c r="G934" s="21"/>
     </row>
-    <row r="935" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F935" s="21"/>
       <c r="G935" s="21"/>
     </row>
-    <row r="936" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F936" s="21"/>
       <c r="G936" s="21"/>
     </row>
-    <row r="937" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F937" s="21"/>
       <c r="G937" s="21"/>
     </row>
-    <row r="938" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F938" s="21"/>
       <c r="G938" s="21"/>
     </row>
-    <row r="939" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F939" s="21"/>
       <c r="G939" s="21"/>
     </row>
-    <row r="940" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F940" s="21"/>
       <c r="G940" s="21"/>
     </row>
-    <row r="941" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F941" s="21"/>
       <c r="G941" s="21"/>
     </row>
-    <row r="942" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F942" s="21"/>
       <c r="G942" s="21"/>
     </row>
-    <row r="943" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F943" s="21"/>
       <c r="G943" s="21"/>
     </row>
-    <row r="944" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F944" s="21"/>
       <c r="G944" s="21"/>
     </row>
-    <row r="945" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F945" s="21"/>
       <c r="G945" s="21"/>
     </row>
-    <row r="946" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F946" s="21"/>
       <c r="G946" s="21"/>
     </row>
-    <row r="947" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F947" s="21"/>
       <c r="G947" s="21"/>
     </row>
-    <row r="948" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F948" s="21"/>
       <c r="G948" s="21"/>
     </row>
-    <row r="949" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F949" s="21"/>
       <c r="G949" s="21"/>
     </row>
-    <row r="950" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F950" s="21"/>
       <c r="G950" s="21"/>
     </row>
-    <row r="951" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F951" s="21"/>
       <c r="G951" s="21"/>
     </row>
-    <row r="952" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F952" s="21"/>
       <c r="G952" s="21"/>
     </row>
-    <row r="953" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F953" s="21"/>
       <c r="G953" s="21"/>
     </row>
-    <row r="954" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F954" s="21"/>
       <c r="G954" s="21"/>
     </row>
-    <row r="955" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F955" s="21"/>
       <c r="G955" s="21"/>
     </row>
-    <row r="956" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F956" s="21"/>
       <c r="G956" s="21"/>
     </row>
-    <row r="957" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F957" s="21"/>
       <c r="G957" s="21"/>
     </row>
-    <row r="958" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F958" s="21"/>
       <c r="G958" s="21"/>
     </row>
-    <row r="959" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F959" s="21"/>
       <c r="G959" s="21"/>
     </row>
-    <row r="960" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F960" s="21"/>
       <c r="G960" s="21"/>
     </row>
-    <row r="961" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F961" s="21"/>
       <c r="G961" s="21"/>
     </row>
-    <row r="962" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F962" s="21"/>
       <c r="G962" s="21"/>
     </row>
-    <row r="963" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F963" s="21"/>
       <c r="G963" s="21"/>
     </row>
-    <row r="964" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F964" s="21"/>
       <c r="G964" s="21"/>
     </row>
-    <row r="965" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F965" s="21"/>
       <c r="G965" s="21"/>
     </row>
-    <row r="966" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F966" s="21"/>
       <c r="G966" s="21"/>
     </row>
-    <row r="967" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F967" s="21"/>
       <c r="G967" s="21"/>
     </row>
-    <row r="968" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F968" s="21"/>
       <c r="G968" s="21"/>
     </row>
-    <row r="969" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F969" s="21"/>
       <c r="G969" s="21"/>
     </row>
-    <row r="970" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F970" s="21"/>
       <c r="G970" s="21"/>
     </row>
-    <row r="971" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F971" s="21"/>
       <c r="G971" s="21"/>
     </row>
-    <row r="972" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F972" s="21"/>
       <c r="G972" s="21"/>
     </row>
-    <row r="973" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F973" s="21"/>
       <c r="G973" s="21"/>
     </row>
-    <row r="974" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F974" s="21"/>
       <c r="G974" s="21"/>
     </row>
-    <row r="975" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F975" s="21"/>
       <c r="G975" s="21"/>
     </row>
-    <row r="976" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F976" s="21"/>
       <c r="G976" s="21"/>
     </row>
-    <row r="977" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F977" s="21"/>
       <c r="G977" s="21"/>
     </row>
-    <row r="978" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F978" s="21"/>
       <c r="G978" s="21"/>
     </row>
-    <row r="979" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F979" s="21"/>
       <c r="G979" s="21"/>
     </row>
-    <row r="980" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F980" s="21"/>
       <c r="G980" s="21"/>
     </row>
-    <row r="981" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F981" s="21"/>
       <c r="G981" s="21"/>
     </row>
-    <row r="982" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F982" s="21"/>
       <c r="G982" s="21"/>
     </row>
-    <row r="983" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F983" s="21"/>
       <c r="G983" s="21"/>
     </row>
-    <row r="984" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F984" s="21"/>
       <c r="G984" s="21"/>
     </row>
-    <row r="985" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F985" s="21"/>
       <c r="G985" s="21"/>
     </row>
-    <row r="986" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F986" s="21"/>
       <c r="G986" s="21"/>
     </row>
-    <row r="987" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F987" s="21"/>
       <c r="G987" s="21"/>
     </row>
-    <row r="988" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F988" s="21"/>
       <c r="G988" s="21"/>
     </row>
-    <row r="989" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F989" s="21"/>
       <c r="G989" s="21"/>
     </row>
-    <row r="990" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F990" s="21"/>
       <c r="G990" s="21"/>
     </row>
-    <row r="991" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F991" s="21"/>
       <c r="G991" s="21"/>
     </row>
-    <row r="992" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F992" s="21"/>
       <c r="G992" s="21"/>
     </row>
-    <row r="993" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F993" s="21"/>
       <c r="G993" s="21"/>
     </row>
-    <row r="994" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F994" s="21"/>
       <c r="G994" s="21"/>
     </row>
-    <row r="995" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F995" s="21"/>
       <c r="G995" s="21"/>
     </row>
-    <row r="996" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F996" s="21"/>
       <c r="G996" s="21"/>
     </row>
-    <row r="997" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F997" s="21"/>
       <c r="G997" s="21"/>
     </row>
-    <row r="998" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F998" s="21"/>
       <c r="G998" s="21"/>
     </row>
-    <row r="999" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F999" s="21"/>
       <c r="G999" s="21"/>
     </row>
-    <row r="1000" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1000" s="21"/>
       <c r="G1000" s="21"/>
     </row>
-    <row r="1001" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1001" s="21"/>
       <c r="G1001" s="21"/>
     </row>
-    <row r="1002" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1002" s="21"/>
       <c r="G1002" s="21"/>
     </row>
-    <row r="1003" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1003" s="21"/>
       <c r="G1003" s="21"/>
     </row>
-    <row r="1004" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1004" s="21"/>
       <c r="G1004" s="21"/>
     </row>
-    <row r="1005" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1005" s="21"/>
       <c r="G1005" s="21"/>
     </row>
-    <row r="1006" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1006" s="21"/>
       <c r="G1006" s="21"/>
     </row>
-    <row r="1007" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1007" s="21"/>
       <c r="G1007" s="21"/>
     </row>
-    <row r="1008" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1008" s="21"/>
       <c r="G1008" s="21"/>
     </row>
-    <row r="1009" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1009" s="21"/>
       <c r="G1009" s="21"/>
     </row>
-    <row r="1010" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
     </row>
-    <row r="1011" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1011" s="21"/>
       <c r="G1011" s="21"/>
     </row>
-    <row r="1012" spans="6:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1012" s="21"/>
       <c r="G1012" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5819,56 +5874,9 @@
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5885,19 +5893,19 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
@@ -5911,7 +5919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -5927,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
@@ -5956,10 +5964,10 @@
       </c>
       <c r="D4" s="25">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5987,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
@@ -6001,7 +6009,7 @@
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA8575-1765-4045-9871-6852706024CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE609C6-2FC4-4156-957E-9C9637352E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -773,26 +773,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,7 +869,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,51 +876,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,8 +1100,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1130,13 +1130,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1151,13 +1151,13 @@
       <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1170,13 +1170,13 @@
       <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1200,13 +1200,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1215,13 +1215,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1230,13 +1230,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1247,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1266,13 +1266,13 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1282,14 +1282,16 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1302,13 +1304,13 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1317,13 +1319,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1332,13 +1334,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1348,14 +1350,16 @@
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1366,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1383,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1400,13 +1404,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
@@ -1416,14 +1420,16 @@
       <c r="D18" s="7">
         <v>0.5</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="44"/>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1432,13 +1438,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1448,14 +1454,16 @@
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="44"/>
+      <c r="E20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
@@ -1464,10 +1472,10 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -1475,11 +1483,11 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1494,13 +1502,13 @@
       <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1513,13 +1521,13 @@
       <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1528,13 +1536,13 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1543,13 +1551,13 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1558,13 +1566,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1573,13 +1581,13 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1590,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
@@ -1607,13 +1615,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -1624,13 +1632,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
@@ -1641,13 +1649,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
@@ -1656,13 +1664,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
@@ -1671,13 +1679,13 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
@@ -1688,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
@@ -1705,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
@@ -1722,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="44"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
@@ -1739,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="44"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
@@ -1756,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1771,13 +1779,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="44"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="5" t="s">
         <v>66</v>
       </c>
@@ -1788,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="44"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="5" t="s">
         <v>67</v>
       </c>
@@ -1803,10 +1811,10 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="44"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
@@ -1814,64 +1822,64 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="64"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="51"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="64"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="64"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="64"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
@@ -1879,67 +1887,67 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="54">
         <v>3</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="47" t="s">
+      <c r="E51" s="57"/>
+      <c r="F51" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="48"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="66"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="33" t="s">
         <v>25</v>
       </c>
@@ -1949,14 +1957,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="42"/>
+      <c r="G56" s="65"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
@@ -1965,15 +1973,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="70">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>14</v>
-      </c>
-      <c r="G57" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="G57" s="71"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="31" t="s">
         <v>24</v>
       </c>
@@ -1984,12 +1992,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -1998,8 +2006,8 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
@@ -5811,6 +5819,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F51:G54"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F1:G1"/>
@@ -5827,56 +5882,9 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F51:G54"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5893,8 +5901,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5932,7 +5940,7 @@
       </c>
       <c r="D2" s="25">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41  + WP!E51</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,7 +5956,7 @@
       </c>
       <c r="D3" s="25">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6017,7 @@
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE609C6-2FC4-4156-957E-9C9637352E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD9DBF-F584-4F49-B9DB-94292C469A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -773,12 +773,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,53 +797,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,6 +830,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,9 +838,47 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,8 +1100,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1130,13 +1130,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1151,13 +1151,13 @@
       <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1170,13 +1170,13 @@
       <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1185,28 +1185,32 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="36"/>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1215,28 +1219,32 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="36"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1247,13 +1255,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1266,13 +1274,13 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1285,13 +1293,13 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1304,43 +1312,47 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1353,13 +1365,13 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1370,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1387,13 +1399,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1404,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
@@ -1423,13 +1435,13 @@
       <c r="E18" s="7">
         <v>0.5</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1438,13 +1450,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1457,13 +1469,13 @@
       <c r="E20" s="7">
         <v>0.5</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
@@ -1472,10 +1484,10 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -1483,11 +1495,11 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1502,13 +1514,13 @@
       <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1521,13 +1533,13 @@
       <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1536,28 +1548,32 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="36"/>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1566,28 +1582,30 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1598,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
@@ -1615,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -1632,13 +1650,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
@@ -1649,43 +1667,47 @@
         <v>3</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
@@ -1696,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
@@ -1713,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
@@ -1730,13 +1752,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
@@ -1747,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
@@ -1764,13 +1786,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1779,13 +1801,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="5" t="s">
         <v>66</v>
       </c>
@@ -1796,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="5" t="s">
         <v>67</v>
       </c>
@@ -1811,10 +1833,10 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
@@ -1822,64 +1844,64 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="51"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="70"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="51"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="70"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="51"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="70"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="51"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="70"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
@@ -1887,67 +1909,67 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="73">
         <v>3</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="66" t="s">
+      <c r="E51" s="76"/>
+      <c r="F51" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="67"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="61"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="33" t="s">
         <v>25</v>
       </c>
@@ -1957,14 +1979,14 @@
       <c r="E56" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="65"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
@@ -1973,15 +1995,15 @@
         <f>(D57/D56)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F57" s="53">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>18</v>
-      </c>
-      <c r="G57" s="71"/>
+        <v>26</v>
+      </c>
+      <c r="G57" s="54"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="31" t="s">
         <v>24</v>
       </c>
@@ -1992,12 +2014,12 @@
         <f>D58/D56</f>
         <v>1</v>
       </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="56"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="32" t="s">
         <v>12</v>
       </c>
@@ -2006,8 +2028,8 @@
         <f>D59/D56</f>
         <v>0</v>
       </c>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="58"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
@@ -5819,6 +5841,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5835,56 +5904,9 @@
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5901,8 +5923,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5993,14 +6015,16 @@
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="25">
+        <v>15</v>
+      </c>
       <c r="C6" s="25">
         <f>WP!D5 + WP!D7 + WP!D12 + WP!D13 + WP!D26 + WP!D28 + WP!D33 + WP!D34</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D6" s="25">
         <f>WP!E5 + WP!E7 + WP!E12 + WP!E13 + WP!E26 + WP!E28 + WP!E33 + WP!E34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6009,15 +6033,15 @@
       </c>
       <c r="B7" s="26">
         <f>B2+B3+B4+B5+B6</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C7" s="26">
         <f>C2+C3+C4+C5+C6</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D7" s="26">
         <f>D2+D3+D4+D5+D6</f>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD9DBF-F584-4F49-B9DB-94292C469A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9C8DF-A0DC-4F35-8932-18D332B5B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,24 +427,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF4285F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -555,17 +561,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -687,11 +682,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,7 +721,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,18 +734,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,56 +772,66 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,9 +846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,21 +865,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,17 +880,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1121,7 @@
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1127,790 +1138,790 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="34">
         <v>3</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="34">
         <v>3</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="34">
         <v>2</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="34">
         <v>1</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.5</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.5</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="43" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="43" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>0.5</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="34">
         <v>0.5</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0.5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="34">
         <v>0.5</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="43" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="34">
         <v>3</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="34">
         <v>3</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>4</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="34">
         <v>4</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="60"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>4</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="60"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>3</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="44"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="60"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="44"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="44"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="44"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="60"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>0.5</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="34"/>
+      <c r="F33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="60"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0.5</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="34"/>
+      <c r="F34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="60"/>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>1</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="43" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="60"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="43" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="43" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="44"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>1</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="43" t="s">
+      <c r="E38" s="34"/>
+      <c r="F38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="44"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="43" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="60"/>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="43" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="44"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="43" t="s">
+      <c r="E41" s="34"/>
+      <c r="F41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="44"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="61"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="43" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="44"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="70"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="70"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="70"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="70"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
@@ -1920,80 +1931,84 @@
       <c r="C51" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="70">
         <v>3</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="49" t="s">
+      <c r="E51" s="73"/>
+      <c r="F51" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="50"/>
+      <c r="G51" s="37"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="52"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="33" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D56" s="30">
+        <f>COUNTIF(F2:F54,"Doing")+COUNTIF(F2:F54,"Done")+COUNTIF(F2:F54,"To do")</f>
         <v>41</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="42"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="30" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="29">
+      <c r="D57" s="27">
+        <f>COUNTIF(F2:F54,"Doing")</f>
+        <v>4</v>
+      </c>
+      <c r="E57" s="26">
         <f>(D57/D56)</f>
-        <v>0</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="F57" s="53">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
@@ -2002,3908 +2017,3861 @@
       <c r="G57" s="54"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="31" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="31">
-        <v>41</v>
-      </c>
-      <c r="E58" s="29">
+      <c r="D58" s="28">
+        <f>COUNTIF(F2:F54,"To do")</f>
+        <v>26</v>
+      </c>
+      <c r="E58" s="26">
         <f>D58/D56</f>
-        <v>1</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="56"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="32" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="29">
+      <c r="D59" s="29">
+        <f>COUNTIF(F2:F54,"Done")</f>
+        <v>11</v>
+      </c>
+      <c r="E59" s="26">
         <f>D59/D56</f>
-        <v>0</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="58"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
     </row>
     <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
     </row>
     <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
     </row>
     <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
     </row>
     <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
     </row>
     <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
     </row>
     <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
     </row>
     <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
     </row>
     <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
     </row>
     <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
     </row>
     <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
     </row>
     <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
     </row>
     <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
     </row>
     <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
     </row>
     <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
     </row>
     <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
     </row>
     <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
     </row>
     <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
     </row>
     <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
     </row>
     <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
     </row>
     <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
     </row>
     <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
     </row>
     <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
     </row>
     <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
     </row>
     <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
     </row>
     <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
     </row>
     <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
     </row>
     <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
     </row>
     <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
     </row>
     <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
     </row>
     <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
     </row>
     <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
     </row>
     <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
     </row>
     <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
     </row>
     <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
     </row>
     <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
     </row>
     <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
     </row>
     <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
     </row>
     <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
     </row>
     <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
     </row>
     <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
     </row>
     <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
     </row>
     <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
     </row>
     <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
     </row>
     <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
     </row>
     <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
     </row>
     <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
     </row>
     <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
     </row>
     <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
     </row>
     <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
     </row>
     <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
     </row>
     <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
     </row>
     <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
     </row>
     <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
     </row>
     <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
     </row>
     <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
     </row>
     <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
     </row>
     <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
     </row>
     <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
     </row>
     <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
     </row>
     <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
     </row>
     <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
     </row>
     <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
     </row>
     <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
     </row>
     <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
     </row>
     <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
     </row>
     <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
     </row>
     <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
     </row>
     <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
     </row>
     <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F195" s="21"/>
-      <c r="G195" s="21"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
     </row>
     <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="18"/>
     </row>
     <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F197" s="21"/>
-      <c r="G197" s="21"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="18"/>
     </row>
     <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="18"/>
     </row>
     <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
     </row>
     <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
     </row>
     <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
     </row>
     <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
     </row>
     <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="18"/>
     </row>
     <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
     </row>
     <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
     </row>
     <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
     </row>
     <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
     </row>
     <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
     </row>
     <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
     </row>
     <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F210" s="21"/>
-      <c r="G210" s="21"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
     </row>
     <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
     </row>
     <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
     </row>
     <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
     </row>
     <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
     </row>
     <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="18"/>
     </row>
     <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="18"/>
     </row>
     <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="18"/>
     </row>
     <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="18"/>
     </row>
     <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="18"/>
     </row>
     <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
     </row>
     <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="18"/>
     </row>
     <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="18"/>
     </row>
     <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F223" s="21"/>
-      <c r="G223" s="21"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="18"/>
     </row>
     <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="18"/>
     </row>
     <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
+      <c r="F225" s="18"/>
+      <c r="G225" s="18"/>
     </row>
     <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
     </row>
     <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="18"/>
     </row>
     <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
     </row>
     <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="18"/>
     </row>
     <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F230" s="21"/>
-      <c r="G230" s="21"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
     </row>
     <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F231" s="21"/>
-      <c r="G231" s="21"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
     </row>
     <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F232" s="21"/>
-      <c r="G232" s="21"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="18"/>
     </row>
     <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F233" s="21"/>
-      <c r="G233" s="21"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
     </row>
     <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18"/>
     </row>
     <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
     </row>
     <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
     </row>
     <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F237" s="21"/>
-      <c r="G237" s="21"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
     </row>
     <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
     </row>
     <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
     </row>
     <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F240" s="21"/>
-      <c r="G240" s="21"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
     </row>
     <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F241" s="21"/>
-      <c r="G241" s="21"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
     </row>
     <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F242" s="21"/>
-      <c r="G242" s="21"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="18"/>
     </row>
     <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F243" s="21"/>
-      <c r="G243" s="21"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="18"/>
     </row>
     <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F244" s="21"/>
-      <c r="G244" s="21"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="18"/>
     </row>
     <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F245" s="21"/>
-      <c r="G245" s="21"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="18"/>
     </row>
     <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F246" s="21"/>
-      <c r="G246" s="21"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="18"/>
     </row>
     <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F247" s="21"/>
-      <c r="G247" s="21"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
     </row>
     <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F248" s="21"/>
-      <c r="G248" s="21"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="18"/>
     </row>
     <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
+      <c r="F249" s="18"/>
+      <c r="G249" s="18"/>
     </row>
     <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
+      <c r="F250" s="18"/>
+      <c r="G250" s="18"/>
     </row>
     <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="18"/>
     </row>
     <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="18"/>
     </row>
     <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
     </row>
     <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
+      <c r="F254" s="18"/>
+      <c r="G254" s="18"/>
     </row>
     <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="18"/>
     </row>
     <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="18"/>
     </row>
     <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
     </row>
     <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F258" s="21"/>
-      <c r="G258" s="21"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
     </row>
     <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F259" s="21"/>
-      <c r="G259" s="21"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="18"/>
     </row>
     <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F260" s="21"/>
-      <c r="G260" s="21"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="18"/>
     </row>
     <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
+      <c r="F261" s="18"/>
+      <c r="G261" s="18"/>
     </row>
     <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
+      <c r="F262" s="18"/>
+      <c r="G262" s="18"/>
     </row>
     <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F263" s="21"/>
-      <c r="G263" s="21"/>
+      <c r="F263" s="18"/>
+      <c r="G263" s="18"/>
     </row>
     <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F264" s="21"/>
-      <c r="G264" s="21"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="18"/>
     </row>
     <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F265" s="21"/>
-      <c r="G265" s="21"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="18"/>
     </row>
     <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F266" s="21"/>
-      <c r="G266" s="21"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="18"/>
     </row>
     <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="18"/>
     </row>
     <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="18"/>
     </row>
     <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
     </row>
     <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="18"/>
     </row>
     <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="18"/>
     </row>
     <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="18"/>
     </row>
     <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F273" s="21"/>
-      <c r="G273" s="21"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="18"/>
     </row>
     <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F274" s="21"/>
-      <c r="G274" s="21"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="18"/>
     </row>
     <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F275" s="21"/>
-      <c r="G275" s="21"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="18"/>
     </row>
     <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F276" s="21"/>
-      <c r="G276" s="21"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="18"/>
     </row>
     <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F277" s="21"/>
-      <c r="G277" s="21"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="18"/>
     </row>
     <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F278" s="21"/>
-      <c r="G278" s="21"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="18"/>
     </row>
     <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F279" s="21"/>
-      <c r="G279" s="21"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="18"/>
     </row>
     <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="18"/>
     </row>
     <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F281" s="21"/>
-      <c r="G281" s="21"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="18"/>
     </row>
     <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F282" s="21"/>
-      <c r="G282" s="21"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="18"/>
     </row>
     <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="18"/>
     </row>
     <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
     </row>
     <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
+      <c r="F285" s="18"/>
+      <c r="G285" s="18"/>
     </row>
     <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="18"/>
     </row>
     <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
+      <c r="F287" s="18"/>
+      <c r="G287" s="18"/>
     </row>
     <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="18"/>
     </row>
     <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="18"/>
     </row>
     <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="18"/>
     </row>
     <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
+      <c r="F291" s="18"/>
+      <c r="G291" s="18"/>
     </row>
     <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="18"/>
     </row>
     <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="18"/>
     </row>
     <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F294" s="21"/>
-      <c r="G294" s="21"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="18"/>
     </row>
     <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F295" s="21"/>
-      <c r="G295" s="21"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
     </row>
     <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F296" s="21"/>
-      <c r="G296" s="21"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="18"/>
     </row>
     <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="18"/>
     </row>
     <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F298" s="21"/>
-      <c r="G298" s="21"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="18"/>
     </row>
     <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F299" s="21"/>
-      <c r="G299" s="21"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="18"/>
     </row>
     <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F300" s="21"/>
-      <c r="G300" s="21"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
     </row>
     <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F301" s="21"/>
-      <c r="G301" s="21"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
     </row>
     <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F302" s="21"/>
-      <c r="G302" s="21"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="18"/>
     </row>
     <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F303" s="21"/>
-      <c r="G303" s="21"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="18"/>
     </row>
     <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F304" s="21"/>
-      <c r="G304" s="21"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="18"/>
     </row>
     <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F305" s="21"/>
-      <c r="G305" s="21"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="18"/>
     </row>
     <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F306" s="21"/>
-      <c r="G306" s="21"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="18"/>
     </row>
     <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F307" s="21"/>
-      <c r="G307" s="21"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="18"/>
     </row>
     <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F308" s="21"/>
-      <c r="G308" s="21"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
     </row>
     <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F309" s="21"/>
-      <c r="G309" s="21"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
     </row>
     <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F310" s="21"/>
-      <c r="G310" s="21"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
     </row>
     <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F311" s="21"/>
-      <c r="G311" s="21"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="18"/>
     </row>
     <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F312" s="21"/>
-      <c r="G312" s="21"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18"/>
     </row>
     <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F313" s="21"/>
-      <c r="G313" s="21"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18"/>
     </row>
     <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F314" s="21"/>
-      <c r="G314" s="21"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
     </row>
     <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F315" s="21"/>
-      <c r="G315" s="21"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18"/>
     </row>
     <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F316" s="21"/>
-      <c r="G316" s="21"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18"/>
     </row>
     <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F317" s="21"/>
-      <c r="G317" s="21"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18"/>
     </row>
     <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F318" s="21"/>
-      <c r="G318" s="21"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="18"/>
     </row>
     <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F319" s="21"/>
-      <c r="G319" s="21"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18"/>
     </row>
     <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F320" s="21"/>
-      <c r="G320" s="21"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
     </row>
     <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F321" s="21"/>
-      <c r="G321" s="21"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
     </row>
     <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F322" s="21"/>
-      <c r="G322" s="21"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="18"/>
     </row>
     <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F323" s="21"/>
-      <c r="G323" s="21"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="18"/>
     </row>
     <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F324" s="21"/>
-      <c r="G324" s="21"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="18"/>
     </row>
     <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F325" s="21"/>
-      <c r="G325" s="21"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="18"/>
     </row>
     <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F326" s="21"/>
-      <c r="G326" s="21"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="18"/>
     </row>
     <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F327" s="21"/>
-      <c r="G327" s="21"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18"/>
     </row>
     <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F328" s="21"/>
-      <c r="G328" s="21"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="18"/>
     </row>
     <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F329" s="21"/>
-      <c r="G329" s="21"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="18"/>
     </row>
     <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="18"/>
     </row>
     <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F331" s="21"/>
-      <c r="G331" s="21"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="18"/>
     </row>
     <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F332" s="21"/>
-      <c r="G332" s="21"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="18"/>
     </row>
     <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F333" s="21"/>
-      <c r="G333" s="21"/>
+      <c r="F333" s="18"/>
+      <c r="G333" s="18"/>
     </row>
     <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F334" s="21"/>
-      <c r="G334" s="21"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="18"/>
     </row>
     <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F335" s="21"/>
-      <c r="G335" s="21"/>
+      <c r="F335" s="18"/>
+      <c r="G335" s="18"/>
     </row>
     <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F336" s="21"/>
-      <c r="G336" s="21"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="18"/>
     </row>
     <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F337" s="21"/>
-      <c r="G337" s="21"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="18"/>
     </row>
     <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F338" s="21"/>
-      <c r="G338" s="21"/>
+      <c r="F338" s="18"/>
+      <c r="G338" s="18"/>
     </row>
     <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F339" s="21"/>
-      <c r="G339" s="21"/>
+      <c r="F339" s="18"/>
+      <c r="G339" s="18"/>
     </row>
     <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F340" s="21"/>
-      <c r="G340" s="21"/>
+      <c r="F340" s="18"/>
+      <c r="G340" s="18"/>
     </row>
     <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F341" s="21"/>
-      <c r="G341" s="21"/>
+      <c r="F341" s="18"/>
+      <c r="G341" s="18"/>
     </row>
     <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F342" s="21"/>
-      <c r="G342" s="21"/>
+      <c r="F342" s="18"/>
+      <c r="G342" s="18"/>
     </row>
     <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F343" s="21"/>
-      <c r="G343" s="21"/>
+      <c r="F343" s="18"/>
+      <c r="G343" s="18"/>
     </row>
     <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F344" s="21"/>
-      <c r="G344" s="21"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="18"/>
     </row>
     <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F345" s="21"/>
-      <c r="G345" s="21"/>
+      <c r="F345" s="18"/>
+      <c r="G345" s="18"/>
     </row>
     <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F346" s="21"/>
-      <c r="G346" s="21"/>
+      <c r="F346" s="18"/>
+      <c r="G346" s="18"/>
     </row>
     <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F347" s="21"/>
-      <c r="G347" s="21"/>
+      <c r="F347" s="18"/>
+      <c r="G347" s="18"/>
     </row>
     <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F348" s="21"/>
-      <c r="G348" s="21"/>
+      <c r="F348" s="18"/>
+      <c r="G348" s="18"/>
     </row>
     <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F349" s="21"/>
-      <c r="G349" s="21"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="18"/>
     </row>
     <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F350" s="21"/>
-      <c r="G350" s="21"/>
+      <c r="F350" s="18"/>
+      <c r="G350" s="18"/>
     </row>
     <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F351" s="21"/>
-      <c r="G351" s="21"/>
+      <c r="F351" s="18"/>
+      <c r="G351" s="18"/>
     </row>
     <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F352" s="21"/>
-      <c r="G352" s="21"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="18"/>
     </row>
     <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F353" s="21"/>
-      <c r="G353" s="21"/>
+      <c r="F353" s="18"/>
+      <c r="G353" s="18"/>
     </row>
     <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F354" s="21"/>
-      <c r="G354" s="21"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="18"/>
     </row>
     <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F355" s="21"/>
-      <c r="G355" s="21"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="18"/>
     </row>
     <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F356" s="21"/>
-      <c r="G356" s="21"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="18"/>
     </row>
     <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F357" s="21"/>
-      <c r="G357" s="21"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="18"/>
     </row>
     <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F358" s="21"/>
-      <c r="G358" s="21"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="18"/>
     </row>
     <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F359" s="21"/>
-      <c r="G359" s="21"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="18"/>
     </row>
     <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F360" s="21"/>
-      <c r="G360" s="21"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="18"/>
     </row>
     <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F361" s="21"/>
-      <c r="G361" s="21"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="18"/>
     </row>
     <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F362" s="21"/>
-      <c r="G362" s="21"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="18"/>
     </row>
     <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F363" s="21"/>
-      <c r="G363" s="21"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="18"/>
     </row>
     <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F364" s="21"/>
-      <c r="G364" s="21"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="18"/>
     </row>
     <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F365" s="21"/>
-      <c r="G365" s="21"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="18"/>
     </row>
     <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F366" s="21"/>
-      <c r="G366" s="21"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="18"/>
     </row>
     <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F367" s="21"/>
-      <c r="G367" s="21"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="18"/>
     </row>
     <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F368" s="21"/>
-      <c r="G368" s="21"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="18"/>
     </row>
     <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F369" s="21"/>
-      <c r="G369" s="21"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="18"/>
     </row>
     <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F370" s="21"/>
-      <c r="G370" s="21"/>
+      <c r="F370" s="18"/>
+      <c r="G370" s="18"/>
     </row>
     <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F371" s="21"/>
-      <c r="G371" s="21"/>
+      <c r="F371" s="18"/>
+      <c r="G371" s="18"/>
     </row>
     <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F372" s="21"/>
-      <c r="G372" s="21"/>
+      <c r="F372" s="18"/>
+      <c r="G372" s="18"/>
     </row>
     <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F373" s="21"/>
-      <c r="G373" s="21"/>
+      <c r="F373" s="18"/>
+      <c r="G373" s="18"/>
     </row>
     <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F374" s="21"/>
-      <c r="G374" s="21"/>
+      <c r="F374" s="18"/>
+      <c r="G374" s="18"/>
     </row>
     <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F375" s="21"/>
-      <c r="G375" s="21"/>
+      <c r="F375" s="18"/>
+      <c r="G375" s="18"/>
     </row>
     <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F376" s="21"/>
-      <c r="G376" s="21"/>
+      <c r="F376" s="18"/>
+      <c r="G376" s="18"/>
     </row>
     <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F377" s="21"/>
-      <c r="G377" s="21"/>
+      <c r="F377" s="18"/>
+      <c r="G377" s="18"/>
     </row>
     <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F378" s="21"/>
-      <c r="G378" s="21"/>
+      <c r="F378" s="18"/>
+      <c r="G378" s="18"/>
     </row>
     <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F379" s="21"/>
-      <c r="G379" s="21"/>
+      <c r="F379" s="18"/>
+      <c r="G379" s="18"/>
     </row>
     <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F380" s="21"/>
-      <c r="G380" s="21"/>
+      <c r="F380" s="18"/>
+      <c r="G380" s="18"/>
     </row>
     <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F381" s="21"/>
-      <c r="G381" s="21"/>
+      <c r="F381" s="18"/>
+      <c r="G381" s="18"/>
     </row>
     <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F382" s="21"/>
-      <c r="G382" s="21"/>
+      <c r="F382" s="18"/>
+      <c r="G382" s="18"/>
     </row>
     <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F383" s="21"/>
-      <c r="G383" s="21"/>
+      <c r="F383" s="18"/>
+      <c r="G383" s="18"/>
     </row>
     <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F384" s="21"/>
-      <c r="G384" s="21"/>
+      <c r="F384" s="18"/>
+      <c r="G384" s="18"/>
     </row>
     <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F385" s="21"/>
-      <c r="G385" s="21"/>
+      <c r="F385" s="18"/>
+      <c r="G385" s="18"/>
     </row>
     <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F386" s="21"/>
-      <c r="G386" s="21"/>
+      <c r="F386" s="18"/>
+      <c r="G386" s="18"/>
     </row>
     <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F387" s="21"/>
-      <c r="G387" s="21"/>
+      <c r="F387" s="18"/>
+      <c r="G387" s="18"/>
     </row>
     <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F388" s="21"/>
-      <c r="G388" s="21"/>
+      <c r="F388" s="18"/>
+      <c r="G388" s="18"/>
     </row>
     <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F389" s="21"/>
-      <c r="G389" s="21"/>
+      <c r="F389" s="18"/>
+      <c r="G389" s="18"/>
     </row>
     <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F390" s="21"/>
-      <c r="G390" s="21"/>
+      <c r="F390" s="18"/>
+      <c r="G390" s="18"/>
     </row>
     <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F391" s="21"/>
-      <c r="G391" s="21"/>
+      <c r="F391" s="18"/>
+      <c r="G391" s="18"/>
     </row>
     <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F392" s="21"/>
-      <c r="G392" s="21"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="18"/>
     </row>
     <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F393" s="21"/>
-      <c r="G393" s="21"/>
+      <c r="F393" s="18"/>
+      <c r="G393" s="18"/>
     </row>
     <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F394" s="21"/>
-      <c r="G394" s="21"/>
+      <c r="F394" s="18"/>
+      <c r="G394" s="18"/>
     </row>
     <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F395" s="21"/>
-      <c r="G395" s="21"/>
+      <c r="F395" s="18"/>
+      <c r="G395" s="18"/>
     </row>
     <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F396" s="21"/>
-      <c r="G396" s="21"/>
+      <c r="F396" s="18"/>
+      <c r="G396" s="18"/>
     </row>
     <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F397" s="21"/>
-      <c r="G397" s="21"/>
+      <c r="F397" s="18"/>
+      <c r="G397" s="18"/>
     </row>
     <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F398" s="21"/>
-      <c r="G398" s="21"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="18"/>
     </row>
     <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F399" s="21"/>
-      <c r="G399" s="21"/>
+      <c r="F399" s="18"/>
+      <c r="G399" s="18"/>
     </row>
     <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F400" s="21"/>
-      <c r="G400" s="21"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
     </row>
     <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F401" s="21"/>
-      <c r="G401" s="21"/>
+      <c r="F401" s="18"/>
+      <c r="G401" s="18"/>
     </row>
     <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F402" s="21"/>
-      <c r="G402" s="21"/>
+      <c r="F402" s="18"/>
+      <c r="G402" s="18"/>
     </row>
     <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F403" s="21"/>
-      <c r="G403" s="21"/>
+      <c r="F403" s="18"/>
+      <c r="G403" s="18"/>
     </row>
     <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F404" s="21"/>
-      <c r="G404" s="21"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="18"/>
     </row>
     <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F405" s="21"/>
-      <c r="G405" s="21"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="18"/>
     </row>
     <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F406" s="21"/>
-      <c r="G406" s="21"/>
+      <c r="F406" s="18"/>
+      <c r="G406" s="18"/>
     </row>
     <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F407" s="21"/>
-      <c r="G407" s="21"/>
+      <c r="F407" s="18"/>
+      <c r="G407" s="18"/>
     </row>
     <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F408" s="21"/>
-      <c r="G408" s="21"/>
+      <c r="F408" s="18"/>
+      <c r="G408" s="18"/>
     </row>
     <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F409" s="21"/>
-      <c r="G409" s="21"/>
+      <c r="F409" s="18"/>
+      <c r="G409" s="18"/>
     </row>
     <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F410" s="21"/>
-      <c r="G410" s="21"/>
+      <c r="F410" s="18"/>
+      <c r="G410" s="18"/>
     </row>
     <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F411" s="21"/>
-      <c r="G411" s="21"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="18"/>
     </row>
     <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F412" s="21"/>
-      <c r="G412" s="21"/>
+      <c r="F412" s="18"/>
+      <c r="G412" s="18"/>
     </row>
     <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F413" s="21"/>
-      <c r="G413" s="21"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="18"/>
     </row>
     <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F414" s="21"/>
-      <c r="G414" s="21"/>
+      <c r="F414" s="18"/>
+      <c r="G414" s="18"/>
     </row>
     <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F415" s="21"/>
-      <c r="G415" s="21"/>
+      <c r="F415" s="18"/>
+      <c r="G415" s="18"/>
     </row>
     <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F416" s="21"/>
-      <c r="G416" s="21"/>
+      <c r="F416" s="18"/>
+      <c r="G416" s="18"/>
     </row>
     <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F417" s="21"/>
-      <c r="G417" s="21"/>
+      <c r="F417" s="18"/>
+      <c r="G417" s="18"/>
     </row>
     <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F418" s="21"/>
-      <c r="G418" s="21"/>
+      <c r="F418" s="18"/>
+      <c r="G418" s="18"/>
     </row>
     <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F419" s="21"/>
-      <c r="G419" s="21"/>
+      <c r="F419" s="18"/>
+      <c r="G419" s="18"/>
     </row>
     <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F420" s="21"/>
-      <c r="G420" s="21"/>
+      <c r="F420" s="18"/>
+      <c r="G420" s="18"/>
     </row>
     <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F421" s="21"/>
-      <c r="G421" s="21"/>
+      <c r="F421" s="18"/>
+      <c r="G421" s="18"/>
     </row>
     <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F422" s="21"/>
-      <c r="G422" s="21"/>
+      <c r="F422" s="18"/>
+      <c r="G422" s="18"/>
     </row>
     <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F423" s="21"/>
-      <c r="G423" s="21"/>
+      <c r="F423" s="18"/>
+      <c r="G423" s="18"/>
     </row>
     <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F424" s="21"/>
-      <c r="G424" s="21"/>
+      <c r="F424" s="18"/>
+      <c r="G424" s="18"/>
     </row>
     <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F425" s="21"/>
-      <c r="G425" s="21"/>
+      <c r="F425" s="18"/>
+      <c r="G425" s="18"/>
     </row>
     <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F426" s="21"/>
-      <c r="G426" s="21"/>
+      <c r="F426" s="18"/>
+      <c r="G426" s="18"/>
     </row>
     <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F427" s="21"/>
-      <c r="G427" s="21"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
     </row>
     <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F428" s="21"/>
-      <c r="G428" s="21"/>
+      <c r="F428" s="18"/>
+      <c r="G428" s="18"/>
     </row>
     <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F429" s="21"/>
-      <c r="G429" s="21"/>
+      <c r="F429" s="18"/>
+      <c r="G429" s="18"/>
     </row>
     <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F430" s="21"/>
-      <c r="G430" s="21"/>
+      <c r="F430" s="18"/>
+      <c r="G430" s="18"/>
     </row>
     <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F431" s="21"/>
-      <c r="G431" s="21"/>
+      <c r="F431" s="18"/>
+      <c r="G431" s="18"/>
     </row>
     <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F432" s="21"/>
-      <c r="G432" s="21"/>
+      <c r="F432" s="18"/>
+      <c r="G432" s="18"/>
     </row>
     <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F433" s="21"/>
-      <c r="G433" s="21"/>
+      <c r="F433" s="18"/>
+      <c r="G433" s="18"/>
     </row>
     <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F434" s="21"/>
-      <c r="G434" s="21"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="18"/>
     </row>
     <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F435" s="21"/>
-      <c r="G435" s="21"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
     </row>
     <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F436" s="21"/>
-      <c r="G436" s="21"/>
+      <c r="F436" s="18"/>
+      <c r="G436" s="18"/>
     </row>
     <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F437" s="21"/>
-      <c r="G437" s="21"/>
+      <c r="F437" s="18"/>
+      <c r="G437" s="18"/>
     </row>
     <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F438" s="21"/>
-      <c r="G438" s="21"/>
+      <c r="F438" s="18"/>
+      <c r="G438" s="18"/>
     </row>
     <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F439" s="21"/>
-      <c r="G439" s="21"/>
+      <c r="F439" s="18"/>
+      <c r="G439" s="18"/>
     </row>
     <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F440" s="21"/>
-      <c r="G440" s="21"/>
+      <c r="F440" s="18"/>
+      <c r="G440" s="18"/>
     </row>
     <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F441" s="21"/>
-      <c r="G441" s="21"/>
+      <c r="F441" s="18"/>
+      <c r="G441" s="18"/>
     </row>
     <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F442" s="21"/>
-      <c r="G442" s="21"/>
+      <c r="F442" s="18"/>
+      <c r="G442" s="18"/>
     </row>
     <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F443" s="21"/>
-      <c r="G443" s="21"/>
+      <c r="F443" s="18"/>
+      <c r="G443" s="18"/>
     </row>
     <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F444" s="21"/>
-      <c r="G444" s="21"/>
+      <c r="F444" s="18"/>
+      <c r="G444" s="18"/>
     </row>
     <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F445" s="21"/>
-      <c r="G445" s="21"/>
+      <c r="F445" s="18"/>
+      <c r="G445" s="18"/>
     </row>
     <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F446" s="21"/>
-      <c r="G446" s="21"/>
+      <c r="F446" s="18"/>
+      <c r="G446" s="18"/>
     </row>
     <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F447" s="21"/>
-      <c r="G447" s="21"/>
+      <c r="F447" s="18"/>
+      <c r="G447" s="18"/>
     </row>
     <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F448" s="21"/>
-      <c r="G448" s="21"/>
+      <c r="F448" s="18"/>
+      <c r="G448" s="18"/>
     </row>
     <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F449" s="21"/>
-      <c r="G449" s="21"/>
+      <c r="F449" s="18"/>
+      <c r="G449" s="18"/>
     </row>
     <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F450" s="21"/>
-      <c r="G450" s="21"/>
+      <c r="F450" s="18"/>
+      <c r="G450" s="18"/>
     </row>
     <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F451" s="21"/>
-      <c r="G451" s="21"/>
+      <c r="F451" s="18"/>
+      <c r="G451" s="18"/>
     </row>
     <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F452" s="21"/>
-      <c r="G452" s="21"/>
+      <c r="F452" s="18"/>
+      <c r="G452" s="18"/>
     </row>
     <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F453" s="21"/>
-      <c r="G453" s="21"/>
+      <c r="F453" s="18"/>
+      <c r="G453" s="18"/>
     </row>
     <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F454" s="21"/>
-      <c r="G454" s="21"/>
+      <c r="F454" s="18"/>
+      <c r="G454" s="18"/>
     </row>
     <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F455" s="21"/>
-      <c r="G455" s="21"/>
+      <c r="F455" s="18"/>
+      <c r="G455" s="18"/>
     </row>
     <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F456" s="21"/>
-      <c r="G456" s="21"/>
+      <c r="F456" s="18"/>
+      <c r="G456" s="18"/>
     </row>
     <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F457" s="21"/>
-      <c r="G457" s="21"/>
+      <c r="F457" s="18"/>
+      <c r="G457" s="18"/>
     </row>
     <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F458" s="21"/>
-      <c r="G458" s="21"/>
+      <c r="F458" s="18"/>
+      <c r="G458" s="18"/>
     </row>
     <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F459" s="21"/>
-      <c r="G459" s="21"/>
+      <c r="F459" s="18"/>
+      <c r="G459" s="18"/>
     </row>
     <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F460" s="21"/>
-      <c r="G460" s="21"/>
+      <c r="F460" s="18"/>
+      <c r="G460" s="18"/>
     </row>
     <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F461" s="21"/>
-      <c r="G461" s="21"/>
+      <c r="F461" s="18"/>
+      <c r="G461" s="18"/>
     </row>
     <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F462" s="21"/>
-      <c r="G462" s="21"/>
+      <c r="F462" s="18"/>
+      <c r="G462" s="18"/>
     </row>
     <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F463" s="21"/>
-      <c r="G463" s="21"/>
+      <c r="F463" s="18"/>
+      <c r="G463" s="18"/>
     </row>
     <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F464" s="21"/>
-      <c r="G464" s="21"/>
+      <c r="F464" s="18"/>
+      <c r="G464" s="18"/>
     </row>
     <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F465" s="21"/>
-      <c r="G465" s="21"/>
+      <c r="F465" s="18"/>
+      <c r="G465" s="18"/>
     </row>
     <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F466" s="21"/>
-      <c r="G466" s="21"/>
+      <c r="F466" s="18"/>
+      <c r="G466" s="18"/>
     </row>
     <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F467" s="21"/>
-      <c r="G467" s="21"/>
+      <c r="F467" s="18"/>
+      <c r="G467" s="18"/>
     </row>
     <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F468" s="21"/>
-      <c r="G468" s="21"/>
+      <c r="F468" s="18"/>
+      <c r="G468" s="18"/>
     </row>
     <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F469" s="21"/>
-      <c r="G469" s="21"/>
+      <c r="F469" s="18"/>
+      <c r="G469" s="18"/>
     </row>
     <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F470" s="21"/>
-      <c r="G470" s="21"/>
+      <c r="F470" s="18"/>
+      <c r="G470" s="18"/>
     </row>
     <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F471" s="21"/>
-      <c r="G471" s="21"/>
+      <c r="F471" s="18"/>
+      <c r="G471" s="18"/>
     </row>
     <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F472" s="21"/>
-      <c r="G472" s="21"/>
+      <c r="F472" s="18"/>
+      <c r="G472" s="18"/>
     </row>
     <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F473" s="21"/>
-      <c r="G473" s="21"/>
+      <c r="F473" s="18"/>
+      <c r="G473" s="18"/>
     </row>
     <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F474" s="21"/>
-      <c r="G474" s="21"/>
+      <c r="F474" s="18"/>
+      <c r="G474" s="18"/>
     </row>
     <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F475" s="21"/>
-      <c r="G475" s="21"/>
+      <c r="F475" s="18"/>
+      <c r="G475" s="18"/>
     </row>
     <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F476" s="21"/>
-      <c r="G476" s="21"/>
+      <c r="F476" s="18"/>
+      <c r="G476" s="18"/>
     </row>
     <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F477" s="21"/>
-      <c r="G477" s="21"/>
+      <c r="F477" s="18"/>
+      <c r="G477" s="18"/>
     </row>
     <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F478" s="21"/>
-      <c r="G478" s="21"/>
+      <c r="F478" s="18"/>
+      <c r="G478" s="18"/>
     </row>
     <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F479" s="21"/>
-      <c r="G479" s="21"/>
+      <c r="F479" s="18"/>
+      <c r="G479" s="18"/>
     </row>
     <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F480" s="21"/>
-      <c r="G480" s="21"/>
+      <c r="F480" s="18"/>
+      <c r="G480" s="18"/>
     </row>
     <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F481" s="21"/>
-      <c r="G481" s="21"/>
+      <c r="F481" s="18"/>
+      <c r="G481" s="18"/>
     </row>
     <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F482" s="21"/>
-      <c r="G482" s="21"/>
+      <c r="F482" s="18"/>
+      <c r="G482" s="18"/>
     </row>
     <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F483" s="21"/>
-      <c r="G483" s="21"/>
+      <c r="F483" s="18"/>
+      <c r="G483" s="18"/>
     </row>
     <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F484" s="21"/>
-      <c r="G484" s="21"/>
+      <c r="F484" s="18"/>
+      <c r="G484" s="18"/>
     </row>
     <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F485" s="21"/>
-      <c r="G485" s="21"/>
+      <c r="F485" s="18"/>
+      <c r="G485" s="18"/>
     </row>
     <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F486" s="21"/>
-      <c r="G486" s="21"/>
+      <c r="F486" s="18"/>
+      <c r="G486" s="18"/>
     </row>
     <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F487" s="21"/>
-      <c r="G487" s="21"/>
+      <c r="F487" s="18"/>
+      <c r="G487" s="18"/>
     </row>
     <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F488" s="21"/>
-      <c r="G488" s="21"/>
+      <c r="F488" s="18"/>
+      <c r="G488" s="18"/>
     </row>
     <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F489" s="21"/>
-      <c r="G489" s="21"/>
+      <c r="F489" s="18"/>
+      <c r="G489" s="18"/>
     </row>
     <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F490" s="21"/>
-      <c r="G490" s="21"/>
+      <c r="F490" s="18"/>
+      <c r="G490" s="18"/>
     </row>
     <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F491" s="21"/>
-      <c r="G491" s="21"/>
+      <c r="F491" s="18"/>
+      <c r="G491" s="18"/>
     </row>
     <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F492" s="21"/>
-      <c r="G492" s="21"/>
+      <c r="F492" s="18"/>
+      <c r="G492" s="18"/>
     </row>
     <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F493" s="21"/>
-      <c r="G493" s="21"/>
+      <c r="F493" s="18"/>
+      <c r="G493" s="18"/>
     </row>
     <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F494" s="21"/>
-      <c r="G494" s="21"/>
+      <c r="F494" s="18"/>
+      <c r="G494" s="18"/>
     </row>
     <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F495" s="21"/>
-      <c r="G495" s="21"/>
+      <c r="F495" s="18"/>
+      <c r="G495" s="18"/>
     </row>
     <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F496" s="21"/>
-      <c r="G496" s="21"/>
+      <c r="F496" s="18"/>
+      <c r="G496" s="18"/>
     </row>
     <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F497" s="21"/>
-      <c r="G497" s="21"/>
+      <c r="F497" s="18"/>
+      <c r="G497" s="18"/>
     </row>
     <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F498" s="21"/>
-      <c r="G498" s="21"/>
+      <c r="F498" s="18"/>
+      <c r="G498" s="18"/>
     </row>
     <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F499" s="21"/>
-      <c r="G499" s="21"/>
+      <c r="F499" s="18"/>
+      <c r="G499" s="18"/>
     </row>
     <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F500" s="21"/>
-      <c r="G500" s="21"/>
+      <c r="F500" s="18"/>
+      <c r="G500" s="18"/>
     </row>
     <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F501" s="21"/>
-      <c r="G501" s="21"/>
+      <c r="F501" s="18"/>
+      <c r="G501" s="18"/>
     </row>
     <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F502" s="21"/>
-      <c r="G502" s="21"/>
+      <c r="F502" s="18"/>
+      <c r="G502" s="18"/>
     </row>
     <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F503" s="21"/>
-      <c r="G503" s="21"/>
+      <c r="F503" s="18"/>
+      <c r="G503" s="18"/>
     </row>
     <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F504" s="21"/>
-      <c r="G504" s="21"/>
+      <c r="F504" s="18"/>
+      <c r="G504" s="18"/>
     </row>
     <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F505" s="21"/>
-      <c r="G505" s="21"/>
+      <c r="F505" s="18"/>
+      <c r="G505" s="18"/>
     </row>
     <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F506" s="21"/>
-      <c r="G506" s="21"/>
+      <c r="F506" s="18"/>
+      <c r="G506" s="18"/>
     </row>
     <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F507" s="21"/>
-      <c r="G507" s="21"/>
+      <c r="F507" s="18"/>
+      <c r="G507" s="18"/>
     </row>
     <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F508" s="21"/>
-      <c r="G508" s="21"/>
+      <c r="F508" s="18"/>
+      <c r="G508" s="18"/>
     </row>
     <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F509" s="21"/>
-      <c r="G509" s="21"/>
+      <c r="F509" s="18"/>
+      <c r="G509" s="18"/>
     </row>
     <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F510" s="21"/>
-      <c r="G510" s="21"/>
+      <c r="F510" s="18"/>
+      <c r="G510" s="18"/>
     </row>
     <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F511" s="21"/>
-      <c r="G511" s="21"/>
+      <c r="F511" s="18"/>
+      <c r="G511" s="18"/>
     </row>
     <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F512" s="21"/>
-      <c r="G512" s="21"/>
+      <c r="F512" s="18"/>
+      <c r="G512" s="18"/>
     </row>
     <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F513" s="21"/>
-      <c r="G513" s="21"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="18"/>
     </row>
     <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F514" s="21"/>
-      <c r="G514" s="21"/>
+      <c r="F514" s="18"/>
+      <c r="G514" s="18"/>
     </row>
     <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F515" s="21"/>
-      <c r="G515" s="21"/>
+      <c r="F515" s="18"/>
+      <c r="G515" s="18"/>
     </row>
     <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F516" s="21"/>
-      <c r="G516" s="21"/>
+      <c r="F516" s="18"/>
+      <c r="G516" s="18"/>
     </row>
     <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F517" s="21"/>
-      <c r="G517" s="21"/>
+      <c r="F517" s="18"/>
+      <c r="G517" s="18"/>
     </row>
     <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F518" s="21"/>
-      <c r="G518" s="21"/>
+      <c r="F518" s="18"/>
+      <c r="G518" s="18"/>
     </row>
     <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F519" s="21"/>
-      <c r="G519" s="21"/>
+      <c r="F519" s="18"/>
+      <c r="G519" s="18"/>
     </row>
     <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F520" s="21"/>
-      <c r="G520" s="21"/>
+      <c r="F520" s="18"/>
+      <c r="G520" s="18"/>
     </row>
     <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F521" s="21"/>
-      <c r="G521" s="21"/>
+      <c r="F521" s="18"/>
+      <c r="G521" s="18"/>
     </row>
     <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F522" s="21"/>
-      <c r="G522" s="21"/>
+      <c r="F522" s="18"/>
+      <c r="G522" s="18"/>
     </row>
     <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F523" s="21"/>
-      <c r="G523" s="21"/>
+      <c r="F523" s="18"/>
+      <c r="G523" s="18"/>
     </row>
     <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F524" s="21"/>
-      <c r="G524" s="21"/>
+      <c r="F524" s="18"/>
+      <c r="G524" s="18"/>
     </row>
     <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F525" s="21"/>
-      <c r="G525" s="21"/>
+      <c r="F525" s="18"/>
+      <c r="G525" s="18"/>
     </row>
     <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F526" s="21"/>
-      <c r="G526" s="21"/>
+      <c r="F526" s="18"/>
+      <c r="G526" s="18"/>
     </row>
     <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F527" s="21"/>
-      <c r="G527" s="21"/>
+      <c r="F527" s="18"/>
+      <c r="G527" s="18"/>
     </row>
     <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F528" s="21"/>
-      <c r="G528" s="21"/>
+      <c r="F528" s="18"/>
+      <c r="G528" s="18"/>
     </row>
     <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F529" s="21"/>
-      <c r="G529" s="21"/>
+      <c r="F529" s="18"/>
+      <c r="G529" s="18"/>
     </row>
     <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F530" s="21"/>
-      <c r="G530" s="21"/>
+      <c r="F530" s="18"/>
+      <c r="G530" s="18"/>
     </row>
     <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F531" s="21"/>
-      <c r="G531" s="21"/>
+      <c r="F531" s="18"/>
+      <c r="G531" s="18"/>
     </row>
     <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F532" s="21"/>
-      <c r="G532" s="21"/>
+      <c r="F532" s="18"/>
+      <c r="G532" s="18"/>
     </row>
     <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F533" s="21"/>
-      <c r="G533" s="21"/>
+      <c r="F533" s="18"/>
+      <c r="G533" s="18"/>
     </row>
     <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F534" s="21"/>
-      <c r="G534" s="21"/>
+      <c r="F534" s="18"/>
+      <c r="G534" s="18"/>
     </row>
     <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F535" s="21"/>
-      <c r="G535" s="21"/>
+      <c r="F535" s="18"/>
+      <c r="G535" s="18"/>
     </row>
     <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F536" s="21"/>
-      <c r="G536" s="21"/>
+      <c r="F536" s="18"/>
+      <c r="G536" s="18"/>
     </row>
     <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F537" s="21"/>
-      <c r="G537" s="21"/>
+      <c r="F537" s="18"/>
+      <c r="G537" s="18"/>
     </row>
     <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F538" s="21"/>
-      <c r="G538" s="21"/>
+      <c r="F538" s="18"/>
+      <c r="G538" s="18"/>
     </row>
     <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F539" s="21"/>
-      <c r="G539" s="21"/>
+      <c r="F539" s="18"/>
+      <c r="G539" s="18"/>
     </row>
     <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F540" s="21"/>
-      <c r="G540" s="21"/>
+      <c r="F540" s="18"/>
+      <c r="G540" s="18"/>
     </row>
     <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F541" s="21"/>
-      <c r="G541" s="21"/>
+      <c r="F541" s="18"/>
+      <c r="G541" s="18"/>
     </row>
     <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F542" s="21"/>
-      <c r="G542" s="21"/>
+      <c r="F542" s="18"/>
+      <c r="G542" s="18"/>
     </row>
     <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F543" s="21"/>
-      <c r="G543" s="21"/>
+      <c r="F543" s="18"/>
+      <c r="G543" s="18"/>
     </row>
     <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F544" s="21"/>
-      <c r="G544" s="21"/>
+      <c r="F544" s="18"/>
+      <c r="G544" s="18"/>
     </row>
     <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F545" s="21"/>
-      <c r="G545" s="21"/>
+      <c r="F545" s="18"/>
+      <c r="G545" s="18"/>
     </row>
     <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F546" s="21"/>
-      <c r="G546" s="21"/>
+      <c r="F546" s="18"/>
+      <c r="G546" s="18"/>
     </row>
     <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F547" s="21"/>
-      <c r="G547" s="21"/>
+      <c r="F547" s="18"/>
+      <c r="G547" s="18"/>
     </row>
     <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F548" s="21"/>
-      <c r="G548" s="21"/>
+      <c r="F548" s="18"/>
+      <c r="G548" s="18"/>
     </row>
     <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F549" s="21"/>
-      <c r="G549" s="21"/>
+      <c r="F549" s="18"/>
+      <c r="G549" s="18"/>
     </row>
     <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F550" s="21"/>
-      <c r="G550" s="21"/>
+      <c r="F550" s="18"/>
+      <c r="G550" s="18"/>
     </row>
     <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F551" s="21"/>
-      <c r="G551" s="21"/>
+      <c r="F551" s="18"/>
+      <c r="G551" s="18"/>
     </row>
     <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F552" s="21"/>
-      <c r="G552" s="21"/>
+      <c r="F552" s="18"/>
+      <c r="G552" s="18"/>
     </row>
     <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F553" s="21"/>
-      <c r="G553" s="21"/>
+      <c r="F553" s="18"/>
+      <c r="G553" s="18"/>
     </row>
     <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F554" s="21"/>
-      <c r="G554" s="21"/>
+      <c r="F554" s="18"/>
+      <c r="G554" s="18"/>
     </row>
     <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F555" s="21"/>
-      <c r="G555" s="21"/>
+      <c r="F555" s="18"/>
+      <c r="G555" s="18"/>
     </row>
     <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F556" s="21"/>
-      <c r="G556" s="21"/>
+      <c r="F556" s="18"/>
+      <c r="G556" s="18"/>
     </row>
     <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F557" s="21"/>
-      <c r="G557" s="21"/>
+      <c r="F557" s="18"/>
+      <c r="G557" s="18"/>
     </row>
     <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F558" s="21"/>
-      <c r="G558" s="21"/>
+      <c r="F558" s="18"/>
+      <c r="G558" s="18"/>
     </row>
     <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F559" s="21"/>
-      <c r="G559" s="21"/>
+      <c r="F559" s="18"/>
+      <c r="G559" s="18"/>
     </row>
     <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F560" s="21"/>
-      <c r="G560" s="21"/>
+      <c r="F560" s="18"/>
+      <c r="G560" s="18"/>
     </row>
     <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F561" s="21"/>
-      <c r="G561" s="21"/>
+      <c r="F561" s="18"/>
+      <c r="G561" s="18"/>
     </row>
     <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F562" s="21"/>
-      <c r="G562" s="21"/>
+      <c r="F562" s="18"/>
+      <c r="G562" s="18"/>
     </row>
     <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F563" s="21"/>
-      <c r="G563" s="21"/>
+      <c r="F563" s="18"/>
+      <c r="G563" s="18"/>
     </row>
     <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F564" s="21"/>
-      <c r="G564" s="21"/>
+      <c r="F564" s="18"/>
+      <c r="G564" s="18"/>
     </row>
     <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F565" s="21"/>
-      <c r="G565" s="21"/>
+      <c r="F565" s="18"/>
+      <c r="G565" s="18"/>
     </row>
     <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F566" s="21"/>
-      <c r="G566" s="21"/>
+      <c r="F566" s="18"/>
+      <c r="G566" s="18"/>
     </row>
     <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F567" s="21"/>
-      <c r="G567" s="21"/>
+      <c r="F567" s="18"/>
+      <c r="G567" s="18"/>
     </row>
     <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F568" s="21"/>
-      <c r="G568" s="21"/>
+      <c r="F568" s="18"/>
+      <c r="G568" s="18"/>
     </row>
     <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F569" s="21"/>
-      <c r="G569" s="21"/>
+      <c r="F569" s="18"/>
+      <c r="G569" s="18"/>
     </row>
     <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F570" s="21"/>
-      <c r="G570" s="21"/>
+      <c r="F570" s="18"/>
+      <c r="G570" s="18"/>
     </row>
     <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F571" s="21"/>
-      <c r="G571" s="21"/>
+      <c r="F571" s="18"/>
+      <c r="G571" s="18"/>
     </row>
     <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F572" s="21"/>
-      <c r="G572" s="21"/>
+      <c r="F572" s="18"/>
+      <c r="G572" s="18"/>
     </row>
     <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F573" s="21"/>
-      <c r="G573" s="21"/>
+      <c r="F573" s="18"/>
+      <c r="G573" s="18"/>
     </row>
     <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F574" s="21"/>
-      <c r="G574" s="21"/>
+      <c r="F574" s="18"/>
+      <c r="G574" s="18"/>
     </row>
     <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F575" s="21"/>
-      <c r="G575" s="21"/>
+      <c r="F575" s="18"/>
+      <c r="G575" s="18"/>
     </row>
     <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F576" s="21"/>
-      <c r="G576" s="21"/>
+      <c r="F576" s="18"/>
+      <c r="G576" s="18"/>
     </row>
     <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F577" s="21"/>
-      <c r="G577" s="21"/>
+      <c r="F577" s="18"/>
+      <c r="G577" s="18"/>
     </row>
     <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F578" s="21"/>
-      <c r="G578" s="21"/>
+      <c r="F578" s="18"/>
+      <c r="G578" s="18"/>
     </row>
     <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F579" s="21"/>
-      <c r="G579" s="21"/>
+      <c r="F579" s="18"/>
+      <c r="G579" s="18"/>
     </row>
     <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F580" s="21"/>
-      <c r="G580" s="21"/>
+      <c r="F580" s="18"/>
+      <c r="G580" s="18"/>
     </row>
     <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F581" s="21"/>
-      <c r="G581" s="21"/>
+      <c r="F581" s="18"/>
+      <c r="G581" s="18"/>
     </row>
     <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F582" s="21"/>
-      <c r="G582" s="21"/>
+      <c r="F582" s="18"/>
+      <c r="G582" s="18"/>
     </row>
     <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F583" s="21"/>
-      <c r="G583" s="21"/>
+      <c r="F583" s="18"/>
+      <c r="G583" s="18"/>
     </row>
     <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F584" s="21"/>
-      <c r="G584" s="21"/>
+      <c r="F584" s="18"/>
+      <c r="G584" s="18"/>
     </row>
     <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F585" s="21"/>
-      <c r="G585" s="21"/>
+      <c r="F585" s="18"/>
+      <c r="G585" s="18"/>
     </row>
     <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F586" s="21"/>
-      <c r="G586" s="21"/>
+      <c r="F586" s="18"/>
+      <c r="G586" s="18"/>
     </row>
     <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F587" s="21"/>
-      <c r="G587" s="21"/>
+      <c r="F587" s="18"/>
+      <c r="G587" s="18"/>
     </row>
     <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F588" s="21"/>
-      <c r="G588" s="21"/>
+      <c r="F588" s="18"/>
+      <c r="G588" s="18"/>
     </row>
     <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F589" s="21"/>
-      <c r="G589" s="21"/>
+      <c r="F589" s="18"/>
+      <c r="G589" s="18"/>
     </row>
     <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F590" s="21"/>
-      <c r="G590" s="21"/>
+      <c r="F590" s="18"/>
+      <c r="G590" s="18"/>
     </row>
     <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F591" s="21"/>
-      <c r="G591" s="21"/>
+      <c r="F591" s="18"/>
+      <c r="G591" s="18"/>
     </row>
     <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F592" s="21"/>
-      <c r="G592" s="21"/>
+      <c r="F592" s="18"/>
+      <c r="G592" s="18"/>
     </row>
     <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F593" s="21"/>
-      <c r="G593" s="21"/>
+      <c r="F593" s="18"/>
+      <c r="G593" s="18"/>
     </row>
     <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F594" s="21"/>
-      <c r="G594" s="21"/>
+      <c r="F594" s="18"/>
+      <c r="G594" s="18"/>
     </row>
     <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F595" s="21"/>
-      <c r="G595" s="21"/>
+      <c r="F595" s="18"/>
+      <c r="G595" s="18"/>
     </row>
     <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F596" s="21"/>
-      <c r="G596" s="21"/>
+      <c r="F596" s="18"/>
+      <c r="G596" s="18"/>
     </row>
     <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F597" s="21"/>
-      <c r="G597" s="21"/>
+      <c r="F597" s="18"/>
+      <c r="G597" s="18"/>
     </row>
     <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F598" s="21"/>
-      <c r="G598" s="21"/>
+      <c r="F598" s="18"/>
+      <c r="G598" s="18"/>
     </row>
     <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F599" s="21"/>
-      <c r="G599" s="21"/>
+      <c r="F599" s="18"/>
+      <c r="G599" s="18"/>
     </row>
     <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F600" s="21"/>
-      <c r="G600" s="21"/>
+      <c r="F600" s="18"/>
+      <c r="G600" s="18"/>
     </row>
     <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F601" s="21"/>
-      <c r="G601" s="21"/>
+      <c r="F601" s="18"/>
+      <c r="G601" s="18"/>
     </row>
     <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F602" s="21"/>
-      <c r="G602" s="21"/>
+      <c r="F602" s="18"/>
+      <c r="G602" s="18"/>
     </row>
     <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F603" s="21"/>
-      <c r="G603" s="21"/>
+      <c r="F603" s="18"/>
+      <c r="G603" s="18"/>
     </row>
     <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F604" s="21"/>
-      <c r="G604" s="21"/>
+      <c r="F604" s="18"/>
+      <c r="G604" s="18"/>
     </row>
     <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F605" s="21"/>
-      <c r="G605" s="21"/>
+      <c r="F605" s="18"/>
+      <c r="G605" s="18"/>
     </row>
     <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F606" s="21"/>
-      <c r="G606" s="21"/>
+      <c r="F606" s="18"/>
+      <c r="G606" s="18"/>
     </row>
     <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F607" s="21"/>
-      <c r="G607" s="21"/>
+      <c r="F607" s="18"/>
+      <c r="G607" s="18"/>
     </row>
     <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F608" s="21"/>
-      <c r="G608" s="21"/>
+      <c r="F608" s="18"/>
+      <c r="G608" s="18"/>
     </row>
     <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F609" s="21"/>
-      <c r="G609" s="21"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="18"/>
     </row>
     <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F610" s="21"/>
-      <c r="G610" s="21"/>
+      <c r="F610" s="18"/>
+      <c r="G610" s="18"/>
     </row>
     <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F611" s="21"/>
-      <c r="G611" s="21"/>
+      <c r="F611" s="18"/>
+      <c r="G611" s="18"/>
     </row>
     <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F612" s="21"/>
-      <c r="G612" s="21"/>
+      <c r="F612" s="18"/>
+      <c r="G612" s="18"/>
     </row>
     <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F613" s="21"/>
-      <c r="G613" s="21"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="18"/>
     </row>
     <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F614" s="21"/>
-      <c r="G614" s="21"/>
+      <c r="F614" s="18"/>
+      <c r="G614" s="18"/>
     </row>
     <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F615" s="21"/>
-      <c r="G615" s="21"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="18"/>
     </row>
     <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F616" s="21"/>
-      <c r="G616" s="21"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="18"/>
     </row>
     <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F617" s="21"/>
-      <c r="G617" s="21"/>
+      <c r="F617" s="18"/>
+      <c r="G617" s="18"/>
     </row>
     <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F618" s="21"/>
-      <c r="G618" s="21"/>
+      <c r="F618" s="18"/>
+      <c r="G618" s="18"/>
     </row>
     <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F619" s="21"/>
-      <c r="G619" s="21"/>
+      <c r="F619" s="18"/>
+      <c r="G619" s="18"/>
     </row>
     <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F620" s="21"/>
-      <c r="G620" s="21"/>
+      <c r="F620" s="18"/>
+      <c r="G620" s="18"/>
     </row>
     <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F621" s="21"/>
-      <c r="G621" s="21"/>
+      <c r="F621" s="18"/>
+      <c r="G621" s="18"/>
     </row>
     <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F622" s="21"/>
-      <c r="G622" s="21"/>
+      <c r="F622" s="18"/>
+      <c r="G622" s="18"/>
     </row>
     <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F623" s="21"/>
-      <c r="G623" s="21"/>
+      <c r="F623" s="18"/>
+      <c r="G623" s="18"/>
     </row>
     <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F624" s="21"/>
-      <c r="G624" s="21"/>
+      <c r="F624" s="18"/>
+      <c r="G624" s="18"/>
     </row>
     <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F625" s="21"/>
-      <c r="G625" s="21"/>
+      <c r="F625" s="18"/>
+      <c r="G625" s="18"/>
     </row>
     <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F626" s="21"/>
-      <c r="G626" s="21"/>
+      <c r="F626" s="18"/>
+      <c r="G626" s="18"/>
     </row>
     <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F627" s="21"/>
-      <c r="G627" s="21"/>
+      <c r="F627" s="18"/>
+      <c r="G627" s="18"/>
     </row>
     <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F628" s="21"/>
-      <c r="G628" s="21"/>
+      <c r="F628" s="18"/>
+      <c r="G628" s="18"/>
     </row>
     <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F629" s="21"/>
-      <c r="G629" s="21"/>
+      <c r="F629" s="18"/>
+      <c r="G629" s="18"/>
     </row>
     <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F630" s="21"/>
-      <c r="G630" s="21"/>
+      <c r="F630" s="18"/>
+      <c r="G630" s="18"/>
     </row>
     <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F631" s="21"/>
-      <c r="G631" s="21"/>
+      <c r="F631" s="18"/>
+      <c r="G631" s="18"/>
     </row>
     <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F632" s="21"/>
-      <c r="G632" s="21"/>
+      <c r="F632" s="18"/>
+      <c r="G632" s="18"/>
     </row>
     <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F633" s="21"/>
-      <c r="G633" s="21"/>
+      <c r="F633" s="18"/>
+      <c r="G633" s="18"/>
     </row>
     <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F634" s="21"/>
-      <c r="G634" s="21"/>
+      <c r="F634" s="18"/>
+      <c r="G634" s="18"/>
     </row>
     <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F635" s="21"/>
-      <c r="G635" s="21"/>
+      <c r="F635" s="18"/>
+      <c r="G635" s="18"/>
     </row>
     <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F636" s="21"/>
-      <c r="G636" s="21"/>
+      <c r="F636" s="18"/>
+      <c r="G636" s="18"/>
     </row>
     <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F637" s="21"/>
-      <c r="G637" s="21"/>
+      <c r="F637" s="18"/>
+      <c r="G637" s="18"/>
     </row>
     <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F638" s="21"/>
-      <c r="G638" s="21"/>
+      <c r="F638" s="18"/>
+      <c r="G638" s="18"/>
     </row>
     <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F639" s="21"/>
-      <c r="G639" s="21"/>
+      <c r="F639" s="18"/>
+      <c r="G639" s="18"/>
     </row>
     <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F640" s="21"/>
-      <c r="G640" s="21"/>
+      <c r="F640" s="18"/>
+      <c r="G640" s="18"/>
     </row>
     <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F641" s="21"/>
-      <c r="G641" s="21"/>
+      <c r="F641" s="18"/>
+      <c r="G641" s="18"/>
     </row>
     <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F642" s="21"/>
-      <c r="G642" s="21"/>
+      <c r="F642" s="18"/>
+      <c r="G642" s="18"/>
     </row>
     <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F643" s="21"/>
-      <c r="G643" s="21"/>
+      <c r="F643" s="18"/>
+      <c r="G643" s="18"/>
     </row>
     <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F644" s="21"/>
-      <c r="G644" s="21"/>
+      <c r="F644" s="18"/>
+      <c r="G644" s="18"/>
     </row>
     <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F645" s="21"/>
-      <c r="G645" s="21"/>
+      <c r="F645" s="18"/>
+      <c r="G645" s="18"/>
     </row>
     <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F646" s="21"/>
-      <c r="G646" s="21"/>
+      <c r="F646" s="18"/>
+      <c r="G646" s="18"/>
     </row>
     <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F647" s="21"/>
-      <c r="G647" s="21"/>
+      <c r="F647" s="18"/>
+      <c r="G647" s="18"/>
     </row>
     <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F648" s="21"/>
-      <c r="G648" s="21"/>
+      <c r="F648" s="18"/>
+      <c r="G648" s="18"/>
     </row>
     <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F649" s="21"/>
-      <c r="G649" s="21"/>
+      <c r="F649" s="18"/>
+      <c r="G649" s="18"/>
     </row>
     <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F650" s="21"/>
-      <c r="G650" s="21"/>
+      <c r="F650" s="18"/>
+      <c r="G650" s="18"/>
     </row>
     <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F651" s="21"/>
-      <c r="G651" s="21"/>
+      <c r="F651" s="18"/>
+      <c r="G651" s="18"/>
     </row>
     <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F652" s="21"/>
-      <c r="G652" s="21"/>
+      <c r="F652" s="18"/>
+      <c r="G652" s="18"/>
     </row>
     <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F653" s="21"/>
-      <c r="G653" s="21"/>
+      <c r="F653" s="18"/>
+      <c r="G653" s="18"/>
     </row>
     <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F654" s="21"/>
-      <c r="G654" s="21"/>
+      <c r="F654" s="18"/>
+      <c r="G654" s="18"/>
     </row>
     <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F655" s="21"/>
-      <c r="G655" s="21"/>
+      <c r="F655" s="18"/>
+      <c r="G655" s="18"/>
     </row>
     <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F656" s="21"/>
-      <c r="G656" s="21"/>
+      <c r="F656" s="18"/>
+      <c r="G656" s="18"/>
     </row>
     <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F657" s="21"/>
-      <c r="G657" s="21"/>
+      <c r="F657" s="18"/>
+      <c r="G657" s="18"/>
     </row>
     <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F658" s="21"/>
-      <c r="G658" s="21"/>
+      <c r="F658" s="18"/>
+      <c r="G658" s="18"/>
     </row>
     <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F659" s="21"/>
-      <c r="G659" s="21"/>
+      <c r="F659" s="18"/>
+      <c r="G659" s="18"/>
     </row>
     <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F660" s="21"/>
-      <c r="G660" s="21"/>
+      <c r="F660" s="18"/>
+      <c r="G660" s="18"/>
     </row>
     <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F661" s="21"/>
-      <c r="G661" s="21"/>
+      <c r="F661" s="18"/>
+      <c r="G661" s="18"/>
     </row>
     <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F662" s="21"/>
-      <c r="G662" s="21"/>
+      <c r="F662" s="18"/>
+      <c r="G662" s="18"/>
     </row>
     <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F663" s="21"/>
-      <c r="G663" s="21"/>
+      <c r="F663" s="18"/>
+      <c r="G663" s="18"/>
     </row>
     <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F664" s="21"/>
-      <c r="G664" s="21"/>
+      <c r="F664" s="18"/>
+      <c r="G664" s="18"/>
     </row>
     <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F665" s="21"/>
-      <c r="G665" s="21"/>
+      <c r="F665" s="18"/>
+      <c r="G665" s="18"/>
     </row>
     <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F666" s="21"/>
-      <c r="G666" s="21"/>
+      <c r="F666" s="18"/>
+      <c r="G666" s="18"/>
     </row>
     <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F667" s="21"/>
-      <c r="G667" s="21"/>
+      <c r="F667" s="18"/>
+      <c r="G667" s="18"/>
     </row>
     <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F668" s="21"/>
-      <c r="G668" s="21"/>
+      <c r="F668" s="18"/>
+      <c r="G668" s="18"/>
     </row>
     <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F669" s="21"/>
-      <c r="G669" s="21"/>
+      <c r="F669" s="18"/>
+      <c r="G669" s="18"/>
     </row>
     <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F670" s="21"/>
-      <c r="G670" s="21"/>
+      <c r="F670" s="18"/>
+      <c r="G670" s="18"/>
     </row>
     <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F671" s="21"/>
-      <c r="G671" s="21"/>
+      <c r="F671" s="18"/>
+      <c r="G671" s="18"/>
     </row>
     <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F672" s="21"/>
-      <c r="G672" s="21"/>
+      <c r="F672" s="18"/>
+      <c r="G672" s="18"/>
     </row>
     <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F673" s="21"/>
-      <c r="G673" s="21"/>
+      <c r="F673" s="18"/>
+      <c r="G673" s="18"/>
     </row>
     <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F674" s="21"/>
-      <c r="G674" s="21"/>
+      <c r="F674" s="18"/>
+      <c r="G674" s="18"/>
     </row>
     <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F675" s="21"/>
-      <c r="G675" s="21"/>
+      <c r="F675" s="18"/>
+      <c r="G675" s="18"/>
     </row>
     <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F676" s="21"/>
-      <c r="G676" s="21"/>
+      <c r="F676" s="18"/>
+      <c r="G676" s="18"/>
     </row>
     <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F677" s="21"/>
-      <c r="G677" s="21"/>
+      <c r="F677" s="18"/>
+      <c r="G677" s="18"/>
     </row>
     <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F678" s="21"/>
-      <c r="G678" s="21"/>
+      <c r="F678" s="18"/>
+      <c r="G678" s="18"/>
     </row>
     <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F679" s="21"/>
-      <c r="G679" s="21"/>
+      <c r="F679" s="18"/>
+      <c r="G679" s="18"/>
     </row>
     <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F680" s="21"/>
-      <c r="G680" s="21"/>
+      <c r="F680" s="18"/>
+      <c r="G680" s="18"/>
     </row>
     <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F681" s="21"/>
-      <c r="G681" s="21"/>
+      <c r="F681" s="18"/>
+      <c r="G681" s="18"/>
     </row>
     <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F682" s="21"/>
-      <c r="G682" s="21"/>
+      <c r="F682" s="18"/>
+      <c r="G682" s="18"/>
     </row>
     <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F683" s="21"/>
-      <c r="G683" s="21"/>
+      <c r="F683" s="18"/>
+      <c r="G683" s="18"/>
     </row>
     <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F684" s="21"/>
-      <c r="G684" s="21"/>
+      <c r="F684" s="18"/>
+      <c r="G684" s="18"/>
     </row>
     <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F685" s="21"/>
-      <c r="G685" s="21"/>
+      <c r="F685" s="18"/>
+      <c r="G685" s="18"/>
     </row>
     <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F686" s="21"/>
-      <c r="G686" s="21"/>
+      <c r="F686" s="18"/>
+      <c r="G686" s="18"/>
     </row>
     <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F687" s="21"/>
-      <c r="G687" s="21"/>
+      <c r="F687" s="18"/>
+      <c r="G687" s="18"/>
     </row>
     <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F688" s="21"/>
-      <c r="G688" s="21"/>
+      <c r="F688" s="18"/>
+      <c r="G688" s="18"/>
     </row>
     <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F689" s="21"/>
-      <c r="G689" s="21"/>
+      <c r="F689" s="18"/>
+      <c r="G689" s="18"/>
     </row>
     <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F690" s="21"/>
-      <c r="G690" s="21"/>
+      <c r="F690" s="18"/>
+      <c r="G690" s="18"/>
     </row>
     <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F691" s="21"/>
-      <c r="G691" s="21"/>
+      <c r="F691" s="18"/>
+      <c r="G691" s="18"/>
     </row>
     <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F692" s="21"/>
-      <c r="G692" s="21"/>
+      <c r="F692" s="18"/>
+      <c r="G692" s="18"/>
     </row>
     <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F693" s="21"/>
-      <c r="G693" s="21"/>
+      <c r="F693" s="18"/>
+      <c r="G693" s="18"/>
     </row>
     <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F694" s="21"/>
-      <c r="G694" s="21"/>
+      <c r="F694" s="18"/>
+      <c r="G694" s="18"/>
     </row>
     <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F695" s="21"/>
-      <c r="G695" s="21"/>
+      <c r="F695" s="18"/>
+      <c r="G695" s="18"/>
     </row>
     <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F696" s="21"/>
-      <c r="G696" s="21"/>
+      <c r="F696" s="18"/>
+      <c r="G696" s="18"/>
     </row>
     <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F697" s="21"/>
-      <c r="G697" s="21"/>
+      <c r="F697" s="18"/>
+      <c r="G697" s="18"/>
     </row>
     <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F698" s="21"/>
-      <c r="G698" s="21"/>
+      <c r="F698" s="18"/>
+      <c r="G698" s="18"/>
     </row>
     <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F699" s="21"/>
-      <c r="G699" s="21"/>
+      <c r="F699" s="18"/>
+      <c r="G699" s="18"/>
     </row>
     <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F700" s="21"/>
-      <c r="G700" s="21"/>
+      <c r="F700" s="18"/>
+      <c r="G700" s="18"/>
     </row>
     <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F701" s="21"/>
-      <c r="G701" s="21"/>
+      <c r="F701" s="18"/>
+      <c r="G701" s="18"/>
     </row>
     <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F702" s="21"/>
-      <c r="G702" s="21"/>
+      <c r="F702" s="18"/>
+      <c r="G702" s="18"/>
     </row>
     <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F703" s="21"/>
-      <c r="G703" s="21"/>
+      <c r="F703" s="18"/>
+      <c r="G703" s="18"/>
     </row>
     <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F704" s="21"/>
-      <c r="G704" s="21"/>
+      <c r="F704" s="18"/>
+      <c r="G704" s="18"/>
     </row>
     <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F705" s="21"/>
-      <c r="G705" s="21"/>
+      <c r="F705" s="18"/>
+      <c r="G705" s="18"/>
     </row>
     <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F706" s="21"/>
-      <c r="G706" s="21"/>
+      <c r="F706" s="18"/>
+      <c r="G706" s="18"/>
     </row>
     <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F707" s="21"/>
-      <c r="G707" s="21"/>
+      <c r="F707" s="18"/>
+      <c r="G707" s="18"/>
     </row>
     <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F708" s="21"/>
-      <c r="G708" s="21"/>
+      <c r="F708" s="18"/>
+      <c r="G708" s="18"/>
     </row>
     <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F709" s="21"/>
-      <c r="G709" s="21"/>
+      <c r="F709" s="18"/>
+      <c r="G709" s="18"/>
     </row>
     <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F710" s="21"/>
-      <c r="G710" s="21"/>
+      <c r="F710" s="18"/>
+      <c r="G710" s="18"/>
     </row>
     <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F711" s="21"/>
-      <c r="G711" s="21"/>
+      <c r="F711" s="18"/>
+      <c r="G711" s="18"/>
     </row>
     <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F712" s="21"/>
-      <c r="G712" s="21"/>
+      <c r="F712" s="18"/>
+      <c r="G712" s="18"/>
     </row>
     <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F713" s="21"/>
-      <c r="G713" s="21"/>
+      <c r="F713" s="18"/>
+      <c r="G713" s="18"/>
     </row>
     <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F714" s="21"/>
-      <c r="G714" s="21"/>
+      <c r="F714" s="18"/>
+      <c r="G714" s="18"/>
     </row>
     <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F715" s="21"/>
-      <c r="G715" s="21"/>
+      <c r="F715" s="18"/>
+      <c r="G715" s="18"/>
     </row>
     <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F716" s="21"/>
-      <c r="G716" s="21"/>
+      <c r="F716" s="18"/>
+      <c r="G716" s="18"/>
     </row>
     <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F717" s="21"/>
-      <c r="G717" s="21"/>
+      <c r="F717" s="18"/>
+      <c r="G717" s="18"/>
     </row>
     <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F718" s="21"/>
-      <c r="G718" s="21"/>
+      <c r="F718" s="18"/>
+      <c r="G718" s="18"/>
     </row>
     <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F719" s="21"/>
-      <c r="G719" s="21"/>
+      <c r="F719" s="18"/>
+      <c r="G719" s="18"/>
     </row>
     <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F720" s="21"/>
-      <c r="G720" s="21"/>
+      <c r="F720" s="18"/>
+      <c r="G720" s="18"/>
     </row>
     <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F721" s="21"/>
-      <c r="G721" s="21"/>
+      <c r="F721" s="18"/>
+      <c r="G721" s="18"/>
     </row>
     <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F722" s="21"/>
-      <c r="G722" s="21"/>
+      <c r="F722" s="18"/>
+      <c r="G722" s="18"/>
     </row>
     <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F723" s="21"/>
-      <c r="G723" s="21"/>
+      <c r="F723" s="18"/>
+      <c r="G723" s="18"/>
     </row>
     <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F724" s="21"/>
-      <c r="G724" s="21"/>
+      <c r="F724" s="18"/>
+      <c r="G724" s="18"/>
     </row>
     <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F725" s="21"/>
-      <c r="G725" s="21"/>
+      <c r="F725" s="18"/>
+      <c r="G725" s="18"/>
     </row>
     <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F726" s="21"/>
-      <c r="G726" s="21"/>
+      <c r="F726" s="18"/>
+      <c r="G726" s="18"/>
     </row>
     <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F727" s="21"/>
-      <c r="G727" s="21"/>
+      <c r="F727" s="18"/>
+      <c r="G727" s="18"/>
     </row>
     <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F728" s="21"/>
-      <c r="G728" s="21"/>
+      <c r="F728" s="18"/>
+      <c r="G728" s="18"/>
     </row>
     <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F729" s="21"/>
-      <c r="G729" s="21"/>
+      <c r="F729" s="18"/>
+      <c r="G729" s="18"/>
     </row>
     <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F730" s="21"/>
-      <c r="G730" s="21"/>
+      <c r="F730" s="18"/>
+      <c r="G730" s="18"/>
     </row>
     <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F731" s="21"/>
-      <c r="G731" s="21"/>
+      <c r="F731" s="18"/>
+      <c r="G731" s="18"/>
     </row>
     <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F732" s="21"/>
-      <c r="G732" s="21"/>
+      <c r="F732" s="18"/>
+      <c r="G732" s="18"/>
     </row>
     <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F733" s="21"/>
-      <c r="G733" s="21"/>
+      <c r="F733" s="18"/>
+      <c r="G733" s="18"/>
     </row>
     <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F734" s="21"/>
-      <c r="G734" s="21"/>
+      <c r="F734" s="18"/>
+      <c r="G734" s="18"/>
     </row>
     <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F735" s="21"/>
-      <c r="G735" s="21"/>
+      <c r="F735" s="18"/>
+      <c r="G735" s="18"/>
     </row>
     <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F736" s="21"/>
-      <c r="G736" s="21"/>
+      <c r="F736" s="18"/>
+      <c r="G736" s="18"/>
     </row>
     <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F737" s="21"/>
-      <c r="G737" s="21"/>
+      <c r="F737" s="18"/>
+      <c r="G737" s="18"/>
     </row>
     <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F738" s="21"/>
-      <c r="G738" s="21"/>
+      <c r="F738" s="18"/>
+      <c r="G738" s="18"/>
     </row>
     <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F739" s="21"/>
-      <c r="G739" s="21"/>
+      <c r="F739" s="18"/>
+      <c r="G739" s="18"/>
     </row>
     <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F740" s="21"/>
-      <c r="G740" s="21"/>
+      <c r="F740" s="18"/>
+      <c r="G740" s="18"/>
     </row>
     <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F741" s="21"/>
-      <c r="G741" s="21"/>
+      <c r="F741" s="18"/>
+      <c r="G741" s="18"/>
     </row>
     <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F742" s="21"/>
-      <c r="G742" s="21"/>
+      <c r="F742" s="18"/>
+      <c r="G742" s="18"/>
     </row>
     <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F743" s="21"/>
-      <c r="G743" s="21"/>
+      <c r="F743" s="18"/>
+      <c r="G743" s="18"/>
     </row>
     <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F744" s="21"/>
-      <c r="G744" s="21"/>
+      <c r="F744" s="18"/>
+      <c r="G744" s="18"/>
     </row>
     <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F745" s="21"/>
-      <c r="G745" s="21"/>
+      <c r="F745" s="18"/>
+      <c r="G745" s="18"/>
     </row>
     <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F746" s="21"/>
-      <c r="G746" s="21"/>
+      <c r="F746" s="18"/>
+      <c r="G746" s="18"/>
     </row>
     <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F747" s="21"/>
-      <c r="G747" s="21"/>
+      <c r="F747" s="18"/>
+      <c r="G747" s="18"/>
     </row>
     <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F748" s="21"/>
-      <c r="G748" s="21"/>
+      <c r="F748" s="18"/>
+      <c r="G748" s="18"/>
     </row>
     <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F749" s="21"/>
-      <c r="G749" s="21"/>
+      <c r="F749" s="18"/>
+      <c r="G749" s="18"/>
     </row>
     <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F750" s="21"/>
-      <c r="G750" s="21"/>
+      <c r="F750" s="18"/>
+      <c r="G750" s="18"/>
     </row>
     <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F751" s="21"/>
-      <c r="G751" s="21"/>
+      <c r="F751" s="18"/>
+      <c r="G751" s="18"/>
     </row>
     <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F752" s="21"/>
-      <c r="G752" s="21"/>
+      <c r="F752" s="18"/>
+      <c r="G752" s="18"/>
     </row>
     <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F753" s="21"/>
-      <c r="G753" s="21"/>
+      <c r="F753" s="18"/>
+      <c r="G753" s="18"/>
     </row>
     <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F754" s="21"/>
-      <c r="G754" s="21"/>
+      <c r="F754" s="18"/>
+      <c r="G754" s="18"/>
     </row>
     <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F755" s="21"/>
-      <c r="G755" s="21"/>
+      <c r="F755" s="18"/>
+      <c r="G755" s="18"/>
     </row>
     <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F756" s="21"/>
-      <c r="G756" s="21"/>
+      <c r="F756" s="18"/>
+      <c r="G756" s="18"/>
     </row>
     <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F757" s="21"/>
-      <c r="G757" s="21"/>
+      <c r="F757" s="18"/>
+      <c r="G757" s="18"/>
     </row>
     <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F758" s="21"/>
-      <c r="G758" s="21"/>
+      <c r="F758" s="18"/>
+      <c r="G758" s="18"/>
     </row>
     <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F759" s="21"/>
-      <c r="G759" s="21"/>
+      <c r="F759" s="18"/>
+      <c r="G759" s="18"/>
     </row>
     <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F760" s="21"/>
-      <c r="G760" s="21"/>
+      <c r="F760" s="18"/>
+      <c r="G760" s="18"/>
     </row>
     <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F761" s="21"/>
-      <c r="G761" s="21"/>
+      <c r="F761" s="18"/>
+      <c r="G761" s="18"/>
     </row>
     <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F762" s="21"/>
-      <c r="G762" s="21"/>
+      <c r="F762" s="18"/>
+      <c r="G762" s="18"/>
     </row>
     <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F763" s="21"/>
-      <c r="G763" s="21"/>
+      <c r="F763" s="18"/>
+      <c r="G763" s="18"/>
     </row>
     <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F764" s="21"/>
-      <c r="G764" s="21"/>
+      <c r="F764" s="18"/>
+      <c r="G764" s="18"/>
     </row>
     <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F765" s="21"/>
-      <c r="G765" s="21"/>
+      <c r="F765" s="18"/>
+      <c r="G765" s="18"/>
     </row>
     <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F766" s="21"/>
-      <c r="G766" s="21"/>
+      <c r="F766" s="18"/>
+      <c r="G766" s="18"/>
     </row>
     <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F767" s="21"/>
-      <c r="G767" s="21"/>
+      <c r="F767" s="18"/>
+      <c r="G767" s="18"/>
     </row>
     <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F768" s="21"/>
-      <c r="G768" s="21"/>
+      <c r="F768" s="18"/>
+      <c r="G768" s="18"/>
     </row>
     <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F769" s="21"/>
-      <c r="G769" s="21"/>
+      <c r="F769" s="18"/>
+      <c r="G769" s="18"/>
     </row>
     <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F770" s="21"/>
-      <c r="G770" s="21"/>
+      <c r="F770" s="18"/>
+      <c r="G770" s="18"/>
     </row>
     <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F771" s="21"/>
-      <c r="G771" s="21"/>
+      <c r="F771" s="18"/>
+      <c r="G771" s="18"/>
     </row>
     <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F772" s="21"/>
-      <c r="G772" s="21"/>
+      <c r="F772" s="18"/>
+      <c r="G772" s="18"/>
     </row>
     <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F773" s="21"/>
-      <c r="G773" s="21"/>
+      <c r="F773" s="18"/>
+      <c r="G773" s="18"/>
     </row>
     <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F774" s="21"/>
-      <c r="G774" s="21"/>
+      <c r="F774" s="18"/>
+      <c r="G774" s="18"/>
     </row>
     <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F775" s="21"/>
-      <c r="G775" s="21"/>
+      <c r="F775" s="18"/>
+      <c r="G775" s="18"/>
     </row>
     <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F776" s="21"/>
-      <c r="G776" s="21"/>
+      <c r="F776" s="18"/>
+      <c r="G776" s="18"/>
     </row>
     <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F777" s="21"/>
-      <c r="G777" s="21"/>
+      <c r="F777" s="18"/>
+      <c r="G777" s="18"/>
     </row>
     <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F778" s="21"/>
-      <c r="G778" s="21"/>
+      <c r="F778" s="18"/>
+      <c r="G778" s="18"/>
     </row>
     <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F779" s="21"/>
-      <c r="G779" s="21"/>
+      <c r="F779" s="18"/>
+      <c r="G779" s="18"/>
     </row>
     <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F780" s="21"/>
-      <c r="G780" s="21"/>
+      <c r="F780" s="18"/>
+      <c r="G780" s="18"/>
     </row>
     <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F781" s="21"/>
-      <c r="G781" s="21"/>
+      <c r="F781" s="18"/>
+      <c r="G781" s="18"/>
     </row>
     <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F782" s="21"/>
-      <c r="G782" s="21"/>
+      <c r="F782" s="18"/>
+      <c r="G782" s="18"/>
     </row>
     <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F783" s="21"/>
-      <c r="G783" s="21"/>
+      <c r="F783" s="18"/>
+      <c r="G783" s="18"/>
     </row>
     <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F784" s="21"/>
-      <c r="G784" s="21"/>
+      <c r="F784" s="18"/>
+      <c r="G784" s="18"/>
     </row>
     <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F785" s="21"/>
-      <c r="G785" s="21"/>
+      <c r="F785" s="18"/>
+      <c r="G785" s="18"/>
     </row>
     <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F786" s="21"/>
-      <c r="G786" s="21"/>
+      <c r="F786" s="18"/>
+      <c r="G786" s="18"/>
     </row>
     <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F787" s="21"/>
-      <c r="G787" s="21"/>
+      <c r="F787" s="18"/>
+      <c r="G787" s="18"/>
     </row>
     <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F788" s="21"/>
-      <c r="G788" s="21"/>
+      <c r="F788" s="18"/>
+      <c r="G788" s="18"/>
     </row>
     <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F789" s="21"/>
-      <c r="G789" s="21"/>
+      <c r="F789" s="18"/>
+      <c r="G789" s="18"/>
     </row>
     <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F790" s="21"/>
-      <c r="G790" s="21"/>
+      <c r="F790" s="18"/>
+      <c r="G790" s="18"/>
     </row>
     <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F791" s="21"/>
-      <c r="G791" s="21"/>
+      <c r="F791" s="18"/>
+      <c r="G791" s="18"/>
     </row>
     <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F792" s="21"/>
-      <c r="G792" s="21"/>
+      <c r="F792" s="18"/>
+      <c r="G792" s="18"/>
     </row>
     <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F793" s="21"/>
-      <c r="G793" s="21"/>
+      <c r="F793" s="18"/>
+      <c r="G793" s="18"/>
     </row>
     <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F794" s="21"/>
-      <c r="G794" s="21"/>
+      <c r="F794" s="18"/>
+      <c r="G794" s="18"/>
     </row>
     <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F795" s="21"/>
-      <c r="G795" s="21"/>
+      <c r="F795" s="18"/>
+      <c r="G795" s="18"/>
     </row>
     <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F796" s="21"/>
-      <c r="G796" s="21"/>
+      <c r="F796" s="18"/>
+      <c r="G796" s="18"/>
     </row>
     <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F797" s="21"/>
-      <c r="G797" s="21"/>
+      <c r="F797" s="18"/>
+      <c r="G797" s="18"/>
     </row>
     <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F798" s="21"/>
-      <c r="G798" s="21"/>
+      <c r="F798" s="18"/>
+      <c r="G798" s="18"/>
     </row>
     <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F799" s="21"/>
-      <c r="G799" s="21"/>
+      <c r="F799" s="18"/>
+      <c r="G799" s="18"/>
     </row>
     <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F800" s="21"/>
-      <c r="G800" s="21"/>
+      <c r="F800" s="18"/>
+      <c r="G800" s="18"/>
     </row>
     <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F801" s="21"/>
-      <c r="G801" s="21"/>
+      <c r="F801" s="18"/>
+      <c r="G801" s="18"/>
     </row>
     <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F802" s="21"/>
-      <c r="G802" s="21"/>
+      <c r="F802" s="18"/>
+      <c r="G802" s="18"/>
     </row>
     <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F803" s="21"/>
-      <c r="G803" s="21"/>
+      <c r="F803" s="18"/>
+      <c r="G803" s="18"/>
     </row>
     <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F804" s="21"/>
-      <c r="G804" s="21"/>
+      <c r="F804" s="18"/>
+      <c r="G804" s="18"/>
     </row>
     <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F805" s="21"/>
-      <c r="G805" s="21"/>
+      <c r="F805" s="18"/>
+      <c r="G805" s="18"/>
     </row>
     <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F806" s="21"/>
-      <c r="G806" s="21"/>
+      <c r="F806" s="18"/>
+      <c r="G806" s="18"/>
     </row>
     <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F807" s="21"/>
-      <c r="G807" s="21"/>
+      <c r="F807" s="18"/>
+      <c r="G807" s="18"/>
     </row>
     <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F808" s="21"/>
-      <c r="G808" s="21"/>
+      <c r="F808" s="18"/>
+      <c r="G808" s="18"/>
     </row>
     <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F809" s="21"/>
-      <c r="G809" s="21"/>
+      <c r="F809" s="18"/>
+      <c r="G809" s="18"/>
     </row>
     <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F810" s="21"/>
-      <c r="G810" s="21"/>
+      <c r="F810" s="18"/>
+      <c r="G810" s="18"/>
     </row>
     <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F811" s="21"/>
-      <c r="G811" s="21"/>
+      <c r="F811" s="18"/>
+      <c r="G811" s="18"/>
     </row>
     <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F812" s="21"/>
-      <c r="G812" s="21"/>
+      <c r="F812" s="18"/>
+      <c r="G812" s="18"/>
     </row>
     <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F813" s="21"/>
-      <c r="G813" s="21"/>
+      <c r="F813" s="18"/>
+      <c r="G813" s="18"/>
     </row>
     <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F814" s="21"/>
-      <c r="G814" s="21"/>
+      <c r="F814" s="18"/>
+      <c r="G814" s="18"/>
     </row>
     <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F815" s="21"/>
-      <c r="G815" s="21"/>
+      <c r="F815" s="18"/>
+      <c r="G815" s="18"/>
     </row>
     <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F816" s="21"/>
-      <c r="G816" s="21"/>
+      <c r="F816" s="18"/>
+      <c r="G816" s="18"/>
     </row>
     <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F817" s="21"/>
-      <c r="G817" s="21"/>
+      <c r="F817" s="18"/>
+      <c r="G817" s="18"/>
     </row>
     <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F818" s="21"/>
-      <c r="G818" s="21"/>
+      <c r="F818" s="18"/>
+      <c r="G818" s="18"/>
     </row>
     <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F819" s="21"/>
-      <c r="G819" s="21"/>
+      <c r="F819" s="18"/>
+      <c r="G819" s="18"/>
     </row>
     <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F820" s="21"/>
-      <c r="G820" s="21"/>
+      <c r="F820" s="18"/>
+      <c r="G820" s="18"/>
     </row>
     <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F821" s="21"/>
-      <c r="G821" s="21"/>
+      <c r="F821" s="18"/>
+      <c r="G821" s="18"/>
     </row>
     <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F822" s="21"/>
-      <c r="G822" s="21"/>
+      <c r="F822" s="18"/>
+      <c r="G822" s="18"/>
     </row>
     <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F823" s="21"/>
-      <c r="G823" s="21"/>
+      <c r="F823" s="18"/>
+      <c r="G823" s="18"/>
     </row>
     <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F824" s="21"/>
-      <c r="G824" s="21"/>
+      <c r="F824" s="18"/>
+      <c r="G824" s="18"/>
     </row>
     <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F825" s="21"/>
-      <c r="G825" s="21"/>
+      <c r="F825" s="18"/>
+      <c r="G825" s="18"/>
     </row>
     <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F826" s="21"/>
-      <c r="G826" s="21"/>
+      <c r="F826" s="18"/>
+      <c r="G826" s="18"/>
     </row>
     <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F827" s="21"/>
-      <c r="G827" s="21"/>
+      <c r="F827" s="18"/>
+      <c r="G827" s="18"/>
     </row>
     <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F828" s="21"/>
-      <c r="G828" s="21"/>
+      <c r="F828" s="18"/>
+      <c r="G828" s="18"/>
     </row>
     <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F829" s="21"/>
-      <c r="G829" s="21"/>
+      <c r="F829" s="18"/>
+      <c r="G829" s="18"/>
     </row>
     <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F830" s="21"/>
-      <c r="G830" s="21"/>
+      <c r="F830" s="18"/>
+      <c r="G830" s="18"/>
     </row>
     <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F831" s="21"/>
-      <c r="G831" s="21"/>
+      <c r="F831" s="18"/>
+      <c r="G831" s="18"/>
     </row>
     <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F832" s="21"/>
-      <c r="G832" s="21"/>
+      <c r="F832" s="18"/>
+      <c r="G832" s="18"/>
     </row>
     <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F833" s="21"/>
-      <c r="G833" s="21"/>
+      <c r="F833" s="18"/>
+      <c r="G833" s="18"/>
     </row>
     <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F834" s="21"/>
-      <c r="G834" s="21"/>
+      <c r="F834" s="18"/>
+      <c r="G834" s="18"/>
     </row>
     <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F835" s="21"/>
-      <c r="G835" s="21"/>
+      <c r="F835" s="18"/>
+      <c r="G835" s="18"/>
     </row>
     <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F836" s="21"/>
-      <c r="G836" s="21"/>
+      <c r="F836" s="18"/>
+      <c r="G836" s="18"/>
     </row>
     <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F837" s="21"/>
-      <c r="G837" s="21"/>
+      <c r="F837" s="18"/>
+      <c r="G837" s="18"/>
     </row>
     <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F838" s="21"/>
-      <c r="G838" s="21"/>
+      <c r="F838" s="18"/>
+      <c r="G838" s="18"/>
     </row>
     <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F839" s="21"/>
-      <c r="G839" s="21"/>
+      <c r="F839" s="18"/>
+      <c r="G839" s="18"/>
     </row>
     <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F840" s="21"/>
-      <c r="G840" s="21"/>
+      <c r="F840" s="18"/>
+      <c r="G840" s="18"/>
     </row>
     <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F841" s="21"/>
-      <c r="G841" s="21"/>
+      <c r="F841" s="18"/>
+      <c r="G841" s="18"/>
     </row>
     <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F842" s="21"/>
-      <c r="G842" s="21"/>
+      <c r="F842" s="18"/>
+      <c r="G842" s="18"/>
     </row>
     <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F843" s="21"/>
-      <c r="G843" s="21"/>
+      <c r="F843" s="18"/>
+      <c r="G843" s="18"/>
     </row>
     <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F844" s="21"/>
-      <c r="G844" s="21"/>
+      <c r="F844" s="18"/>
+      <c r="G844" s="18"/>
     </row>
     <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F845" s="21"/>
-      <c r="G845" s="21"/>
+      <c r="F845" s="18"/>
+      <c r="G845" s="18"/>
     </row>
     <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F846" s="21"/>
-      <c r="G846" s="21"/>
+      <c r="F846" s="18"/>
+      <c r="G846" s="18"/>
     </row>
     <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F847" s="21"/>
-      <c r="G847" s="21"/>
+      <c r="F847" s="18"/>
+      <c r="G847" s="18"/>
     </row>
     <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F848" s="21"/>
-      <c r="G848" s="21"/>
+      <c r="F848" s="18"/>
+      <c r="G848" s="18"/>
     </row>
     <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F849" s="21"/>
-      <c r="G849" s="21"/>
+      <c r="F849" s="18"/>
+      <c r="G849" s="18"/>
     </row>
     <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F850" s="21"/>
-      <c r="G850" s="21"/>
+      <c r="F850" s="18"/>
+      <c r="G850" s="18"/>
     </row>
     <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F851" s="21"/>
-      <c r="G851" s="21"/>
+      <c r="F851" s="18"/>
+      <c r="G851" s="18"/>
     </row>
     <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F852" s="21"/>
-      <c r="G852" s="21"/>
+      <c r="F852" s="18"/>
+      <c r="G852" s="18"/>
     </row>
     <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F853" s="21"/>
-      <c r="G853" s="21"/>
+      <c r="F853" s="18"/>
+      <c r="G853" s="18"/>
     </row>
     <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F854" s="21"/>
-      <c r="G854" s="21"/>
+      <c r="F854" s="18"/>
+      <c r="G854" s="18"/>
     </row>
     <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F855" s="21"/>
-      <c r="G855" s="21"/>
+      <c r="F855" s="18"/>
+      <c r="G855" s="18"/>
     </row>
     <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F856" s="21"/>
-      <c r="G856" s="21"/>
+      <c r="F856" s="18"/>
+      <c r="G856" s="18"/>
     </row>
     <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F857" s="21"/>
-      <c r="G857" s="21"/>
+      <c r="F857" s="18"/>
+      <c r="G857" s="18"/>
     </row>
     <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F858" s="21"/>
-      <c r="G858" s="21"/>
+      <c r="F858" s="18"/>
+      <c r="G858" s="18"/>
     </row>
     <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F859" s="21"/>
-      <c r="G859" s="21"/>
+      <c r="F859" s="18"/>
+      <c r="G859" s="18"/>
     </row>
     <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F860" s="21"/>
-      <c r="G860" s="21"/>
+      <c r="F860" s="18"/>
+      <c r="G860" s="18"/>
     </row>
     <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F861" s="21"/>
-      <c r="G861" s="21"/>
+      <c r="F861" s="18"/>
+      <c r="G861" s="18"/>
     </row>
     <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F862" s="21"/>
-      <c r="G862" s="21"/>
+      <c r="F862" s="18"/>
+      <c r="G862" s="18"/>
     </row>
     <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F863" s="21"/>
-      <c r="G863" s="21"/>
+      <c r="F863" s="18"/>
+      <c r="G863" s="18"/>
     </row>
     <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F864" s="21"/>
-      <c r="G864" s="21"/>
+      <c r="F864" s="18"/>
+      <c r="G864" s="18"/>
     </row>
     <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F865" s="21"/>
-      <c r="G865" s="21"/>
+      <c r="F865" s="18"/>
+      <c r="G865" s="18"/>
     </row>
     <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F866" s="21"/>
-      <c r="G866" s="21"/>
+      <c r="F866" s="18"/>
+      <c r="G866" s="18"/>
     </row>
     <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F867" s="21"/>
-      <c r="G867" s="21"/>
+      <c r="F867" s="18"/>
+      <c r="G867" s="18"/>
     </row>
     <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F868" s="21"/>
-      <c r="G868" s="21"/>
+      <c r="F868" s="18"/>
+      <c r="G868" s="18"/>
     </row>
     <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F869" s="21"/>
-      <c r="G869" s="21"/>
+      <c r="F869" s="18"/>
+      <c r="G869" s="18"/>
     </row>
     <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F870" s="21"/>
-      <c r="G870" s="21"/>
+      <c r="F870" s="18"/>
+      <c r="G870" s="18"/>
     </row>
     <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F871" s="21"/>
-      <c r="G871" s="21"/>
+      <c r="F871" s="18"/>
+      <c r="G871" s="18"/>
     </row>
     <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F872" s="21"/>
-      <c r="G872" s="21"/>
+      <c r="F872" s="18"/>
+      <c r="G872" s="18"/>
     </row>
     <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F873" s="21"/>
-      <c r="G873" s="21"/>
+      <c r="F873" s="18"/>
+      <c r="G873" s="18"/>
     </row>
     <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F874" s="21"/>
-      <c r="G874" s="21"/>
+      <c r="F874" s="18"/>
+      <c r="G874" s="18"/>
     </row>
     <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F875" s="21"/>
-      <c r="G875" s="21"/>
+      <c r="F875" s="18"/>
+      <c r="G875" s="18"/>
     </row>
     <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F876" s="21"/>
-      <c r="G876" s="21"/>
+      <c r="F876" s="18"/>
+      <c r="G876" s="18"/>
     </row>
     <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F877" s="21"/>
-      <c r="G877" s="21"/>
+      <c r="F877" s="18"/>
+      <c r="G877" s="18"/>
     </row>
     <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F878" s="21"/>
-      <c r="G878" s="21"/>
+      <c r="F878" s="18"/>
+      <c r="G878" s="18"/>
     </row>
     <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F879" s="21"/>
-      <c r="G879" s="21"/>
+      <c r="F879" s="18"/>
+      <c r="G879" s="18"/>
     </row>
     <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F880" s="21"/>
-      <c r="G880" s="21"/>
+      <c r="F880" s="18"/>
+      <c r="G880" s="18"/>
     </row>
     <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F881" s="21"/>
-      <c r="G881" s="21"/>
+      <c r="F881" s="18"/>
+      <c r="G881" s="18"/>
     </row>
     <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F882" s="21"/>
-      <c r="G882" s="21"/>
+      <c r="F882" s="18"/>
+      <c r="G882" s="18"/>
     </row>
     <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F883" s="21"/>
-      <c r="G883" s="21"/>
+      <c r="F883" s="18"/>
+      <c r="G883" s="18"/>
     </row>
     <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F884" s="21"/>
-      <c r="G884" s="21"/>
+      <c r="F884" s="18"/>
+      <c r="G884" s="18"/>
     </row>
     <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F885" s="21"/>
-      <c r="G885" s="21"/>
+      <c r="F885" s="18"/>
+      <c r="G885" s="18"/>
     </row>
     <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F886" s="21"/>
-      <c r="G886" s="21"/>
+      <c r="F886" s="18"/>
+      <c r="G886" s="18"/>
     </row>
     <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F887" s="21"/>
-      <c r="G887" s="21"/>
+      <c r="F887" s="18"/>
+      <c r="G887" s="18"/>
     </row>
     <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F888" s="21"/>
-      <c r="G888" s="21"/>
+      <c r="F888" s="18"/>
+      <c r="G888" s="18"/>
     </row>
     <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F889" s="21"/>
-      <c r="G889" s="21"/>
+      <c r="F889" s="18"/>
+      <c r="G889" s="18"/>
     </row>
     <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F890" s="21"/>
-      <c r="G890" s="21"/>
+      <c r="F890" s="18"/>
+      <c r="G890" s="18"/>
     </row>
     <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F891" s="21"/>
-      <c r="G891" s="21"/>
+      <c r="F891" s="18"/>
+      <c r="G891" s="18"/>
     </row>
     <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F892" s="21"/>
-      <c r="G892" s="21"/>
+      <c r="F892" s="18"/>
+      <c r="G892" s="18"/>
     </row>
     <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F893" s="21"/>
-      <c r="G893" s="21"/>
+      <c r="F893" s="18"/>
+      <c r="G893" s="18"/>
     </row>
     <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F894" s="21"/>
-      <c r="G894" s="21"/>
+      <c r="F894" s="18"/>
+      <c r="G894" s="18"/>
     </row>
     <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F895" s="21"/>
-      <c r="G895" s="21"/>
+      <c r="F895" s="18"/>
+      <c r="G895" s="18"/>
     </row>
     <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F896" s="21"/>
-      <c r="G896" s="21"/>
+      <c r="F896" s="18"/>
+      <c r="G896" s="18"/>
     </row>
     <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F897" s="21"/>
-      <c r="G897" s="21"/>
+      <c r="F897" s="18"/>
+      <c r="G897" s="18"/>
     </row>
     <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F898" s="21"/>
-      <c r="G898" s="21"/>
+      <c r="F898" s="18"/>
+      <c r="G898" s="18"/>
     </row>
     <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F899" s="21"/>
-      <c r="G899" s="21"/>
+      <c r="F899" s="18"/>
+      <c r="G899" s="18"/>
     </row>
     <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F900" s="21"/>
-      <c r="G900" s="21"/>
+      <c r="F900" s="18"/>
+      <c r="G900" s="18"/>
     </row>
     <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F901" s="21"/>
-      <c r="G901" s="21"/>
+      <c r="F901" s="18"/>
+      <c r="G901" s="18"/>
     </row>
     <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F902" s="21"/>
-      <c r="G902" s="21"/>
+      <c r="F902" s="18"/>
+      <c r="G902" s="18"/>
     </row>
     <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F903" s="21"/>
-      <c r="G903" s="21"/>
+      <c r="F903" s="18"/>
+      <c r="G903" s="18"/>
     </row>
     <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F904" s="21"/>
-      <c r="G904" s="21"/>
+      <c r="F904" s="18"/>
+      <c r="G904" s="18"/>
     </row>
     <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F905" s="21"/>
-      <c r="G905" s="21"/>
+      <c r="F905" s="18"/>
+      <c r="G905" s="18"/>
     </row>
     <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F906" s="21"/>
-      <c r="G906" s="21"/>
+      <c r="F906" s="18"/>
+      <c r="G906" s="18"/>
     </row>
     <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F907" s="21"/>
-      <c r="G907" s="21"/>
+      <c r="F907" s="18"/>
+      <c r="G907" s="18"/>
     </row>
     <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F908" s="21"/>
-      <c r="G908" s="21"/>
+      <c r="F908" s="18"/>
+      <c r="G908" s="18"/>
     </row>
     <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F909" s="21"/>
-      <c r="G909" s="21"/>
+      <c r="F909" s="18"/>
+      <c r="G909" s="18"/>
     </row>
     <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F910" s="21"/>
-      <c r="G910" s="21"/>
+      <c r="F910" s="18"/>
+      <c r="G910" s="18"/>
     </row>
     <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F911" s="21"/>
-      <c r="G911" s="21"/>
+      <c r="F911" s="18"/>
+      <c r="G911" s="18"/>
     </row>
     <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F912" s="21"/>
-      <c r="G912" s="21"/>
+      <c r="F912" s="18"/>
+      <c r="G912" s="18"/>
     </row>
     <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F913" s="21"/>
-      <c r="G913" s="21"/>
+      <c r="F913" s="18"/>
+      <c r="G913" s="18"/>
     </row>
     <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F914" s="21"/>
-      <c r="G914" s="21"/>
+      <c r="F914" s="18"/>
+      <c r="G914" s="18"/>
     </row>
     <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F915" s="21"/>
-      <c r="G915" s="21"/>
+      <c r="F915" s="18"/>
+      <c r="G915" s="18"/>
     </row>
     <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F916" s="21"/>
-      <c r="G916" s="21"/>
+      <c r="F916" s="18"/>
+      <c r="G916" s="18"/>
     </row>
     <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F917" s="21"/>
-      <c r="G917" s="21"/>
+      <c r="F917" s="18"/>
+      <c r="G917" s="18"/>
     </row>
     <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F918" s="21"/>
-      <c r="G918" s="21"/>
+      <c r="F918" s="18"/>
+      <c r="G918" s="18"/>
     </row>
     <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F919" s="21"/>
-      <c r="G919" s="21"/>
+      <c r="F919" s="18"/>
+      <c r="G919" s="18"/>
     </row>
     <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F920" s="21"/>
-      <c r="G920" s="21"/>
+      <c r="F920" s="18"/>
+      <c r="G920" s="18"/>
     </row>
     <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F921" s="21"/>
-      <c r="G921" s="21"/>
+      <c r="F921" s="18"/>
+      <c r="G921" s="18"/>
     </row>
     <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F922" s="21"/>
-      <c r="G922" s="21"/>
+      <c r="F922" s="18"/>
+      <c r="G922" s="18"/>
     </row>
     <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F923" s="21"/>
-      <c r="G923" s="21"/>
+      <c r="F923" s="18"/>
+      <c r="G923" s="18"/>
     </row>
     <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F924" s="21"/>
-      <c r="G924" s="21"/>
+      <c r="F924" s="18"/>
+      <c r="G924" s="18"/>
     </row>
     <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F925" s="21"/>
-      <c r="G925" s="21"/>
+      <c r="F925" s="18"/>
+      <c r="G925" s="18"/>
     </row>
     <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F926" s="21"/>
-      <c r="G926" s="21"/>
+      <c r="F926" s="18"/>
+      <c r="G926" s="18"/>
     </row>
     <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F927" s="21"/>
-      <c r="G927" s="21"/>
+      <c r="F927" s="18"/>
+      <c r="G927" s="18"/>
     </row>
     <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F928" s="21"/>
-      <c r="G928" s="21"/>
+      <c r="F928" s="18"/>
+      <c r="G928" s="18"/>
     </row>
     <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F929" s="21"/>
-      <c r="G929" s="21"/>
+      <c r="F929" s="18"/>
+      <c r="G929" s="18"/>
     </row>
     <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F930" s="21"/>
-      <c r="G930" s="21"/>
+      <c r="F930" s="18"/>
+      <c r="G930" s="18"/>
     </row>
     <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F931" s="21"/>
-      <c r="G931" s="21"/>
+      <c r="F931" s="18"/>
+      <c r="G931" s="18"/>
     </row>
     <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F932" s="21"/>
-      <c r="G932" s="21"/>
+      <c r="F932" s="18"/>
+      <c r="G932" s="18"/>
     </row>
     <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F933" s="21"/>
-      <c r="G933" s="21"/>
+      <c r="F933" s="18"/>
+      <c r="G933" s="18"/>
     </row>
     <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F934" s="21"/>
-      <c r="G934" s="21"/>
+      <c r="F934" s="18"/>
+      <c r="G934" s="18"/>
     </row>
     <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F935" s="21"/>
-      <c r="G935" s="21"/>
+      <c r="F935" s="18"/>
+      <c r="G935" s="18"/>
     </row>
     <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F936" s="21"/>
-      <c r="G936" s="21"/>
+      <c r="F936" s="18"/>
+      <c r="G936" s="18"/>
     </row>
     <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F937" s="21"/>
-      <c r="G937" s="21"/>
+      <c r="F937" s="18"/>
+      <c r="G937" s="18"/>
     </row>
     <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F938" s="21"/>
-      <c r="G938" s="21"/>
+      <c r="F938" s="18"/>
+      <c r="G938" s="18"/>
     </row>
     <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F939" s="21"/>
-      <c r="G939" s="21"/>
+      <c r="F939" s="18"/>
+      <c r="G939" s="18"/>
     </row>
     <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F940" s="21"/>
-      <c r="G940" s="21"/>
+      <c r="F940" s="18"/>
+      <c r="G940" s="18"/>
     </row>
     <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F941" s="21"/>
-      <c r="G941" s="21"/>
+      <c r="F941" s="18"/>
+      <c r="G941" s="18"/>
     </row>
     <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F942" s="21"/>
-      <c r="G942" s="21"/>
+      <c r="F942" s="18"/>
+      <c r="G942" s="18"/>
     </row>
     <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F943" s="21"/>
-      <c r="G943" s="21"/>
+      <c r="F943" s="18"/>
+      <c r="G943" s="18"/>
     </row>
     <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F944" s="21"/>
-      <c r="G944" s="21"/>
+      <c r="F944" s="18"/>
+      <c r="G944" s="18"/>
     </row>
     <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F945" s="21"/>
-      <c r="G945" s="21"/>
+      <c r="F945" s="18"/>
+      <c r="G945" s="18"/>
     </row>
     <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F946" s="21"/>
-      <c r="G946" s="21"/>
+      <c r="F946" s="18"/>
+      <c r="G946" s="18"/>
     </row>
     <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F947" s="21"/>
-      <c r="G947" s="21"/>
+      <c r="F947" s="18"/>
+      <c r="G947" s="18"/>
     </row>
     <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F948" s="21"/>
-      <c r="G948" s="21"/>
+      <c r="F948" s="18"/>
+      <c r="G948" s="18"/>
     </row>
     <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F949" s="21"/>
-      <c r="G949" s="21"/>
+      <c r="F949" s="18"/>
+      <c r="G949" s="18"/>
     </row>
     <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F950" s="21"/>
-      <c r="G950" s="21"/>
+      <c r="F950" s="18"/>
+      <c r="G950" s="18"/>
     </row>
     <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F951" s="21"/>
-      <c r="G951" s="21"/>
+      <c r="F951" s="18"/>
+      <c r="G951" s="18"/>
     </row>
     <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F952" s="21"/>
-      <c r="G952" s="21"/>
+      <c r="F952" s="18"/>
+      <c r="G952" s="18"/>
     </row>
     <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F953" s="21"/>
-      <c r="G953" s="21"/>
+      <c r="F953" s="18"/>
+      <c r="G953" s="18"/>
     </row>
     <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F954" s="21"/>
-      <c r="G954" s="21"/>
+      <c r="F954" s="18"/>
+      <c r="G954" s="18"/>
     </row>
     <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F955" s="21"/>
-      <c r="G955" s="21"/>
+      <c r="F955" s="18"/>
+      <c r="G955" s="18"/>
     </row>
     <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F956" s="21"/>
-      <c r="G956" s="21"/>
+      <c r="F956" s="18"/>
+      <c r="G956" s="18"/>
     </row>
     <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F957" s="21"/>
-      <c r="G957" s="21"/>
+      <c r="F957" s="18"/>
+      <c r="G957" s="18"/>
     </row>
     <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F958" s="21"/>
-      <c r="G958" s="21"/>
+      <c r="F958" s="18"/>
+      <c r="G958" s="18"/>
     </row>
     <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F959" s="21"/>
-      <c r="G959" s="21"/>
+      <c r="F959" s="18"/>
+      <c r="G959" s="18"/>
     </row>
     <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F960" s="21"/>
-      <c r="G960" s="21"/>
+      <c r="F960" s="18"/>
+      <c r="G960" s="18"/>
     </row>
     <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F961" s="21"/>
-      <c r="G961" s="21"/>
+      <c r="F961" s="18"/>
+      <c r="G961" s="18"/>
     </row>
     <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F962" s="21"/>
-      <c r="G962" s="21"/>
+      <c r="F962" s="18"/>
+      <c r="G962" s="18"/>
     </row>
     <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F963" s="21"/>
-      <c r="G963" s="21"/>
+      <c r="F963" s="18"/>
+      <c r="G963" s="18"/>
     </row>
     <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F964" s="21"/>
-      <c r="G964" s="21"/>
+      <c r="F964" s="18"/>
+      <c r="G964" s="18"/>
     </row>
     <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F965" s="21"/>
-      <c r="G965" s="21"/>
+      <c r="F965" s="18"/>
+      <c r="G965" s="18"/>
     </row>
     <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F966" s="21"/>
-      <c r="G966" s="21"/>
+      <c r="F966" s="18"/>
+      <c r="G966" s="18"/>
     </row>
     <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F967" s="21"/>
-      <c r="G967" s="21"/>
+      <c r="F967" s="18"/>
+      <c r="G967" s="18"/>
     </row>
     <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F968" s="21"/>
-      <c r="G968" s="21"/>
+      <c r="F968" s="18"/>
+      <c r="G968" s="18"/>
     </row>
     <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F969" s="21"/>
-      <c r="G969" s="21"/>
+      <c r="F969" s="18"/>
+      <c r="G969" s="18"/>
     </row>
     <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F970" s="21"/>
-      <c r="G970" s="21"/>
+      <c r="F970" s="18"/>
+      <c r="G970" s="18"/>
     </row>
     <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F971" s="21"/>
-      <c r="G971" s="21"/>
+      <c r="F971" s="18"/>
+      <c r="G971" s="18"/>
     </row>
     <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F972" s="21"/>
-      <c r="G972" s="21"/>
+      <c r="F972" s="18"/>
+      <c r="G972" s="18"/>
     </row>
     <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F973" s="21"/>
-      <c r="G973" s="21"/>
+      <c r="F973" s="18"/>
+      <c r="G973" s="18"/>
     </row>
     <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F974" s="21"/>
-      <c r="G974" s="21"/>
+      <c r="F974" s="18"/>
+      <c r="G974" s="18"/>
     </row>
     <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F975" s="21"/>
-      <c r="G975" s="21"/>
+      <c r="F975" s="18"/>
+      <c r="G975" s="18"/>
     </row>
     <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F976" s="21"/>
-      <c r="G976" s="21"/>
+      <c r="F976" s="18"/>
+      <c r="G976" s="18"/>
     </row>
     <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F977" s="21"/>
-      <c r="G977" s="21"/>
+      <c r="F977" s="18"/>
+      <c r="G977" s="18"/>
     </row>
     <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F978" s="21"/>
-      <c r="G978" s="21"/>
+      <c r="F978" s="18"/>
+      <c r="G978" s="18"/>
     </row>
     <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F979" s="21"/>
-      <c r="G979" s="21"/>
+      <c r="F979" s="18"/>
+      <c r="G979" s="18"/>
     </row>
     <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F980" s="21"/>
-      <c r="G980" s="21"/>
+      <c r="F980" s="18"/>
+      <c r="G980" s="18"/>
     </row>
     <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F981" s="21"/>
-      <c r="G981" s="21"/>
+      <c r="F981" s="18"/>
+      <c r="G981" s="18"/>
     </row>
     <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F982" s="21"/>
-      <c r="G982" s="21"/>
+      <c r="F982" s="18"/>
+      <c r="G982" s="18"/>
     </row>
     <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F983" s="21"/>
-      <c r="G983" s="21"/>
+      <c r="F983" s="18"/>
+      <c r="G983" s="18"/>
     </row>
     <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F984" s="21"/>
-      <c r="G984" s="21"/>
+      <c r="F984" s="18"/>
+      <c r="G984" s="18"/>
     </row>
     <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F985" s="21"/>
-      <c r="G985" s="21"/>
+      <c r="F985" s="18"/>
+      <c r="G985" s="18"/>
     </row>
     <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F986" s="21"/>
-      <c r="G986" s="21"/>
+      <c r="F986" s="18"/>
+      <c r="G986" s="18"/>
     </row>
     <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F987" s="21"/>
-      <c r="G987" s="21"/>
+      <c r="F987" s="18"/>
+      <c r="G987" s="18"/>
     </row>
     <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F988" s="21"/>
-      <c r="G988" s="21"/>
+      <c r="F988" s="18"/>
+      <c r="G988" s="18"/>
     </row>
     <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F989" s="21"/>
-      <c r="G989" s="21"/>
+      <c r="F989" s="18"/>
+      <c r="G989" s="18"/>
     </row>
     <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F990" s="21"/>
-      <c r="G990" s="21"/>
+      <c r="F990" s="18"/>
+      <c r="G990" s="18"/>
     </row>
     <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F991" s="21"/>
-      <c r="G991" s="21"/>
+      <c r="F991" s="18"/>
+      <c r="G991" s="18"/>
     </row>
     <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F992" s="21"/>
-      <c r="G992" s="21"/>
+      <c r="F992" s="18"/>
+      <c r="G992" s="18"/>
     </row>
     <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F993" s="21"/>
-      <c r="G993" s="21"/>
+      <c r="F993" s="18"/>
+      <c r="G993" s="18"/>
     </row>
     <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F994" s="21"/>
-      <c r="G994" s="21"/>
+      <c r="F994" s="18"/>
+      <c r="G994" s="18"/>
     </row>
     <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F995" s="21"/>
-      <c r="G995" s="21"/>
+      <c r="F995" s="18"/>
+      <c r="G995" s="18"/>
     </row>
     <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F996" s="21"/>
-      <c r="G996" s="21"/>
+      <c r="F996" s="18"/>
+      <c r="G996" s="18"/>
     </row>
     <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F997" s="21"/>
-      <c r="G997" s="21"/>
+      <c r="F997" s="18"/>
+      <c r="G997" s="18"/>
     </row>
     <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F998" s="21"/>
-      <c r="G998" s="21"/>
+      <c r="F998" s="18"/>
+      <c r="G998" s="18"/>
     </row>
     <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F999" s="21"/>
-      <c r="G999" s="21"/>
+      <c r="F999" s="18"/>
+      <c r="G999" s="18"/>
     </row>
     <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1000" s="21"/>
-      <c r="G1000" s="21"/>
+      <c r="F1000" s="18"/>
+      <c r="G1000" s="18"/>
     </row>
     <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1001" s="21"/>
-      <c r="G1001" s="21"/>
+      <c r="F1001" s="18"/>
+      <c r="G1001" s="18"/>
     </row>
     <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1002" s="21"/>
-      <c r="G1002" s="21"/>
+      <c r="F1002" s="18"/>
+      <c r="G1002" s="18"/>
     </row>
     <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1003" s="21"/>
-      <c r="G1003" s="21"/>
+      <c r="F1003" s="18"/>
+      <c r="G1003" s="18"/>
     </row>
     <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1004" s="21"/>
-      <c r="G1004" s="21"/>
+      <c r="F1004" s="18"/>
+      <c r="G1004" s="18"/>
     </row>
     <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1005" s="21"/>
-      <c r="G1005" s="21"/>
+      <c r="F1005" s="18"/>
+      <c r="G1005" s="18"/>
     </row>
     <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1006" s="21"/>
-      <c r="G1006" s="21"/>
+      <c r="F1006" s="18"/>
+      <c r="G1006" s="18"/>
     </row>
     <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1007" s="21"/>
-      <c r="G1007" s="21"/>
+      <c r="F1007" s="18"/>
+      <c r="G1007" s="18"/>
     </row>
     <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1008" s="21"/>
-      <c r="G1008" s="21"/>
+      <c r="F1008" s="18"/>
+      <c r="G1008" s="18"/>
     </row>
     <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1009" s="21"/>
-      <c r="G1009" s="21"/>
+      <c r="F1009" s="18"/>
+      <c r="G1009" s="18"/>
     </row>
     <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1010" s="21"/>
-      <c r="G1010" s="21"/>
+      <c r="F1010" s="18"/>
+      <c r="G1010" s="18"/>
     </row>
     <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1011" s="21"/>
-      <c r="G1011" s="21"/>
+      <c r="F1011" s="18"/>
+      <c r="G1011" s="18"/>
     </row>
     <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1012" s="21"/>
-      <c r="G1012" s="21"/>
+      <c r="F1012" s="18"/>
+      <c r="G1012" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="12">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F51:G54"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5936,110 +5904,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>15</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <f>WP!D9 + WP!D11 + WP!D18 + WP!D20 + WP!D30 + WP!D32 + WP!D39 + WP!D41 + WP!D51</f>
         <v>14</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41  + WP!E51</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>14</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <f>WP!D8 + WP!D10 + WP!D14 + WP!D16 + WP!D29 + WP!D31 + WP!D35 + WP!D37</f>
         <v>14</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>16</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <f>WP!D2 + WP!D3 + WP!D15 + WP!D17 + WP!D23 + WP!D24 + WP!D36 + WP!D38</f>
         <v>16</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <f>WP!D4 + WP!D6 + WP!D19 + WP!D21 + WP!D25 + WP!D27 + WP!D40 + WP!D42</f>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>15</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <f>WP!D5 + WP!D7 + WP!D12 + WP!D13 + WP!D26 + WP!D28 + WP!D33 + WP!D34</f>
         <v>14</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f>WP!E5 + WP!E7 + WP!E12 + WP!E13 + WP!E26 + WP!E28 + WP!E33 + WP!E34</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <f>B2+B3+B4+B5+B6</f>
         <v>60</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <f>C2+C3+C4+C5+C6</f>
         <v>58</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <f>D2+D3+D4+D5+D6</f>
         <v>26</v>
       </c>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9C8DF-A0DC-4F35-8932-18D332B5B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B466B-C531-46EC-82F8-3993E6EE5CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1194,10 +1194,14 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="39" t="s">
-        <v>24</v>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="37"/>
     </row>
@@ -1228,7 +1232,9 @@
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
       <c r="E6" s="34"/>
       <c r="F6" s="39" t="s">
         <v>24</v>
@@ -1265,9 +1271,11 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="39" t="s">
-        <v>24</v>
+      <c r="E8" s="34">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="37"/>
     </row>
@@ -1304,8 +1312,8 @@
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>24</v>
+      <c r="F10" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1339,9 +1347,11 @@
       <c r="D12" s="6">
         <v>0.5</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="39" t="s">
-        <v>24</v>
+      <c r="E12" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="37"/>
     </row>
@@ -1356,9 +1366,11 @@
       <c r="D13" s="6">
         <v>0.5</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="39" t="s">
-        <v>24</v>
+      <c r="E13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="37"/>
     </row>
@@ -1376,8 +1388,8 @@
       <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>24</v>
+      <c r="F14" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="37"/>
     </row>
@@ -1459,10 +1471,14 @@
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="39" t="s">
-        <v>24</v>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -1493,10 +1509,14 @@
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="39" t="s">
-        <v>24</v>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="37"/>
     </row>
@@ -1557,10 +1577,12 @@
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="39" t="s">
-        <v>24</v>
+      <c r="F25" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="G25" s="37"/>
     </row>
@@ -1591,7 +1613,9 @@
       <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
       <c r="E27" s="34"/>
       <c r="F27" s="39" t="s">
         <v>24</v>
@@ -1610,8 +1634,8 @@
         <v>4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="39" t="s">
-        <v>24</v>
+      <c r="F28" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="37"/>
     </row>
@@ -1626,9 +1650,11 @@
       <c r="D29" s="6">
         <v>3</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="44" t="s">
-        <v>23</v>
+      <c r="E29" s="34">
+        <v>3</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="37"/>
     </row>
@@ -1643,9 +1669,11 @@
       <c r="D30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="44" t="s">
-        <v>23</v>
+      <c r="E30" s="34">
+        <v>3</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G30" s="37"/>
     </row>
@@ -1660,9 +1688,11 @@
       <c r="D31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="44" t="s">
-        <v>23</v>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="37"/>
     </row>
@@ -1677,9 +1707,11 @@
       <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="44" t="s">
-        <v>23</v>
+      <c r="E32" s="34">
+        <v>3</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G32" s="37"/>
     </row>
@@ -1694,9 +1726,11 @@
       <c r="D33" s="6">
         <v>0.5</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="39" t="s">
-        <v>24</v>
+      <c r="E33" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="37"/>
     </row>
@@ -1711,9 +1745,11 @@
       <c r="D34" s="6">
         <v>0.5</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="39" t="s">
-        <v>24</v>
+      <c r="E34" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="37"/>
     </row>
@@ -1796,9 +1832,11 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="39" t="s">
-        <v>24</v>
+      <c r="E39" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G39" s="37"/>
     </row>
@@ -1810,10 +1848,14 @@
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="39" t="s">
-        <v>24</v>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <v>1</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="37"/>
     </row>
@@ -1828,9 +1870,11 @@
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="39" t="s">
-        <v>24</v>
+      <c r="E41" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G41" s="37"/>
     </row>
@@ -1842,10 +1886,14 @@
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="39" t="s">
-        <v>24</v>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G42" s="37"/>
     </row>
@@ -2004,15 +2052,15 @@
       </c>
       <c r="D57" s="27">
         <f>COUNTIF(F2:F54,"Doing")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="26">
         <f>(D57/D56)</f>
-        <v>9.7560975609756101E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="F57" s="53">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G57" s="54"/>
     </row>
@@ -2024,11 +2072,11 @@
       </c>
       <c r="D58" s="28">
         <f>COUNTIF(F2:F54,"To do")</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E58" s="26">
         <f>D58/D56</f>
-        <v>0.63414634146341464</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="56"/>
@@ -2041,11 +2089,11 @@
       </c>
       <c r="D59" s="29">
         <f>COUNTIF(F2:F54,"Done")</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E59" s="26">
         <f>D59/D56</f>
-        <v>0.26829268292682928</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="58"/>
@@ -5874,7 +5922,7 @@
     <mergeCell ref="E51:E54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5892,7 +5940,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5930,7 +5978,7 @@
       </c>
       <c r="D2" s="22">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41  + WP!E51</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5946,7 +5994,7 @@
       </c>
       <c r="D3" s="22">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,14 +6017,16 @@
       <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22">
+        <v>14</v>
+      </c>
       <c r="C5" s="22">
         <f>WP!D4 + WP!D6 + WP!D19 + WP!D21 + WP!D25 + WP!D27 + WP!D40 + WP!D42</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="22">
         <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,7 +6042,7 @@
       </c>
       <c r="D6" s="22">
         <f>WP!E5 + WP!E7 + WP!E12 + WP!E13 + WP!E26 + WP!E28 + WP!E33 + WP!E34</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6001,15 +6051,15 @@
       </c>
       <c r="B7" s="23">
         <f>B2+B3+B4+B5+B6</f>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C7" s="23">
         <f>C2+C3+C4+C5+C6</f>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D7" s="23">
         <f>D2+D3+D4+D5+D6</f>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B466B-C531-46EC-82F8-3993E6EE5CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DA98D-1D72-473C-BBB3-33B53D91B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1580,9 +1580,11 @@
       <c r="D25" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="44" t="s">
-        <v>23</v>
+      <c r="E25" s="34">
+        <v>5</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="37"/>
     </row>
@@ -1764,9 +1766,11 @@
       <c r="D35" s="6">
         <v>1</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39" t="s">
-        <v>24</v>
+      <c r="E35" s="34">
+        <v>1</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="37"/>
     </row>
@@ -2052,15 +2056,15 @@
       </c>
       <c r="D57" s="27">
         <f>COUNTIF(F2:F54,"Doing")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="26">
         <f>(D57/D56)</f>
-        <v>4.878048780487805E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="F57" s="53">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G57" s="54"/>
     </row>
@@ -2072,11 +2076,11 @@
       </c>
       <c r="D58" s="28">
         <f>COUNTIF(F2:F54,"To do")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="26">
         <f>D58/D56</f>
-        <v>0.24390243902439024</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="56"/>
@@ -2089,11 +2093,11 @@
       </c>
       <c r="D59" s="29">
         <f>COUNTIF(F2:F54,"Done")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E59" s="26">
         <f>D59/D56</f>
-        <v>0.70731707317073167</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="58"/>
@@ -5922,7 +5926,7 @@
     <mergeCell ref="E51:E54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1012 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5994,7 +5998,7 @@
       </c>
       <c r="D3" s="22">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,7 +6030,7 @@
       </c>
       <c r="D5" s="22">
         <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,7 +6063,7 @@
       </c>
       <c r="D7" s="23">
         <f>D2+D3+D4+D5+D6</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DA98D-1D72-473C-BBB3-33B53D91B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86ADD9C-D822-4B44-AD0C-8B56948FA082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,14 +443,8 @@
         <bgColor rgb="FF4285F4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -708,11 +702,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,9 +835,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,13 +896,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1134,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1171,7 @@
       <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1168,7 +1192,7 @@
       <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1187,7 +1211,7 @@
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1230,7 @@
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1225,7 +1249,7 @@
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1266,7 @@
       <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1285,7 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1304,7 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1323,7 @@
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1318,7 +1342,7 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +1361,7 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1380,7 @@
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1375,7 +1399,7 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1418,7 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -1404,14 +1428,16 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39" t="s">
-        <v>24</v>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1428,7 +1454,7 @@
       <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1445,7 +1471,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1490,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
@@ -1483,7 +1509,7 @@
       <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
@@ -1502,7 +1528,7 @@
       <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
@@ -1530,7 +1556,7 @@
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1551,7 +1577,7 @@
       <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1570,7 +1596,7 @@
       <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
@@ -1589,7 +1615,7 @@
       <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
@@ -1608,7 +1634,7 @@
       <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1625,7 +1651,7 @@
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1636,13 +1662,13 @@
         <v>4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="44" t="s">
-        <v>23</v>
+      <c r="F28" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -1661,7 +1687,7 @@
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -1680,7 +1706,7 @@
       <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1699,7 +1725,7 @@
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -1718,7 +1744,7 @@
       <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1763,7 @@
       <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1782,7 @@
       <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
@@ -1775,7 +1801,7 @@
       <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
@@ -1785,14 +1811,16 @@
       <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="39" t="s">
-        <v>24</v>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
@@ -1809,7 +1837,7 @@
       <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
@@ -1826,7 +1854,7 @@
       <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
@@ -1845,7 +1873,7 @@
       <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
@@ -1864,7 +1892,7 @@
       <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1911,7 @@
       <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
@@ -1911,7 +1939,7 @@
       <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="62" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="15"/>
@@ -1922,7 +1950,7 @@
       <c r="G44" s="37"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="15"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -1931,7 +1959,7 @@
       <c r="G45" s="37"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="15"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -1940,7 +1968,7 @@
       <c r="G46" s="37"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="15"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -1949,7 +1977,7 @@
       <c r="G47" s="37"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="6"/>
@@ -1958,7 +1986,7 @@
       <c r="G48" s="37"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="6"/>
@@ -1976,63 +2004,65 @@
       <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="67"/>
+      <c r="C51" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="70">
+      <c r="D51" s="69">
         <v>3</v>
       </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="39" t="s">
-        <v>24</v>
+      <c r="E51" s="72">
+        <v>3</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>12</v>
       </c>
       <c r="G51" s="37"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="39"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="39"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="37"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="39"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="77"/>
       <c r="G54" s="37"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="67"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="46"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="30" t="s">
         <v>25</v>
       </c>
@@ -2043,64 +2073,64 @@
       <c r="E56" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="52"/>
+      <c r="G56" s="51"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="27">
         <f>COUNTIF(F2:F54,"Doing")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="26">
         <f>(D57/D56)</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="F57" s="53">
+        <v>0</v>
+      </c>
+      <c r="F57" s="52">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>55</v>
-      </c>
-      <c r="G57" s="54"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="28">
         <f>COUNTIF(F2:F54,"To do")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="26">
         <f>D58/D56</f>
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="56"/>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="29">
         <f>COUNTIF(F2:F54,"Done")</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E59" s="26">
         <f>D59/D56</f>
-        <v>0.75609756097560976</v>
-      </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="58"/>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="18"/>
@@ -5911,7 +5941,7 @@
       <c r="G1012" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F57:G59"/>
@@ -5924,9 +5954,10 @@
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F51:F54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F51 F44:F49 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5944,7 +5975,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5982,7 +6013,7 @@
       </c>
       <c r="D2" s="22">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41  + WP!E51</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,7 +6045,7 @@
       </c>
       <c r="D4" s="22">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6022,7 +6053,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="22">
         <f>WP!D4 + WP!D6 + WP!D19 + WP!D21 + WP!D25 + WP!D27 + WP!D40 + WP!D42</f>
@@ -6055,7 +6086,7 @@
       </c>
       <c r="B7" s="23">
         <f>B2+B3+B4+B5+B6</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="23">
         <f>C2+C3+C4+C5+C6</f>
@@ -6063,7 +6094,7 @@
       </c>
       <c r="D7" s="23">
         <f>D2+D3+D4+D5+D6</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Release Planning/Release4_ planning.xlsx
+++ b/Release Planning/Release4_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86ADD9C-D822-4B44-AD0C-8B56948FA082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD42EA-F328-4BD2-A3F8-842AC0C58232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,8 +1134,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1259,9 +1259,11 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="39" t="s">
-        <v>24</v>
+      <c r="E6" s="34">
+        <v>2</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="37"/>
     </row>
@@ -1447,9 +1449,11 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="39" t="s">
-        <v>24</v>
+      <c r="E16" s="34">
+        <v>1</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="37"/>
     </row>
@@ -1464,9 +1468,11 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="39" t="s">
-        <v>24</v>
+      <c r="E17" s="34">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="37"/>
     </row>
@@ -1644,9 +1650,11 @@
       <c r="D27" s="6">
         <v>4</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="39" t="s">
-        <v>24</v>
+      <c r="E27" s="34">
+        <v>4</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G27" s="37"/>
     </row>
@@ -1830,9 +1838,11 @@
       <c r="D37" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="39" t="s">
-        <v>24</v>
+      <c r="E37" s="34">
+        <v>1</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="37"/>
     </row>
@@ -2094,7 +2104,7 @@
       </c>
       <c r="F57" s="52">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G57" s="53"/>
     </row>
@@ -2106,11 +2116,11 @@
       </c>
       <c r="D58" s="28">
         <f>COUNTIF(F2:F54,"To do")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E58" s="26">
         <f>D58/D56</f>
-        <v>0.17073170731707318</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="55"/>
@@ -2123,11 +2133,11 @@
       </c>
       <c r="D59" s="29">
         <f>COUNTIF(F2:F54,"Done")</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E59" s="26">
         <f>D59/D56</f>
-        <v>0.82926829268292679</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="F59" s="56"/>
       <c r="G59" s="57"/>
@@ -6029,7 +6039,7 @@
       </c>
       <c r="D3" s="22">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,7 +6055,7 @@
       </c>
       <c r="D4" s="22">
         <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6061,7 +6071,7 @@
       </c>
       <c r="D5" s="22">
         <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6094,7 +6104,7 @@
       </c>
       <c r="D7" s="23">
         <f>D2+D3+D4+D5+D6</f>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
